--- a/inst/extdata/oilfield_100w_raw_data.xlsx
+++ b/inst/extdata/oilfield_100w_raw_data.xlsx
@@ -748,7 +748,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="1382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="1381">
   <si>
     <t>Wellname</t>
   </si>
@@ -1675,9 +1675,6 @@
   </si>
   <si>
     <t>PSCO-M002-LS</t>
-  </si>
-  <si>
-    <t>PMO</t>
   </si>
   <si>
     <t>0|2015|</t>
@@ -5388,9 +5385,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F5E7DE-FFDA-440E-8FE6-8CF5EA77E166}">
   <dimension ref="A1:AY101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM71" sqref="AM71"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8393,9 +8390,6 @@
       <c r="D20" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="F20" t="s">
         <v>56</v>
       </c>
@@ -8475,7 +8469,7 @@
         <v>1.9249999520000001</v>
       </c>
       <c r="AF20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG20" t="s">
         <v>298</v>
@@ -8532,12 +8526,12 @@
         <v>1312</v>
       </c>
       <c r="AY20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>52</v>
@@ -8549,7 +8543,7 @@
         <v>54</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F21" t="s">
         <v>56</v>
@@ -8630,7 +8624,7 @@
         <v>1.5800000430000001</v>
       </c>
       <c r="AF21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG21" t="s">
         <v>298</v>
@@ -8639,7 +8633,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AJ21">
         <v>2579.0000132810001</v>
@@ -8687,27 +8681,27 @@
         <v>1126</v>
       </c>
       <c r="AY21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D22" t="s">
         <v>54</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F22" t="s">
         <v>319</v>
-      </c>
-      <c r="F22" t="s">
-        <v>320</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -8785,7 +8779,7 @@
         <v>7.4353027340000004</v>
       </c>
       <c r="AF22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG22" t="s">
         <v>298</v>
@@ -8794,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="AI22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AJ22">
         <v>1491.000042188</v>
@@ -8806,63 +8800,63 @@
         <v>65</v>
       </c>
       <c r="AM22" t="s">
+        <v>322</v>
+      </c>
+      <c r="AN22" t="s">
         <v>323</v>
       </c>
-      <c r="AN22" t="s">
+      <c r="AO22" t="s">
         <v>324</v>
       </c>
-      <c r="AO22" t="s">
+      <c r="AP22" t="s">
         <v>325</v>
       </c>
-      <c r="AP22" t="s">
+      <c r="AQ22" t="s">
         <v>326</v>
       </c>
-      <c r="AQ22" t="s">
+      <c r="AR22" t="s">
         <v>327</v>
       </c>
-      <c r="AR22" t="s">
+      <c r="AS22" t="s">
         <v>328</v>
       </c>
-      <c r="AS22" t="s">
+      <c r="AT22" t="s">
         <v>329</v>
       </c>
-      <c r="AT22" t="s">
+      <c r="AU22" t="s">
         <v>330</v>
       </c>
-      <c r="AU22" t="s">
+      <c r="AV22" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="AV22" s="8" t="s">
+      <c r="AW22" t="s">
+        <v>326</v>
+      </c>
+      <c r="AX22" t="s">
         <v>332</v>
       </c>
-      <c r="AW22" t="s">
-        <v>327</v>
-      </c>
-      <c r="AX22" t="s">
+      <c r="AY22" t="s">
         <v>333</v>
-      </c>
-      <c r="AY22" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D23" t="s">
         <v>54</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -8940,16 +8934,16 @@
         <v>2.2999999519999998</v>
       </c>
       <c r="AF23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG23" t="s">
         <v>337</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AH23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="s">
         <v>338</v>
-      </c>
-      <c r="AH23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>339</v>
       </c>
       <c r="AJ23">
         <v>603.49998164099998</v>
@@ -8961,63 +8955,63 @@
         <v>65</v>
       </c>
       <c r="AM23" t="s">
+        <v>339</v>
+      </c>
+      <c r="AN23" t="s">
         <v>340</v>
       </c>
-      <c r="AN23" t="s">
+      <c r="AO23" t="s">
         <v>341</v>
       </c>
-      <c r="AO23" t="s">
+      <c r="AP23" t="s">
         <v>342</v>
       </c>
-      <c r="AP23" t="s">
+      <c r="AQ23" t="s">
         <v>343</v>
       </c>
-      <c r="AQ23" t="s">
+      <c r="AR23" t="s">
         <v>344</v>
       </c>
-      <c r="AR23" t="s">
+      <c r="AS23" t="s">
         <v>345</v>
       </c>
-      <c r="AS23" t="s">
+      <c r="AT23" t="s">
         <v>346</v>
       </c>
-      <c r="AT23" t="s">
+      <c r="AU23" t="s">
         <v>347</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>348</v>
       </c>
       <c r="AV23" s="8" t="s">
         <v>103</v>
       </c>
       <c r="AW23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AX23" t="s">
+        <v>348</v>
+      </c>
+      <c r="AY23" t="s">
         <v>349</v>
-      </c>
-      <c r="AY23" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D24" t="s">
         <v>54</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -9095,16 +9089,16 @@
         <v>6.1999998090000004</v>
       </c>
       <c r="AF24" t="s">
+        <v>352</v>
+      </c>
+      <c r="AG24" t="s">
         <v>353</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AH24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="s">
         <v>354</v>
-      </c>
-      <c r="AH24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>355</v>
       </c>
       <c r="AJ24">
         <v>1832.8000535159999</v>
@@ -9116,63 +9110,63 @@
         <v>65</v>
       </c>
       <c r="AM24" t="s">
+        <v>355</v>
+      </c>
+      <c r="AN24" t="s">
         <v>356</v>
       </c>
-      <c r="AN24" t="s">
+      <c r="AO24" t="s">
         <v>357</v>
       </c>
-      <c r="AO24" t="s">
+      <c r="AP24" t="s">
         <v>358</v>
       </c>
-      <c r="AP24" t="s">
+      <c r="AQ24" t="s">
         <v>359</v>
       </c>
-      <c r="AQ24" t="s">
+      <c r="AR24" t="s">
         <v>360</v>
       </c>
-      <c r="AR24" t="s">
+      <c r="AS24" t="s">
         <v>361</v>
       </c>
-      <c r="AS24" t="s">
+      <c r="AT24" t="s">
         <v>362</v>
       </c>
-      <c r="AT24" t="s">
+      <c r="AU24" t="s">
         <v>363</v>
       </c>
-      <c r="AU24" t="s">
+      <c r="AV24" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="AV24" s="8" t="s">
+      <c r="AW24" t="s">
+        <v>359</v>
+      </c>
+      <c r="AX24" t="s">
         <v>365</v>
       </c>
-      <c r="AW24" t="s">
-        <v>360</v>
-      </c>
-      <c r="AX24" t="s">
+      <c r="AY24" t="s">
         <v>366</v>
-      </c>
-      <c r="AY24" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D25" t="s">
         <v>54</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -9253,13 +9247,13 @@
         <v>108</v>
       </c>
       <c r="AG25" t="s">
+        <v>369</v>
+      </c>
+      <c r="AH25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="s">
         <v>370</v>
-      </c>
-      <c r="AH25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>371</v>
       </c>
       <c r="AJ25">
         <v>1367.699958984</v>
@@ -9271,63 +9265,63 @@
         <v>65</v>
       </c>
       <c r="AM25" t="s">
+        <v>371</v>
+      </c>
+      <c r="AN25" t="s">
         <v>372</v>
       </c>
-      <c r="AN25" t="s">
+      <c r="AO25" t="s">
         <v>373</v>
       </c>
-      <c r="AO25" t="s">
+      <c r="AP25" t="s">
         <v>374</v>
       </c>
-      <c r="AP25" t="s">
+      <c r="AQ25" t="s">
         <v>375</v>
       </c>
-      <c r="AQ25" t="s">
+      <c r="AR25" t="s">
         <v>376</v>
       </c>
-      <c r="AR25" t="s">
+      <c r="AS25" t="s">
         <v>377</v>
       </c>
-      <c r="AS25" t="s">
+      <c r="AT25" t="s">
         <v>378</v>
       </c>
-      <c r="AT25" t="s">
+      <c r="AU25" t="s">
+        <v>363</v>
+      </c>
+      <c r="AV25" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>375</v>
+      </c>
+      <c r="AX25" t="s">
         <v>379</v>
       </c>
-      <c r="AU25" t="s">
-        <v>364</v>
-      </c>
-      <c r="AV25" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="AW25" t="s">
-        <v>376</v>
-      </c>
-      <c r="AX25" t="s">
+      <c r="AY25" t="s">
         <v>380</v>
-      </c>
-      <c r="AY25" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D26" t="s">
         <v>54</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -9405,7 +9399,7 @@
         <v>2.6900000569999998</v>
       </c>
       <c r="AF26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG26" t="s">
         <v>298</v>
@@ -9414,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="AI26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AJ26">
         <v>1333.5</v>
@@ -9426,28 +9420,28 @@
         <v>65</v>
       </c>
       <c r="AM26" t="s">
+        <v>385</v>
+      </c>
+      <c r="AN26" t="s">
         <v>386</v>
       </c>
-      <c r="AN26" t="s">
+      <c r="AO26" t="s">
         <v>387</v>
       </c>
-      <c r="AO26" t="s">
+      <c r="AP26" t="s">
         <v>388</v>
       </c>
-      <c r="AP26" t="s">
+      <c r="AQ26" t="s">
         <v>389</v>
       </c>
-      <c r="AQ26" t="s">
+      <c r="AR26" t="s">
         <v>390</v>
       </c>
-      <c r="AR26" t="s">
+      <c r="AS26" t="s">
         <v>391</v>
       </c>
-      <c r="AS26" t="s">
+      <c r="AT26" t="s">
         <v>392</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>393</v>
       </c>
       <c r="AU26" t="s">
         <v>183</v>
@@ -9456,33 +9450,33 @@
         <v>202</v>
       </c>
       <c r="AW26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AX26" t="s">
+        <v>393</v>
+      </c>
+      <c r="AY26" t="s">
         <v>394</v>
-      </c>
-      <c r="AY26" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D27" t="s">
         <v>54</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -9560,7 +9554,7 @@
         <v>2.2430000309999998</v>
       </c>
       <c r="AF27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AG27" t="s">
         <v>298</v>
@@ -9569,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="AI27" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AJ27">
         <v>1323.8999906250001</v>
@@ -9581,7 +9575,7 @@
         <v>65</v>
       </c>
       <c r="AM27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AN27">
         <v>153</v>
@@ -9617,12 +9611,12 @@
         <v>1599.9999550780001</v>
       </c>
       <c r="AY27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>52</v>
@@ -9634,10 +9628,10 @@
         <v>239</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F28" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -9715,7 +9709,7 @@
         <v>3.9000000950000002</v>
       </c>
       <c r="AF28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AG28" t="s">
         <v>275</v>
@@ -9724,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="AI28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AJ28">
         <v>1876.330047656</v>
@@ -9736,28 +9730,28 @@
         <v>65</v>
       </c>
       <c r="AM28" t="s">
+        <v>405</v>
+      </c>
+      <c r="AN28" t="s">
         <v>406</v>
       </c>
-      <c r="AN28" t="s">
+      <c r="AO28" t="s">
         <v>407</v>
       </c>
-      <c r="AO28" t="s">
+      <c r="AP28" t="s">
         <v>408</v>
       </c>
-      <c r="AP28" t="s">
+      <c r="AQ28" t="s">
         <v>409</v>
       </c>
-      <c r="AQ28" t="s">
+      <c r="AR28" t="s">
         <v>410</v>
       </c>
-      <c r="AR28" t="s">
+      <c r="AS28" t="s">
         <v>411</v>
       </c>
-      <c r="AS28" t="s">
+      <c r="AT28" t="s">
         <v>412</v>
-      </c>
-      <c r="AT28" t="s">
-        <v>413</v>
       </c>
       <c r="AU28" t="s">
         <v>166</v>
@@ -9766,18 +9760,18 @@
         <v>167</v>
       </c>
       <c r="AW28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AX28" t="s">
+        <v>413</v>
+      </c>
+      <c r="AY28" t="s">
         <v>414</v>
-      </c>
-      <c r="AY28" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>52</v>
@@ -9789,10 +9783,10 @@
         <v>54</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -9870,16 +9864,16 @@
         <v>3.7999999519999998</v>
       </c>
       <c r="AF29" t="s">
+        <v>417</v>
+      </c>
+      <c r="AG29" t="s">
         <v>418</v>
       </c>
-      <c r="AG29" t="s">
-        <v>419</v>
-      </c>
       <c r="AH29" s="3">
         <v>0</v>
       </c>
       <c r="AI29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AJ29">
         <v>1189.799971289</v>
@@ -9891,7 +9885,7 @@
         <v>65</v>
       </c>
       <c r="AM29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AN29">
         <v>160</v>
@@ -9927,12 +9921,12 @@
         <v>1313</v>
       </c>
       <c r="AY29" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>52</v>
@@ -9944,10 +9938,10 @@
         <v>54</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -10025,7 +10019,7 @@
         <v>5.6599998469999999</v>
       </c>
       <c r="AF30" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG30" t="s">
         <v>298</v>
@@ -10046,7 +10040,7 @@
         <v>65</v>
       </c>
       <c r="AM30" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AN30">
         <v>100</v>
@@ -10082,27 +10076,27 @@
         <v>850</v>
       </c>
       <c r="AY30" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D31" t="s">
         <v>54</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -10180,16 +10174,16 @@
         <v>0.80000001200000004</v>
       </c>
       <c r="AF31" t="s">
+        <v>429</v>
+      </c>
+      <c r="AG31" t="s">
         <v>430</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>431</v>
       </c>
       <c r="AH31" s="3">
         <v>2</v>
       </c>
       <c r="AI31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AJ31" s="7">
         <v>0</v>
@@ -10201,28 +10195,28 @@
         <v>65</v>
       </c>
       <c r="AM31" t="s">
+        <v>432</v>
+      </c>
+      <c r="AN31" t="s">
         <v>433</v>
       </c>
-      <c r="AN31" t="s">
+      <c r="AO31" t="s">
         <v>434</v>
       </c>
-      <c r="AO31" t="s">
+      <c r="AP31" t="s">
         <v>435</v>
       </c>
-      <c r="AP31" t="s">
+      <c r="AQ31" t="s">
         <v>436</v>
       </c>
-      <c r="AQ31" t="s">
+      <c r="AR31" t="s">
         <v>437</v>
       </c>
-      <c r="AR31" t="s">
+      <c r="AS31" t="s">
+        <v>391</v>
+      </c>
+      <c r="AT31" t="s">
         <v>438</v>
-      </c>
-      <c r="AS31" t="s">
-        <v>392</v>
-      </c>
-      <c r="AT31" t="s">
-        <v>439</v>
       </c>
       <c r="AU31" t="s">
         <v>218</v>
@@ -10231,33 +10225,33 @@
         <v>202</v>
       </c>
       <c r="AW31" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AX31" t="s">
+        <v>439</v>
+      </c>
+      <c r="AY31" t="s">
         <v>440</v>
-      </c>
-      <c r="AY31" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D32" t="s">
         <v>54</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -10335,7 +10329,7 @@
         <v>2</v>
       </c>
       <c r="AF32" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG32" t="s">
         <v>298</v>
@@ -10356,63 +10350,63 @@
         <v>65</v>
       </c>
       <c r="AM32" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN32" t="s">
         <v>446</v>
       </c>
-      <c r="AN32" t="s">
+      <c r="AO32" t="s">
         <v>447</v>
       </c>
-      <c r="AO32" t="s">
+      <c r="AP32" t="s">
         <v>448</v>
       </c>
-      <c r="AP32" t="s">
+      <c r="AQ32" t="s">
         <v>449</v>
       </c>
-      <c r="AQ32" t="s">
+      <c r="AR32" t="s">
         <v>450</v>
       </c>
-      <c r="AR32" t="s">
+      <c r="AS32" t="s">
         <v>451</v>
       </c>
-      <c r="AS32" t="s">
+      <c r="AT32" t="s">
         <v>452</v>
       </c>
-      <c r="AT32" t="s">
+      <c r="AU32" t="s">
         <v>453</v>
       </c>
-      <c r="AU32" t="s">
+      <c r="AV32" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="AV32" s="8" t="s">
+      <c r="AW32" t="s">
+        <v>449</v>
+      </c>
+      <c r="AX32" t="s">
         <v>455</v>
       </c>
-      <c r="AW32" t="s">
-        <v>450</v>
-      </c>
-      <c r="AX32" t="s">
+      <c r="AY32" t="s">
         <v>456</v>
-      </c>
-      <c r="AY32" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D33" t="s">
         <v>54</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -10490,10 +10484,10 @@
         <v>0</v>
       </c>
       <c r="AF33" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG33" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AH33" s="3">
         <v>0</v>
@@ -10547,27 +10541,27 @@
         <v>1560.7109375</v>
       </c>
       <c r="AY33" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D34" t="s">
         <v>54</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F34" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -10645,10 +10639,10 @@
         <v>0</v>
       </c>
       <c r="AF34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AH34" s="3">
         <v>0</v>
@@ -10702,27 +10696,27 @@
         <v>1560.7109375</v>
       </c>
       <c r="AY34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D35" t="s">
         <v>54</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -10800,10 +10794,10 @@
         <v>0</v>
       </c>
       <c r="AF35" t="s">
+        <v>467</v>
+      </c>
+      <c r="AG35" t="s">
         <v>468</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>469</v>
       </c>
       <c r="AH35" s="3">
         <v>0</v>
@@ -10821,28 +10815,28 @@
         <v>65</v>
       </c>
       <c r="AM35" t="s">
+        <v>469</v>
+      </c>
+      <c r="AN35" t="s">
         <v>470</v>
       </c>
-      <c r="AN35" t="s">
+      <c r="AO35" t="s">
         <v>471</v>
       </c>
-      <c r="AO35" t="s">
+      <c r="AP35" t="s">
         <v>472</v>
       </c>
-      <c r="AP35" t="s">
+      <c r="AQ35" t="s">
         <v>473</v>
       </c>
-      <c r="AQ35" t="s">
+      <c r="AR35" t="s">
         <v>474</v>
       </c>
-      <c r="AR35" t="s">
+      <c r="AS35" t="s">
         <v>475</v>
       </c>
-      <c r="AS35" t="s">
+      <c r="AT35" t="s">
         <v>476</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>477</v>
       </c>
       <c r="AU35" t="s">
         <v>218</v>
@@ -10851,33 +10845,33 @@
         <v>202</v>
       </c>
       <c r="AW35" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AX35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AY35" t="s">
         <v>478</v>
-      </c>
-      <c r="AY35" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D36" t="s">
         <v>54</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -10955,10 +10949,10 @@
         <v>5.8612799640000004</v>
       </c>
       <c r="AF36" t="s">
+        <v>481</v>
+      </c>
+      <c r="AG36" t="s">
         <v>482</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>483</v>
       </c>
       <c r="AH36" s="3">
         <v>0</v>
@@ -11012,27 +11006,27 @@
         <v>1400</v>
       </c>
       <c r="AY36" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="37" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D37" t="s">
         <v>54</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -11110,16 +11104,16 @@
         <v>5.1217699049999998</v>
       </c>
       <c r="AF37" t="s">
+        <v>487</v>
+      </c>
+      <c r="AG37" t="s">
         <v>488</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>489</v>
       </c>
       <c r="AH37" s="3">
         <v>2</v>
       </c>
       <c r="AI37" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AJ37">
         <v>1258.220055469</v>
@@ -11131,63 +11125,63 @@
         <v>65</v>
       </c>
       <c r="AM37" t="s">
+        <v>490</v>
+      </c>
+      <c r="AN37" t="s">
         <v>491</v>
       </c>
-      <c r="AN37" t="s">
+      <c r="AO37" t="s">
         <v>492</v>
       </c>
-      <c r="AO37" t="s">
+      <c r="AP37" t="s">
         <v>493</v>
       </c>
-      <c r="AP37" t="s">
+      <c r="AQ37" t="s">
         <v>494</v>
       </c>
-      <c r="AQ37" t="s">
+      <c r="AR37" t="s">
         <v>495</v>
       </c>
-      <c r="AR37" t="s">
+      <c r="AS37" t="s">
         <v>496</v>
       </c>
-      <c r="AS37" t="s">
+      <c r="AT37" t="s">
         <v>497</v>
       </c>
-      <c r="AT37" t="s">
+      <c r="AU37" t="s">
         <v>498</v>
       </c>
-      <c r="AU37" t="s">
+      <c r="AV37" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="AV37" s="8" t="s">
+      <c r="AW37" t="s">
+        <v>494</v>
+      </c>
+      <c r="AX37" t="s">
         <v>500</v>
       </c>
-      <c r="AW37" t="s">
-        <v>495</v>
-      </c>
-      <c r="AX37" t="s">
+      <c r="AY37" t="s">
         <v>501</v>
-      </c>
-      <c r="AY37" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D38" t="s">
         <v>54</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -11265,16 +11259,16 @@
         <v>2.1609709260000001</v>
       </c>
       <c r="AF38" t="s">
+        <v>505</v>
+      </c>
+      <c r="AG38" t="s">
         <v>506</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>507</v>
       </c>
       <c r="AH38" s="3">
         <v>2</v>
       </c>
       <c r="AI38" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AJ38">
         <v>1609.1999343750001</v>
@@ -11322,27 +11316,27 @@
         <v>1080</v>
       </c>
       <c r="AY38" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D39" t="s">
         <v>54</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F39" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -11420,16 +11414,16 @@
         <v>6.3000001909999996</v>
       </c>
       <c r="AF39" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AG39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH39" s="3">
         <v>2</v>
       </c>
       <c r="AI39" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AJ39">
         <v>1174.700018555</v>
@@ -11441,63 +11435,63 @@
         <v>65</v>
       </c>
       <c r="AM39" t="s">
+        <v>514</v>
+      </c>
+      <c r="AN39" t="s">
         <v>515</v>
       </c>
-      <c r="AN39" t="s">
+      <c r="AO39" t="s">
         <v>516</v>
       </c>
-      <c r="AO39" t="s">
+      <c r="AP39" t="s">
         <v>517</v>
       </c>
-      <c r="AP39" t="s">
+      <c r="AQ39" t="s">
         <v>518</v>
       </c>
-      <c r="AQ39" t="s">
+      <c r="AR39" t="s">
         <v>519</v>
       </c>
-      <c r="AR39" t="s">
+      <c r="AS39" t="s">
         <v>520</v>
       </c>
-      <c r="AS39" t="s">
+      <c r="AT39" t="s">
         <v>521</v>
-      </c>
-      <c r="AT39" t="s">
-        <v>522</v>
       </c>
       <c r="AU39" t="s">
         <v>252</v>
       </c>
       <c r="AV39" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="AW39" t="s">
         <v>523</v>
       </c>
-      <c r="AW39" t="s">
+      <c r="AX39" t="s">
         <v>524</v>
       </c>
-      <c r="AX39" t="s">
+      <c r="AY39" t="s">
         <v>525</v>
-      </c>
-      <c r="AY39" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D40" t="s">
         <v>54</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -11575,16 +11569,16 @@
         <v>6.9193749430000002</v>
       </c>
       <c r="AF40" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG40" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AH40" s="3">
         <v>2</v>
       </c>
       <c r="AI40" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AJ40">
         <v>1840.2999492189999</v>
@@ -11632,27 +11626,27 @@
         <v>2727</v>
       </c>
       <c r="AY40" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D41" t="s">
         <v>54</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -11730,16 +11724,16 @@
         <v>5.5</v>
       </c>
       <c r="AF41" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AG41" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AH41" s="3">
         <v>2</v>
       </c>
       <c r="AI41" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AJ41">
         <v>1840.2999492189999</v>
@@ -11751,7 +11745,7 @@
         <v>65</v>
       </c>
       <c r="AM41" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AN41">
         <v>155</v>
@@ -11787,27 +11781,27 @@
         <v>1225</v>
       </c>
       <c r="AY41" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D42" t="s">
         <v>54</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -11885,16 +11879,16 @@
         <v>5.0204701419999997</v>
       </c>
       <c r="AF42" t="s">
+        <v>539</v>
+      </c>
+      <c r="AG42" t="s">
         <v>540</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>541</v>
       </c>
       <c r="AH42" s="3">
         <v>2</v>
       </c>
       <c r="AI42" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AJ42">
         <v>1174.700018555</v>
@@ -11942,27 +11936,27 @@
         <v>1250</v>
       </c>
       <c r="AY42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D43" t="s">
         <v>54</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F43" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -12040,7 +12034,7 @@
         <v>3.3499999049999998</v>
       </c>
       <c r="AF43" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AG43" t="s">
         <v>92</v>
@@ -12049,7 +12043,7 @@
         <v>2</v>
       </c>
       <c r="AI43" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AJ43">
         <v>1840.2999492189999</v>
@@ -12097,27 +12091,27 @@
         <v>1161</v>
       </c>
       <c r="AY43" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D44" t="s">
         <v>54</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F44" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -12195,16 +12189,16 @@
         <v>1.4500000479999999</v>
       </c>
       <c r="AF44" t="s">
+        <v>550</v>
+      </c>
+      <c r="AG44" t="s">
         <v>551</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>552</v>
       </c>
       <c r="AH44" s="3">
         <v>2</v>
       </c>
       <c r="AI44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AJ44">
         <v>1609.1999343750001</v>
@@ -12252,27 +12246,27 @@
         <v>1036</v>
       </c>
       <c r="AY44" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D45" t="s">
         <v>54</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -12350,7 +12344,7 @@
         <v>0.37000000500000002</v>
       </c>
       <c r="AF45" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AG45" t="s">
         <v>92</v>
@@ -12359,7 +12353,7 @@
         <v>2</v>
       </c>
       <c r="AI45" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AJ45">
         <v>1840.2999492189999</v>
@@ -12371,7 +12365,7 @@
         <v>65</v>
       </c>
       <c r="AM45" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AN45">
         <v>103</v>
@@ -12407,12 +12401,12 @@
         <v>1611</v>
       </c>
       <c r="AY45" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>52</v>
@@ -12424,10 +12418,10 @@
         <v>54</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F46" t="s">
         <v>562</v>
-      </c>
-      <c r="F46" t="s">
-        <v>563</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -12505,7 +12499,7 @@
         <v>3</v>
       </c>
       <c r="AF46" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AG46" t="s">
         <v>58</v>
@@ -12514,7 +12508,7 @@
         <v>0</v>
       </c>
       <c r="AI46" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AJ46">
         <v>1241.0999841800001</v>
@@ -12526,48 +12520,48 @@
         <v>65</v>
       </c>
       <c r="AM46" t="s">
+        <v>565</v>
+      </c>
+      <c r="AN46" t="s">
         <v>566</v>
       </c>
-      <c r="AN46" t="s">
+      <c r="AO46" t="s">
         <v>567</v>
       </c>
-      <c r="AO46" t="s">
+      <c r="AP46" t="s">
         <v>568</v>
       </c>
-      <c r="AP46" t="s">
+      <c r="AQ46" t="s">
         <v>569</v>
       </c>
-      <c r="AQ46" t="s">
+      <c r="AR46" t="s">
         <v>570</v>
       </c>
-      <c r="AR46" t="s">
+      <c r="AS46" t="s">
         <v>571</v>
       </c>
-      <c r="AS46" t="s">
+      <c r="AT46" t="s">
         <v>572</v>
       </c>
-      <c r="AT46" t="s">
+      <c r="AU46" t="s">
         <v>573</v>
       </c>
-      <c r="AU46" t="s">
+      <c r="AV46" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="AV46" s="8" t="s">
+      <c r="AW46" t="s">
+        <v>569</v>
+      </c>
+      <c r="AX46" t="s">
         <v>575</v>
       </c>
-      <c r="AW46" t="s">
-        <v>570</v>
-      </c>
-      <c r="AX46" t="s">
+      <c r="AY46" t="s">
         <v>576</v>
-      </c>
-      <c r="AY46" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>52</v>
@@ -12579,10 +12573,10 @@
         <v>54</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F47" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -12660,16 +12654,16 @@
         <v>1.269999981</v>
       </c>
       <c r="AF47" t="s">
+        <v>579</v>
+      </c>
+      <c r="AG47" t="s">
         <v>580</v>
       </c>
-      <c r="AG47" t="s">
+      <c r="AH47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="s">
         <v>581</v>
-      </c>
-      <c r="AH47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI47" t="s">
-        <v>582</v>
       </c>
       <c r="AJ47">
         <v>2030.500060547</v>
@@ -12681,48 +12675,48 @@
         <v>65</v>
       </c>
       <c r="AM47" t="s">
+        <v>582</v>
+      </c>
+      <c r="AN47" t="s">
         <v>583</v>
       </c>
-      <c r="AN47" t="s">
+      <c r="AO47" t="s">
         <v>584</v>
       </c>
-      <c r="AO47" t="s">
+      <c r="AP47" t="s">
         <v>585</v>
       </c>
-      <c r="AP47" t="s">
+      <c r="AQ47" t="s">
         <v>586</v>
       </c>
-      <c r="AQ47" t="s">
+      <c r="AR47" t="s">
         <v>587</v>
       </c>
-      <c r="AR47" t="s">
+      <c r="AS47" t="s">
         <v>588</v>
       </c>
-      <c r="AS47" t="s">
+      <c r="AT47" t="s">
         <v>589</v>
-      </c>
-      <c r="AT47" t="s">
-        <v>590</v>
       </c>
       <c r="AU47" t="s">
         <v>218</v>
       </c>
       <c r="AV47" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="AW47" t="s">
         <v>591</v>
       </c>
-      <c r="AW47" t="s">
+      <c r="AX47" t="s">
         <v>592</v>
       </c>
-      <c r="AX47" t="s">
+      <c r="AY47" s="11" t="s">
         <v>593</v>
-      </c>
-      <c r="AY47" s="11" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>52</v>
@@ -12734,10 +12728,10 @@
         <v>54</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F48" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -12815,16 +12809,16 @@
         <v>1.25</v>
       </c>
       <c r="AF48" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG48" t="s">
         <v>597</v>
       </c>
-      <c r="AG48" t="s">
+      <c r="AH48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="s">
         <v>598</v>
-      </c>
-      <c r="AH48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI48" t="s">
-        <v>599</v>
       </c>
       <c r="AJ48">
         <v>1772.5999699219999</v>
@@ -12836,28 +12830,28 @@
         <v>65</v>
       </c>
       <c r="AM48" t="s">
+        <v>599</v>
+      </c>
+      <c r="AN48" t="s">
         <v>600</v>
       </c>
-      <c r="AN48" t="s">
+      <c r="AO48" t="s">
         <v>601</v>
       </c>
-      <c r="AO48" t="s">
+      <c r="AP48" t="s">
         <v>602</v>
       </c>
-      <c r="AP48" t="s">
+      <c r="AQ48" t="s">
         <v>603</v>
       </c>
-      <c r="AQ48" t="s">
+      <c r="AR48" t="s">
         <v>604</v>
       </c>
-      <c r="AR48" t="s">
+      <c r="AS48" t="s">
         <v>605</v>
       </c>
-      <c r="AS48" t="s">
+      <c r="AT48" t="s">
         <v>606</v>
-      </c>
-      <c r="AT48" t="s">
-        <v>607</v>
       </c>
       <c r="AU48" t="s">
         <v>218</v>
@@ -12866,18 +12860,18 @@
         <v>202</v>
       </c>
       <c r="AW48" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AX48" t="s">
+        <v>607</v>
+      </c>
+      <c r="AY48" t="s">
         <v>608</v>
-      </c>
-      <c r="AY48" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="49" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>52</v>
@@ -12889,10 +12883,10 @@
         <v>54</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F49" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -12970,16 +12964,16 @@
         <v>1.5</v>
       </c>
       <c r="AF49" t="s">
+        <v>611</v>
+      </c>
+      <c r="AG49" t="s">
         <v>612</v>
       </c>
-      <c r="AG49" t="s">
+      <c r="AH49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI49" t="s">
         <v>613</v>
-      </c>
-      <c r="AH49" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI49" t="s">
-        <v>614</v>
       </c>
       <c r="AJ49">
         <v>1635.0000339840001</v>
@@ -12991,48 +12985,48 @@
         <v>65</v>
       </c>
       <c r="AM49" t="s">
+        <v>614</v>
+      </c>
+      <c r="AN49" t="s">
         <v>615</v>
       </c>
-      <c r="AN49" t="s">
+      <c r="AO49" t="s">
         <v>616</v>
       </c>
-      <c r="AO49" t="s">
+      <c r="AP49" t="s">
         <v>617</v>
       </c>
-      <c r="AP49" t="s">
+      <c r="AQ49" t="s">
         <v>618</v>
       </c>
-      <c r="AQ49" t="s">
+      <c r="AR49" t="s">
         <v>619</v>
       </c>
-      <c r="AR49" t="s">
+      <c r="AS49" t="s">
         <v>620</v>
       </c>
-      <c r="AS49" t="s">
+      <c r="AT49" t="s">
         <v>621</v>
       </c>
-      <c r="AT49" t="s">
+      <c r="AU49" t="s">
+        <v>453</v>
+      </c>
+      <c r="AV49" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="AW49" t="s">
+        <v>618</v>
+      </c>
+      <c r="AX49" t="s">
         <v>622</v>
       </c>
-      <c r="AU49" t="s">
-        <v>454</v>
-      </c>
-      <c r="AV49" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="AW49" t="s">
-        <v>619</v>
-      </c>
-      <c r="AX49" t="s">
+      <c r="AY49" t="s">
         <v>623</v>
-      </c>
-      <c r="AY49" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="50" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -13044,10 +13038,10 @@
         <v>54</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F50" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -13125,16 +13119,16 @@
         <v>8.8999996190000008</v>
       </c>
       <c r="AF50" t="s">
+        <v>626</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>597</v>
+      </c>
+      <c r="AH50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="s">
         <v>627</v>
-      </c>
-      <c r="AG50" t="s">
-        <v>598</v>
-      </c>
-      <c r="AH50" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI50" t="s">
-        <v>628</v>
       </c>
       <c r="AJ50">
         <v>2406.1099523439998</v>
@@ -13146,48 +13140,48 @@
         <v>70</v>
       </c>
       <c r="AM50" t="s">
+        <v>628</v>
+      </c>
+      <c r="AN50" t="s">
         <v>629</v>
       </c>
-      <c r="AN50" t="s">
+      <c r="AO50" t="s">
         <v>630</v>
       </c>
-      <c r="AO50" t="s">
+      <c r="AP50" t="s">
         <v>631</v>
       </c>
-      <c r="AP50" t="s">
+      <c r="AQ50" t="s">
         <v>632</v>
       </c>
-      <c r="AQ50" t="s">
+      <c r="AR50" t="s">
         <v>633</v>
       </c>
-      <c r="AR50" t="s">
+      <c r="AS50" t="s">
         <v>634</v>
       </c>
-      <c r="AS50" t="s">
+      <c r="AT50" t="s">
         <v>635</v>
       </c>
-      <c r="AT50" t="s">
+      <c r="AU50" t="s">
         <v>636</v>
       </c>
-      <c r="AU50" t="s">
+      <c r="AV50" s="8" t="s">
         <v>637</v>
       </c>
-      <c r="AV50" s="8" t="s">
+      <c r="AW50" t="s">
         <v>638</v>
       </c>
-      <c r="AW50" t="s">
+      <c r="AX50" t="s">
         <v>639</v>
       </c>
-      <c r="AX50" t="s">
+      <c r="AY50" t="s">
         <v>640</v>
-      </c>
-      <c r="AY50" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="51" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>52</v>
@@ -13199,10 +13193,10 @@
         <v>54</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F51" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -13280,16 +13274,16 @@
         <v>8</v>
       </c>
       <c r="AF51" t="s">
+        <v>643</v>
+      </c>
+      <c r="AG51" t="s">
         <v>644</v>
       </c>
-      <c r="AG51" t="s">
+      <c r="AH51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI51" t="s">
         <v>645</v>
-      </c>
-      <c r="AH51" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI51" t="s">
-        <v>646</v>
       </c>
       <c r="AJ51">
         <v>1605.6999433589999</v>
@@ -13301,48 +13295,48 @@
         <v>65</v>
       </c>
       <c r="AM51" t="s">
+        <v>646</v>
+      </c>
+      <c r="AN51" t="s">
         <v>647</v>
       </c>
-      <c r="AN51" t="s">
+      <c r="AO51" t="s">
         <v>648</v>
       </c>
-      <c r="AO51" t="s">
+      <c r="AP51" t="s">
         <v>649</v>
       </c>
-      <c r="AP51" t="s">
+      <c r="AQ51" t="s">
         <v>650</v>
       </c>
-      <c r="AQ51" t="s">
+      <c r="AR51" t="s">
         <v>651</v>
       </c>
-      <c r="AR51" t="s">
+      <c r="AS51" t="s">
         <v>652</v>
       </c>
-      <c r="AS51" t="s">
+      <c r="AT51" t="s">
         <v>653</v>
       </c>
-      <c r="AT51" t="s">
+      <c r="AU51" t="s">
+        <v>636</v>
+      </c>
+      <c r="AV51" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="AU51" t="s">
-        <v>637</v>
-      </c>
-      <c r="AV51" s="8" t="s">
+      <c r="AW51" t="s">
         <v>655</v>
       </c>
-      <c r="AW51" t="s">
+      <c r="AX51" t="s">
         <v>656</v>
       </c>
-      <c r="AX51" t="s">
+      <c r="AY51" t="s">
         <v>657</v>
-      </c>
-      <c r="AY51" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="52" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>52</v>
@@ -13354,10 +13348,10 @@
         <v>54</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F52" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -13435,10 +13429,10 @@
         <v>1.8300000430000001</v>
       </c>
       <c r="AF52" t="s">
+        <v>660</v>
+      </c>
+      <c r="AG52" t="s">
         <v>661</v>
-      </c>
-      <c r="AG52" t="s">
-        <v>662</v>
       </c>
       <c r="AH52" s="3">
         <v>0</v>
@@ -13456,48 +13450,48 @@
         <v>65</v>
       </c>
       <c r="AM52" t="s">
+        <v>662</v>
+      </c>
+      <c r="AN52" t="s">
         <v>663</v>
       </c>
-      <c r="AN52" t="s">
+      <c r="AO52" t="s">
         <v>664</v>
       </c>
-      <c r="AO52" t="s">
+      <c r="AP52" t="s">
         <v>665</v>
       </c>
-      <c r="AP52" t="s">
+      <c r="AQ52" t="s">
         <v>666</v>
       </c>
-      <c r="AQ52" t="s">
+      <c r="AR52" t="s">
         <v>667</v>
       </c>
-      <c r="AR52" t="s">
+      <c r="AS52" t="s">
         <v>668</v>
       </c>
-      <c r="AS52" t="s">
+      <c r="AT52" t="s">
         <v>669</v>
       </c>
-      <c r="AT52" t="s">
+      <c r="AU52" t="s">
+        <v>347</v>
+      </c>
+      <c r="AV52" s="8" t="s">
         <v>670</v>
       </c>
-      <c r="AU52" t="s">
-        <v>348</v>
-      </c>
-      <c r="AV52" s="8" t="s">
+      <c r="AW52" t="s">
         <v>671</v>
       </c>
-      <c r="AW52" t="s">
+      <c r="AX52" t="s">
         <v>672</v>
       </c>
-      <c r="AX52" t="s">
+      <c r="AY52" t="s">
         <v>673</v>
-      </c>
-      <c r="AY52" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="53" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>52</v>
@@ -13509,10 +13503,10 @@
         <v>54</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F53" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -13590,16 +13584,16 @@
         <v>10</v>
       </c>
       <c r="AF53" t="s">
+        <v>676</v>
+      </c>
+      <c r="AG53" t="s">
         <v>677</v>
       </c>
-      <c r="AG53" t="s">
+      <c r="AH53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI53" t="s">
         <v>678</v>
-      </c>
-      <c r="AH53" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI53" t="s">
-        <v>679</v>
       </c>
       <c r="AJ53">
         <v>1315.0999324219999</v>
@@ -13611,48 +13605,48 @@
         <v>65</v>
       </c>
       <c r="AM53" t="s">
+        <v>679</v>
+      </c>
+      <c r="AN53" t="s">
         <v>680</v>
       </c>
-      <c r="AN53" t="s">
+      <c r="AO53" t="s">
         <v>681</v>
       </c>
-      <c r="AO53" t="s">
+      <c r="AP53" t="s">
         <v>682</v>
       </c>
-      <c r="AP53" t="s">
+      <c r="AQ53" t="s">
         <v>683</v>
       </c>
-      <c r="AQ53" t="s">
+      <c r="AR53" t="s">
         <v>684</v>
       </c>
-      <c r="AR53" t="s">
+      <c r="AS53" t="s">
         <v>685</v>
       </c>
-      <c r="AS53" t="s">
+      <c r="AT53" t="s">
         <v>686</v>
       </c>
-      <c r="AT53" t="s">
+      <c r="AU53" t="s">
         <v>687</v>
       </c>
-      <c r="AU53" t="s">
+      <c r="AV53" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="AV53" s="8" t="s">
+      <c r="AW53" t="s">
         <v>689</v>
       </c>
-      <c r="AW53" t="s">
+      <c r="AX53" t="s">
         <v>690</v>
       </c>
-      <c r="AX53" t="s">
+      <c r="AY53" t="s">
         <v>691</v>
-      </c>
-      <c r="AY53" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="54" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>52</v>
@@ -13664,10 +13658,10 @@
         <v>54</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F54" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -13745,16 +13739,16 @@
         <v>2.4641399380000002</v>
       </c>
       <c r="AF54" t="s">
+        <v>694</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>597</v>
+      </c>
+      <c r="AH54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI54" t="s">
         <v>695</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>598</v>
-      </c>
-      <c r="AH54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI54" t="s">
-        <v>696</v>
       </c>
       <c r="AJ54">
         <v>1438.049971875</v>
@@ -13766,28 +13760,28 @@
         <v>65</v>
       </c>
       <c r="AM54" t="s">
+        <v>696</v>
+      </c>
+      <c r="AN54" t="s">
         <v>697</v>
       </c>
-      <c r="AN54" t="s">
+      <c r="AO54" t="s">
         <v>698</v>
       </c>
-      <c r="AO54" t="s">
+      <c r="AP54" t="s">
         <v>699</v>
       </c>
-      <c r="AP54" t="s">
+      <c r="AQ54" t="s">
         <v>700</v>
       </c>
-      <c r="AQ54" t="s">
+      <c r="AR54" t="s">
         <v>701</v>
       </c>
-      <c r="AR54" t="s">
+      <c r="AS54" t="s">
         <v>702</v>
       </c>
-      <c r="AS54" t="s">
+      <c r="AT54" t="s">
         <v>703</v>
-      </c>
-      <c r="AT54" t="s">
-        <v>704</v>
       </c>
       <c r="AU54" t="s">
         <v>166</v>
@@ -13796,18 +13790,18 @@
         <v>167</v>
       </c>
       <c r="AW54" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AX54" t="s">
+        <v>704</v>
+      </c>
+      <c r="AY54" t="s">
         <v>705</v>
-      </c>
-      <c r="AY54" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="55" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>52</v>
@@ -13819,10 +13813,10 @@
         <v>54</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F55" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -13900,16 +13894,16 @@
         <v>2.4641399380000002</v>
       </c>
       <c r="AF55" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AG55" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AH55" s="3">
         <v>0</v>
       </c>
       <c r="AI55" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AJ55">
         <v>1438.049971875</v>
@@ -13921,28 +13915,28 @@
         <v>65</v>
       </c>
       <c r="AM55" t="s">
+        <v>709</v>
+      </c>
+      <c r="AN55" t="s">
         <v>710</v>
       </c>
-      <c r="AN55" t="s">
+      <c r="AO55" t="s">
         <v>711</v>
       </c>
-      <c r="AO55" t="s">
+      <c r="AP55" t="s">
+        <v>699</v>
+      </c>
+      <c r="AQ55" t="s">
         <v>712</v>
       </c>
-      <c r="AP55" t="s">
-        <v>700</v>
-      </c>
-      <c r="AQ55" t="s">
+      <c r="AR55" t="s">
         <v>713</v>
       </c>
-      <c r="AR55" t="s">
+      <c r="AS55" t="s">
         <v>714</v>
       </c>
-      <c r="AS55" t="s">
+      <c r="AT55" t="s">
         <v>715</v>
-      </c>
-      <c r="AT55" t="s">
-        <v>716</v>
       </c>
       <c r="AU55" t="s">
         <v>166</v>
@@ -13951,18 +13945,18 @@
         <v>167</v>
       </c>
       <c r="AW55" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AX55" t="s">
+        <v>716</v>
+      </c>
+      <c r="AY55" t="s">
         <v>717</v>
-      </c>
-      <c r="AY55" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="56" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>52</v>
@@ -13974,10 +13968,10 @@
         <v>54</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F56" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -14055,16 +14049,16 @@
         <v>1.269999981</v>
       </c>
       <c r="AF56" t="s">
+        <v>579</v>
+      </c>
+      <c r="AG56" t="s">
         <v>580</v>
       </c>
-      <c r="AG56" t="s">
-        <v>581</v>
-      </c>
       <c r="AH56" s="3">
         <v>0</v>
       </c>
       <c r="AI56" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AJ56">
         <v>2020.9000511720001</v>
@@ -14112,12 +14106,12 @@
         <v>1247</v>
       </c>
       <c r="AY56" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="57" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>52</v>
@@ -14129,10 +14123,10 @@
         <v>54</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F57" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -14210,16 +14204,16 @@
         <v>0</v>
       </c>
       <c r="AF57" t="s">
+        <v>722</v>
+      </c>
+      <c r="AG57" t="s">
         <v>723</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>724</v>
       </c>
       <c r="AH57" s="3">
         <v>2</v>
       </c>
       <c r="AI57" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AJ57" s="7">
         <v>0</v>
@@ -14267,27 +14261,27 @@
         <v>1058.259964844</v>
       </c>
       <c r="AY57" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="58" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D58" t="s">
         <v>54</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F58" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -14365,16 +14359,16 @@
         <v>1.4099999670000001</v>
       </c>
       <c r="AF58" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AG58" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH58" s="3">
         <v>2</v>
       </c>
       <c r="AI58" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AJ58">
         <v>1863.999935156</v>
@@ -14386,63 +14380,63 @@
         <v>65</v>
       </c>
       <c r="AM58" t="s">
+        <v>730</v>
+      </c>
+      <c r="AN58" t="s">
         <v>731</v>
       </c>
-      <c r="AN58" t="s">
+      <c r="AO58" t="s">
         <v>732</v>
       </c>
-      <c r="AO58" t="s">
+      <c r="AP58" t="s">
         <v>733</v>
       </c>
-      <c r="AP58" t="s">
+      <c r="AQ58" t="s">
         <v>734</v>
       </c>
-      <c r="AQ58" t="s">
+      <c r="AR58" t="s">
         <v>735</v>
       </c>
-      <c r="AR58" t="s">
+      <c r="AS58" t="s">
         <v>736</v>
       </c>
-      <c r="AS58" t="s">
+      <c r="AT58" t="s">
         <v>737</v>
       </c>
-      <c r="AT58" t="s">
+      <c r="AU58" t="s">
         <v>738</v>
       </c>
-      <c r="AU58" t="s">
+      <c r="AV58" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="AV58" s="8" t="s">
+      <c r="AW58" t="s">
         <v>740</v>
       </c>
-      <c r="AW58" t="s">
+      <c r="AX58" t="s">
         <v>741</v>
       </c>
-      <c r="AX58" t="s">
+      <c r="AY58" t="s">
         <v>742</v>
-      </c>
-      <c r="AY58" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="59" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D59" t="s">
         <v>54</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F59" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -14520,16 +14514,16 @@
         <v>5</v>
       </c>
       <c r="AF59" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG59" t="s">
         <v>746</v>
       </c>
-      <c r="AG59" t="s">
+      <c r="AH59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI59" t="s">
         <v>747</v>
-      </c>
-      <c r="AH59" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI59" t="s">
-        <v>748</v>
       </c>
       <c r="AJ59">
         <v>1197.800003906</v>
@@ -14541,63 +14535,63 @@
         <v>65</v>
       </c>
       <c r="AM59" t="s">
+        <v>748</v>
+      </c>
+      <c r="AN59" t="s">
         <v>749</v>
       </c>
-      <c r="AN59" t="s">
+      <c r="AO59" t="s">
         <v>750</v>
       </c>
-      <c r="AO59" t="s">
+      <c r="AP59" t="s">
         <v>751</v>
       </c>
-      <c r="AP59" t="s">
+      <c r="AQ59" t="s">
         <v>752</v>
       </c>
-      <c r="AQ59" t="s">
+      <c r="AR59" t="s">
         <v>753</v>
       </c>
-      <c r="AR59" t="s">
+      <c r="AS59" t="s">
         <v>754</v>
       </c>
-      <c r="AS59" t="s">
+      <c r="AT59" t="s">
         <v>755</v>
-      </c>
-      <c r="AT59" t="s">
-        <v>756</v>
       </c>
       <c r="AU59" t="s">
         <v>218</v>
       </c>
       <c r="AV59" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="AW59" t="s">
         <v>757</v>
       </c>
-      <c r="AW59" t="s">
+      <c r="AX59" t="s">
         <v>758</v>
       </c>
-      <c r="AX59" t="s">
+      <c r="AY59" t="s">
         <v>759</v>
-      </c>
-      <c r="AY59" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="60" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C60" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D60" t="s">
         <v>54</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F60" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -14675,16 +14669,16 @@
         <v>7.4000000950000002</v>
       </c>
       <c r="AF60" t="s">
+        <v>762</v>
+      </c>
+      <c r="AG60" t="s">
         <v>763</v>
-      </c>
-      <c r="AG60" t="s">
-        <v>764</v>
       </c>
       <c r="AH60" s="3">
         <v>2</v>
       </c>
       <c r="AI60" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AJ60">
         <v>418.00001132800003</v>
@@ -14696,63 +14690,63 @@
         <v>65</v>
       </c>
       <c r="AM60" t="s">
+        <v>765</v>
+      </c>
+      <c r="AN60" t="s">
         <v>766</v>
       </c>
-      <c r="AN60" t="s">
+      <c r="AO60" t="s">
         <v>767</v>
       </c>
-      <c r="AO60" t="s">
+      <c r="AP60" t="s">
         <v>768</v>
       </c>
-      <c r="AP60" t="s">
+      <c r="AQ60" t="s">
         <v>769</v>
       </c>
-      <c r="AQ60" t="s">
+      <c r="AR60" t="s">
         <v>770</v>
       </c>
-      <c r="AR60" t="s">
+      <c r="AS60" t="s">
         <v>771</v>
       </c>
-      <c r="AS60" t="s">
+      <c r="AT60" t="s">
         <v>772</v>
-      </c>
-      <c r="AT60" t="s">
-        <v>773</v>
       </c>
       <c r="AU60" t="s">
         <v>218</v>
       </c>
       <c r="AV60" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="AW60" t="s">
         <v>774</v>
       </c>
-      <c r="AW60" t="s">
+      <c r="AX60" t="s">
         <v>775</v>
       </c>
-      <c r="AX60" t="s">
+      <c r="AY60" t="s">
         <v>776</v>
-      </c>
-      <c r="AY60" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="61" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D61" t="s">
         <v>54</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F61" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -14830,16 +14824,16 @@
         <v>0.81437999000000005</v>
       </c>
       <c r="AF61" t="s">
+        <v>779</v>
+      </c>
+      <c r="AG61" t="s">
         <v>780</v>
       </c>
-      <c r="AG61" t="s">
+      <c r="AH61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI61" t="s">
         <v>781</v>
-      </c>
-      <c r="AH61" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI61" t="s">
-        <v>782</v>
       </c>
       <c r="AJ61">
         <v>840.99997793</v>
@@ -14851,63 +14845,63 @@
         <v>65</v>
       </c>
       <c r="AM61" t="s">
+        <v>782</v>
+      </c>
+      <c r="AN61" t="s">
         <v>783</v>
       </c>
-      <c r="AN61" t="s">
+      <c r="AO61" t="s">
         <v>784</v>
       </c>
-      <c r="AO61" t="s">
+      <c r="AP61" t="s">
         <v>785</v>
       </c>
-      <c r="AP61" t="s">
+      <c r="AQ61" t="s">
         <v>786</v>
       </c>
-      <c r="AQ61" t="s">
+      <c r="AR61" t="s">
         <v>787</v>
       </c>
-      <c r="AR61" t="s">
+      <c r="AS61" t="s">
         <v>788</v>
       </c>
-      <c r="AS61" t="s">
+      <c r="AT61" t="s">
         <v>789</v>
-      </c>
-      <c r="AT61" t="s">
-        <v>790</v>
       </c>
       <c r="AU61" t="s">
         <v>218</v>
       </c>
       <c r="AV61" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="AW61" t="s">
         <v>791</v>
       </c>
-      <c r="AW61" t="s">
+      <c r="AX61" t="s">
         <v>792</v>
       </c>
-      <c r="AX61" t="s">
+      <c r="AY61" t="s">
         <v>793</v>
-      </c>
-      <c r="AY61" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="62" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D62" t="s">
         <v>54</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F62" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -14985,16 +14979,16 @@
         <v>1.5800000430000001</v>
       </c>
       <c r="AF62" t="s">
+        <v>796</v>
+      </c>
+      <c r="AG62" t="s">
         <v>797</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>798</v>
       </c>
       <c r="AH62" s="3">
         <v>2</v>
       </c>
       <c r="AI62" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AJ62">
         <v>1183.99999043</v>
@@ -15006,63 +15000,63 @@
         <v>65</v>
       </c>
       <c r="AM62" t="s">
+        <v>799</v>
+      </c>
+      <c r="AN62" t="s">
         <v>800</v>
       </c>
-      <c r="AN62" t="s">
+      <c r="AO62" t="s">
         <v>801</v>
       </c>
-      <c r="AO62" t="s">
+      <c r="AP62" t="s">
         <v>802</v>
       </c>
-      <c r="AP62" t="s">
+      <c r="AQ62" t="s">
         <v>803</v>
       </c>
-      <c r="AQ62" t="s">
+      <c r="AR62" t="s">
         <v>804</v>
       </c>
-      <c r="AR62" t="s">
+      <c r="AS62" t="s">
         <v>805</v>
       </c>
-      <c r="AS62" t="s">
+      <c r="AT62" t="s">
         <v>806</v>
       </c>
-      <c r="AT62" t="s">
+      <c r="AU62" t="s">
         <v>807</v>
       </c>
-      <c r="AU62" t="s">
+      <c r="AV62" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="AV62" s="8" t="s">
+      <c r="AW62" t="s">
         <v>809</v>
       </c>
-      <c r="AW62" t="s">
+      <c r="AX62" t="s">
         <v>810</v>
       </c>
-      <c r="AX62" t="s">
+      <c r="AY62" t="s">
         <v>811</v>
-      </c>
-      <c r="AY62" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="63" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C63" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D63" t="s">
         <v>54</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F63" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -15140,16 +15134,16 @@
         <v>4.7865200039999998</v>
       </c>
       <c r="AF63" t="s">
+        <v>814</v>
+      </c>
+      <c r="AG63" t="s">
         <v>815</v>
-      </c>
-      <c r="AG63" t="s">
-        <v>816</v>
       </c>
       <c r="AH63" s="3">
         <v>2</v>
       </c>
       <c r="AI63" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AJ63">
         <v>1366.000044141</v>
@@ -15161,63 +15155,63 @@
         <v>65</v>
       </c>
       <c r="AM63" t="s">
+        <v>817</v>
+      </c>
+      <c r="AN63" t="s">
         <v>818</v>
       </c>
-      <c r="AN63" t="s">
+      <c r="AO63" t="s">
         <v>819</v>
       </c>
-      <c r="AO63" t="s">
+      <c r="AP63" t="s">
         <v>820</v>
       </c>
-      <c r="AP63" t="s">
+      <c r="AQ63" t="s">
         <v>821</v>
       </c>
-      <c r="AQ63" t="s">
+      <c r="AR63" t="s">
         <v>822</v>
       </c>
-      <c r="AR63" t="s">
+      <c r="AS63" t="s">
         <v>823</v>
       </c>
-      <c r="AS63" t="s">
+      <c r="AT63" t="s">
         <v>824</v>
       </c>
-      <c r="AT63" t="s">
+      <c r="AU63" t="s">
+        <v>738</v>
+      </c>
+      <c r="AV63" s="8" t="s">
         <v>825</v>
       </c>
-      <c r="AU63" t="s">
-        <v>739</v>
-      </c>
-      <c r="AV63" s="8" t="s">
+      <c r="AW63" t="s">
+        <v>821</v>
+      </c>
+      <c r="AX63" t="s">
         <v>826</v>
       </c>
-      <c r="AW63" t="s">
-        <v>822</v>
-      </c>
-      <c r="AX63" t="s">
+      <c r="AY63" t="s">
         <v>827</v>
-      </c>
-      <c r="AY63" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="64" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C64" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D64" t="s">
         <v>54</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F64" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -15295,16 +15289,16 @@
         <v>1.8337299819999999</v>
       </c>
       <c r="AF64" t="s">
+        <v>830</v>
+      </c>
+      <c r="AG64" t="s">
         <v>831</v>
-      </c>
-      <c r="AG64" t="s">
-        <v>832</v>
       </c>
       <c r="AH64" s="3">
         <v>2</v>
       </c>
       <c r="AI64" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AJ64">
         <v>1126.4000085939999</v>
@@ -15316,63 +15310,63 @@
         <v>65</v>
       </c>
       <c r="AM64" t="s">
+        <v>833</v>
+      </c>
+      <c r="AN64" t="s">
         <v>834</v>
       </c>
-      <c r="AN64" t="s">
+      <c r="AO64" t="s">
         <v>835</v>
       </c>
-      <c r="AO64" t="s">
+      <c r="AP64" t="s">
         <v>836</v>
       </c>
-      <c r="AP64" t="s">
+      <c r="AQ64" t="s">
         <v>837</v>
       </c>
-      <c r="AQ64" t="s">
+      <c r="AR64" t="s">
         <v>838</v>
       </c>
-      <c r="AR64" t="s">
+      <c r="AS64" t="s">
         <v>839</v>
       </c>
-      <c r="AS64" t="s">
+      <c r="AT64" t="s">
         <v>840</v>
-      </c>
-      <c r="AT64" t="s">
-        <v>841</v>
       </c>
       <c r="AU64" t="s">
         <v>166</v>
       </c>
       <c r="AV64" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="AW64" t="s">
         <v>842</v>
       </c>
-      <c r="AW64" t="s">
+      <c r="AX64" t="s">
         <v>843</v>
       </c>
-      <c r="AX64" t="s">
+      <c r="AY64" t="s">
         <v>844</v>
-      </c>
-      <c r="AY64" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="65" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C65" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D65" t="s">
         <v>54</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F65" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -15450,10 +15444,10 @@
         <v>1.480000019</v>
       </c>
       <c r="AF65" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AG65" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AH65" s="3">
         <v>0</v>
@@ -15471,7 +15465,7 @@
         <v>65</v>
       </c>
       <c r="AM65" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AN65">
         <v>149</v>
@@ -15507,27 +15501,27 @@
         <v>930.31433105500003</v>
       </c>
       <c r="AY65" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="66" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C66" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D66" t="s">
         <v>54</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F66" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -15605,16 +15599,16 @@
         <v>12</v>
       </c>
       <c r="AF66" t="s">
+        <v>852</v>
+      </c>
+      <c r="AG66" t="s">
         <v>853</v>
-      </c>
-      <c r="AG66" t="s">
-        <v>854</v>
       </c>
       <c r="AH66" s="3">
         <v>2</v>
       </c>
       <c r="AI66" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AJ66" s="7">
         <v>0</v>
@@ -15626,63 +15620,63 @@
         <v>65</v>
       </c>
       <c r="AM66" t="s">
+        <v>855</v>
+      </c>
+      <c r="AN66" t="s">
         <v>856</v>
       </c>
-      <c r="AN66" t="s">
+      <c r="AO66" t="s">
         <v>857</v>
       </c>
-      <c r="AO66" t="s">
+      <c r="AP66" t="s">
         <v>858</v>
       </c>
-      <c r="AP66" t="s">
+      <c r="AQ66" t="s">
         <v>859</v>
       </c>
-      <c r="AQ66" t="s">
+      <c r="AR66" t="s">
         <v>860</v>
       </c>
-      <c r="AR66" t="s">
+      <c r="AS66" t="s">
         <v>861</v>
       </c>
-      <c r="AS66" t="s">
+      <c r="AT66" t="s">
         <v>862</v>
       </c>
-      <c r="AT66" t="s">
+      <c r="AU66" t="s">
+        <v>453</v>
+      </c>
+      <c r="AV66" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="AW66" t="s">
+        <v>859</v>
+      </c>
+      <c r="AX66" t="s">
         <v>863</v>
       </c>
-      <c r="AU66" t="s">
-        <v>454</v>
-      </c>
-      <c r="AV66" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="AW66" t="s">
-        <v>860</v>
-      </c>
-      <c r="AX66" t="s">
+      <c r="AY66" t="s">
         <v>864</v>
-      </c>
-      <c r="AY66" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="67" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C67" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D67" t="s">
         <v>54</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F67" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -15760,16 +15754,16 @@
         <v>4.4000000950000002</v>
       </c>
       <c r="AF67" t="s">
+        <v>867</v>
+      </c>
+      <c r="AG67" t="s">
         <v>868</v>
-      </c>
-      <c r="AG67" t="s">
-        <v>869</v>
       </c>
       <c r="AH67" s="3">
         <v>2</v>
       </c>
       <c r="AI67" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="AJ67" s="7">
         <v>0</v>
@@ -15781,63 +15775,63 @@
         <v>65</v>
       </c>
       <c r="AM67" t="s">
+        <v>870</v>
+      </c>
+      <c r="AN67" t="s">
         <v>871</v>
       </c>
-      <c r="AN67" t="s">
+      <c r="AO67" t="s">
         <v>872</v>
       </c>
-      <c r="AO67" t="s">
+      <c r="AP67" t="s">
         <v>873</v>
       </c>
-      <c r="AP67" t="s">
+      <c r="AQ67" t="s">
         <v>874</v>
       </c>
-      <c r="AQ67" t="s">
+      <c r="AR67" t="s">
         <v>875</v>
       </c>
-      <c r="AR67" t="s">
+      <c r="AS67" t="s">
         <v>876</v>
       </c>
-      <c r="AS67" t="s">
+      <c r="AT67" t="s">
         <v>877</v>
-      </c>
-      <c r="AT67" t="s">
-        <v>878</v>
       </c>
       <c r="AU67" t="s">
         <v>218</v>
       </c>
       <c r="AV67" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="AW67" t="s">
         <v>879</v>
       </c>
-      <c r="AW67" t="s">
+      <c r="AX67" t="s">
         <v>880</v>
       </c>
-      <c r="AX67" t="s">
+      <c r="AY67" t="s">
         <v>881</v>
-      </c>
-      <c r="AY67" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="68" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C68" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D68" t="s">
         <v>54</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F68" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -15915,16 +15909,16 @@
         <v>0</v>
       </c>
       <c r="AF68" t="s">
+        <v>884</v>
+      </c>
+      <c r="AG68" t="s">
         <v>885</v>
-      </c>
-      <c r="AG68" t="s">
-        <v>886</v>
       </c>
       <c r="AH68" s="3">
         <v>2</v>
       </c>
       <c r="AI68" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AJ68" s="7">
         <v>0</v>
@@ -15936,63 +15930,63 @@
         <v>65</v>
       </c>
       <c r="AM68" t="s">
+        <v>887</v>
+      </c>
+      <c r="AN68" t="s">
         <v>888</v>
       </c>
-      <c r="AN68" t="s">
+      <c r="AO68" t="s">
         <v>889</v>
       </c>
-      <c r="AO68" t="s">
+      <c r="AP68" t="s">
         <v>890</v>
       </c>
-      <c r="AP68" t="s">
+      <c r="AQ68" t="s">
         <v>891</v>
       </c>
-      <c r="AQ68" t="s">
+      <c r="AR68" t="s">
         <v>892</v>
       </c>
-      <c r="AR68" t="s">
+      <c r="AS68" t="s">
         <v>893</v>
       </c>
-      <c r="AS68" t="s">
+      <c r="AT68" t="s">
         <v>894</v>
       </c>
-      <c r="AT68" t="s">
+      <c r="AU68" t="s">
+        <v>453</v>
+      </c>
+      <c r="AV68" s="8" t="s">
         <v>895</v>
       </c>
-      <c r="AU68" t="s">
-        <v>454</v>
-      </c>
-      <c r="AV68" s="8" t="s">
+      <c r="AW68" t="s">
         <v>896</v>
       </c>
-      <c r="AW68" t="s">
+      <c r="AX68" t="s">
         <v>897</v>
       </c>
-      <c r="AX68" t="s">
+      <c r="AY68" t="s">
         <v>898</v>
-      </c>
-      <c r="AY68" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="69" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C69" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D69" t="s">
         <v>54</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F69" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -16070,16 +16064,16 @@
         <v>1.3079999689999999</v>
       </c>
       <c r="AF69" t="s">
+        <v>901</v>
+      </c>
+      <c r="AG69" t="s">
         <v>902</v>
-      </c>
-      <c r="AG69" t="s">
-        <v>903</v>
       </c>
       <c r="AH69" s="3">
         <v>2</v>
       </c>
       <c r="AI69" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AJ69">
         <v>1346.7000128909999</v>
@@ -16091,63 +16085,63 @@
         <v>65</v>
       </c>
       <c r="AM69" t="s">
+        <v>904</v>
+      </c>
+      <c r="AN69" t="s">
         <v>905</v>
       </c>
-      <c r="AN69" t="s">
+      <c r="AO69" t="s">
         <v>906</v>
       </c>
-      <c r="AO69" t="s">
+      <c r="AP69" t="s">
         <v>907</v>
       </c>
-      <c r="AP69" t="s">
+      <c r="AQ69" t="s">
         <v>908</v>
       </c>
-      <c r="AQ69" t="s">
+      <c r="AR69" t="s">
         <v>909</v>
       </c>
-      <c r="AR69" t="s">
+      <c r="AS69" t="s">
         <v>910</v>
       </c>
-      <c r="AS69" t="s">
+      <c r="AT69" t="s">
         <v>911</v>
-      </c>
-      <c r="AT69" t="s">
-        <v>912</v>
       </c>
       <c r="AU69" t="s">
         <v>166</v>
       </c>
       <c r="AV69" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="AW69" t="s">
         <v>913</v>
       </c>
-      <c r="AW69" t="s">
+      <c r="AX69" t="s">
         <v>914</v>
       </c>
-      <c r="AX69" t="s">
+      <c r="AY69" t="s">
         <v>915</v>
-      </c>
-      <c r="AY69" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="70" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C70" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D70" t="s">
         <v>54</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F70" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -16225,16 +16219,16 @@
         <v>2.5899999139999998</v>
       </c>
       <c r="AF70" t="s">
+        <v>918</v>
+      </c>
+      <c r="AG70" t="s">
         <v>919</v>
-      </c>
-      <c r="AG70" t="s">
-        <v>920</v>
       </c>
       <c r="AH70" s="3">
         <v>2</v>
       </c>
       <c r="AI70" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AJ70">
         <v>284.00000449200002</v>
@@ -16246,28 +16240,28 @@
         <v>65</v>
       </c>
       <c r="AM70" t="s">
+        <v>921</v>
+      </c>
+      <c r="AN70" t="s">
         <v>922</v>
       </c>
-      <c r="AN70" t="s">
+      <c r="AO70" t="s">
         <v>923</v>
       </c>
-      <c r="AO70" t="s">
+      <c r="AP70" t="s">
         <v>924</v>
       </c>
-      <c r="AP70" t="s">
+      <c r="AQ70" t="s">
         <v>925</v>
       </c>
-      <c r="AQ70" t="s">
+      <c r="AR70" t="s">
         <v>926</v>
       </c>
-      <c r="AR70" t="s">
+      <c r="AS70" t="s">
         <v>927</v>
       </c>
-      <c r="AS70" t="s">
+      <c r="AT70" t="s">
         <v>928</v>
-      </c>
-      <c r="AT70" t="s">
-        <v>929</v>
       </c>
       <c r="AU70" t="s">
         <v>166</v>
@@ -16276,33 +16270,33 @@
         <v>167</v>
       </c>
       <c r="AW70" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AX70" t="s">
+        <v>929</v>
+      </c>
+      <c r="AY70" t="s">
         <v>930</v>
-      </c>
-      <c r="AY70" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="71" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C71" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D71" t="s">
         <v>54</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F71" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -16380,16 +16374,16 @@
         <v>2.2400000100000002</v>
       </c>
       <c r="AF71" t="s">
+        <v>933</v>
+      </c>
+      <c r="AG71" t="s">
         <v>934</v>
-      </c>
-      <c r="AG71" t="s">
-        <v>935</v>
       </c>
       <c r="AH71" s="3">
         <v>2</v>
       </c>
       <c r="AI71" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="AJ71" s="7">
         <v>0</v>
@@ -16437,27 +16431,27 @@
         <v>1338.9999550780001</v>
       </c>
       <c r="AY71" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="72" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C72" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D72" t="s">
         <v>54</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F72" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -16535,16 +16529,16 @@
         <v>7</v>
       </c>
       <c r="AF72" t="s">
+        <v>939</v>
+      </c>
+      <c r="AG72" t="s">
         <v>940</v>
-      </c>
-      <c r="AG72" t="s">
-        <v>941</v>
       </c>
       <c r="AH72" s="3">
         <v>2</v>
       </c>
       <c r="AI72" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AJ72" s="7">
         <v>0</v>
@@ -16556,7 +16550,7 @@
         <v>65</v>
       </c>
       <c r="AM72" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AN72">
         <v>155</v>
@@ -16592,27 +16586,27 @@
         <v>1535.9999550780001</v>
       </c>
       <c r="AY72" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="73" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C73" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D73" t="s">
         <v>54</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F73" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -16690,16 +16684,16 @@
         <v>0.676999986</v>
       </c>
       <c r="AF73" t="s">
+        <v>946</v>
+      </c>
+      <c r="AG73" t="s">
         <v>947</v>
       </c>
-      <c r="AG73" t="s">
+      <c r="AH73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI73" t="s">
         <v>948</v>
-      </c>
-      <c r="AH73" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI73" t="s">
-        <v>949</v>
       </c>
       <c r="AJ73">
         <v>1748.4999339840001</v>
@@ -16747,27 +16741,27 @@
         <v>1363.790039063</v>
       </c>
       <c r="AY73" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="74" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C74" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D74" t="s">
         <v>54</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="F74" t="s">
         <v>953</v>
-      </c>
-      <c r="F74" t="s">
-        <v>954</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -16845,16 +16839,16 @@
         <v>0.80000001200000004</v>
       </c>
       <c r="AF74" t="s">
+        <v>954</v>
+      </c>
+      <c r="AG74" t="s">
         <v>955</v>
-      </c>
-      <c r="AG74" t="s">
-        <v>956</v>
       </c>
       <c r="AH74" s="3">
         <v>2</v>
       </c>
       <c r="AI74" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="AJ74" s="7">
         <v>0</v>
@@ -16866,63 +16860,63 @@
         <v>65</v>
       </c>
       <c r="AM74" t="s">
+        <v>957</v>
+      </c>
+      <c r="AN74" t="s">
         <v>958</v>
       </c>
-      <c r="AN74" t="s">
+      <c r="AO74" t="s">
         <v>959</v>
       </c>
-      <c r="AO74" t="s">
+      <c r="AP74" t="s">
         <v>960</v>
       </c>
-      <c r="AP74" t="s">
+      <c r="AQ74" t="s">
         <v>961</v>
       </c>
-      <c r="AQ74" t="s">
+      <c r="AR74" t="s">
         <v>962</v>
       </c>
-      <c r="AR74" t="s">
+      <c r="AS74" t="s">
         <v>963</v>
       </c>
-      <c r="AS74" t="s">
+      <c r="AT74" t="s">
         <v>964</v>
-      </c>
-      <c r="AT74" t="s">
-        <v>965</v>
       </c>
       <c r="AU74" t="s">
         <v>166</v>
       </c>
       <c r="AV74" s="8" t="s">
+        <v>965</v>
+      </c>
+      <c r="AW74" t="s">
         <v>966</v>
       </c>
-      <c r="AW74" t="s">
+      <c r="AX74" t="s">
         <v>967</v>
       </c>
-      <c r="AX74" t="s">
+      <c r="AY74" t="s">
         <v>968</v>
-      </c>
-      <c r="AY74" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="75" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C75" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D75" t="s">
         <v>54</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F75" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -17000,16 +16994,16 @@
         <v>0.579999983</v>
       </c>
       <c r="AF75" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AG75" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AH75" s="3">
         <v>2</v>
       </c>
       <c r="AI75" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AJ75">
         <v>2207.0209960940001</v>
@@ -17021,63 +17015,63 @@
         <v>65</v>
       </c>
       <c r="AM75" t="s">
+        <v>973</v>
+      </c>
+      <c r="AN75" t="s">
         <v>974</v>
       </c>
-      <c r="AN75" t="s">
+      <c r="AO75" t="s">
         <v>975</v>
       </c>
-      <c r="AO75" t="s">
+      <c r="AP75" t="s">
         <v>976</v>
       </c>
-      <c r="AP75" t="s">
+      <c r="AQ75" t="s">
         <v>977</v>
       </c>
-      <c r="AQ75" t="s">
+      <c r="AR75" t="s">
         <v>978</v>
       </c>
-      <c r="AR75" t="s">
+      <c r="AS75" t="s">
         <v>979</v>
       </c>
-      <c r="AS75" t="s">
+      <c r="AT75" t="s">
         <v>980</v>
-      </c>
-      <c r="AT75" t="s">
-        <v>981</v>
       </c>
       <c r="AU75" t="s">
         <v>218</v>
       </c>
       <c r="AV75" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="AW75" t="s">
         <v>982</v>
       </c>
-      <c r="AW75" t="s">
+      <c r="AX75" t="s">
         <v>983</v>
       </c>
-      <c r="AX75" t="s">
+      <c r="AY75" t="s">
         <v>984</v>
-      </c>
-      <c r="AY75" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="76" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C76" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D76" t="s">
         <v>54</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F76" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -17155,16 +17149,16 @@
         <v>1.5499999520000001</v>
       </c>
       <c r="AF76" t="s">
+        <v>987</v>
+      </c>
+      <c r="AG76" t="s">
         <v>988</v>
-      </c>
-      <c r="AG76" t="s">
-        <v>989</v>
       </c>
       <c r="AH76" s="3">
         <v>2</v>
       </c>
       <c r="AI76" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AJ76">
         <v>4501.3100585940001</v>
@@ -17176,63 +17170,63 @@
         <v>65</v>
       </c>
       <c r="AM76" t="s">
+        <v>990</v>
+      </c>
+      <c r="AN76" t="s">
         <v>991</v>
       </c>
-      <c r="AN76" t="s">
+      <c r="AO76" t="s">
         <v>992</v>
       </c>
-      <c r="AO76" t="s">
+      <c r="AP76" t="s">
         <v>993</v>
       </c>
-      <c r="AP76" t="s">
+      <c r="AQ76" t="s">
         <v>994</v>
       </c>
-      <c r="AQ76" t="s">
+      <c r="AR76" t="s">
         <v>995</v>
       </c>
-      <c r="AR76" t="s">
+      <c r="AS76" t="s">
         <v>996</v>
       </c>
-      <c r="AS76" t="s">
+      <c r="AT76" t="s">
         <v>997</v>
       </c>
-      <c r="AT76" t="s">
+      <c r="AU76" t="s">
         <v>998</v>
       </c>
-      <c r="AU76" t="s">
+      <c r="AV76" s="8" t="s">
         <v>999</v>
       </c>
-      <c r="AV76" s="8" t="s">
+      <c r="AW76" t="s">
         <v>1000</v>
       </c>
-      <c r="AW76" t="s">
+      <c r="AX76" t="s">
         <v>1001</v>
       </c>
-      <c r="AX76" t="s">
+      <c r="AY76" t="s">
         <v>1002</v>
-      </c>
-      <c r="AY76" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="77" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C77" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D77" t="s">
         <v>54</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F77" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -17310,16 +17304,16 @@
         <v>0.75499999500000003</v>
       </c>
       <c r="AF77" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AG77" t="s">
         <v>1006</v>
-      </c>
-      <c r="AG77" t="s">
-        <v>1007</v>
       </c>
       <c r="AH77" s="3">
         <v>2</v>
       </c>
       <c r="AI77" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="AJ77">
         <v>4206.6928710940001</v>
@@ -17331,63 +17325,63 @@
         <v>65</v>
       </c>
       <c r="AM77" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AN77" t="s">
         <v>1009</v>
       </c>
-      <c r="AN77" t="s">
+      <c r="AO77" t="s">
         <v>1010</v>
       </c>
-      <c r="AO77" t="s">
+      <c r="AP77" t="s">
         <v>1011</v>
       </c>
-      <c r="AP77" t="s">
+      <c r="AQ77" t="s">
         <v>1012</v>
       </c>
-      <c r="AQ77" t="s">
+      <c r="AR77" t="s">
         <v>1013</v>
       </c>
-      <c r="AR77" t="s">
+      <c r="AS77" t="s">
         <v>1014</v>
       </c>
-      <c r="AS77" t="s">
+      <c r="AT77" t="s">
         <v>1015</v>
-      </c>
-      <c r="AT77" t="s">
-        <v>1016</v>
       </c>
       <c r="AU77" t="s">
         <v>166</v>
       </c>
       <c r="AV77" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AW77" t="s">
         <v>1017</v>
       </c>
-      <c r="AW77" t="s">
+      <c r="AX77" t="s">
         <v>1018</v>
       </c>
-      <c r="AX77" t="s">
+      <c r="AY77" t="s">
         <v>1019</v>
-      </c>
-      <c r="AY77" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="78" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C78" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D78" t="s">
         <v>54</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F78" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -17465,16 +17459,16 @@
         <v>2.2000000480000002</v>
       </c>
       <c r="AF78" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AG78" t="s">
         <v>1023</v>
-      </c>
-      <c r="AG78" t="s">
-        <v>1024</v>
       </c>
       <c r="AH78" s="3">
         <v>2</v>
       </c>
       <c r="AI78" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AJ78">
         <v>5114.8295898440001</v>
@@ -17486,63 +17480,63 @@
         <v>65</v>
       </c>
       <c r="AM78" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AN78" t="s">
         <v>1026</v>
       </c>
-      <c r="AN78" t="s">
+      <c r="AO78" t="s">
         <v>1027</v>
       </c>
-      <c r="AO78" t="s">
+      <c r="AP78" t="s">
         <v>1028</v>
       </c>
-      <c r="AP78" t="s">
+      <c r="AQ78" t="s">
         <v>1029</v>
       </c>
-      <c r="AQ78" t="s">
+      <c r="AR78" t="s">
         <v>1030</v>
       </c>
-      <c r="AR78" t="s">
+      <c r="AS78" t="s">
         <v>1031</v>
       </c>
-      <c r="AS78" t="s">
+      <c r="AT78" t="s">
         <v>1032</v>
       </c>
-      <c r="AT78" t="s">
+      <c r="AU78" t="s">
+        <v>807</v>
+      </c>
+      <c r="AV78" s="8" t="s">
         <v>1033</v>
       </c>
-      <c r="AU78" t="s">
-        <v>808</v>
-      </c>
-      <c r="AV78" s="8" t="s">
+      <c r="AW78" t="s">
         <v>1034</v>
       </c>
-      <c r="AW78" t="s">
+      <c r="AX78" t="s">
         <v>1035</v>
       </c>
-      <c r="AX78" t="s">
+      <c r="AY78" t="s">
         <v>1036</v>
-      </c>
-      <c r="AY78" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="79" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C79" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D79" t="s">
         <v>54</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F79" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -17620,16 +17614,16 @@
         <v>0.62875002599999996</v>
       </c>
       <c r="AF79" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AG79" t="s">
         <v>1041</v>
-      </c>
-      <c r="AG79" t="s">
-        <v>1042</v>
       </c>
       <c r="AH79" s="3">
         <v>2</v>
       </c>
       <c r="AI79" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AJ79">
         <v>8852.0341796880002</v>
@@ -17641,63 +17635,63 @@
         <v>65</v>
       </c>
       <c r="AM79" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AN79" t="s">
         <v>1044</v>
       </c>
-      <c r="AN79" t="s">
+      <c r="AO79" t="s">
         <v>1045</v>
       </c>
-      <c r="AO79" t="s">
+      <c r="AP79" t="s">
         <v>1046</v>
       </c>
-      <c r="AP79" t="s">
+      <c r="AQ79" t="s">
         <v>1047</v>
       </c>
-      <c r="AQ79" t="s">
+      <c r="AR79" t="s">
         <v>1048</v>
       </c>
-      <c r="AR79" t="s">
+      <c r="AS79" t="s">
         <v>1049</v>
       </c>
-      <c r="AS79" t="s">
+      <c r="AT79" t="s">
         <v>1050</v>
       </c>
-      <c r="AT79" t="s">
+      <c r="AU79" t="s">
         <v>1051</v>
       </c>
-      <c r="AU79" t="s">
+      <c r="AV79" s="8" t="s">
         <v>1052</v>
       </c>
-      <c r="AV79" s="8" t="s">
+      <c r="AW79" t="s">
         <v>1053</v>
       </c>
-      <c r="AW79" t="s">
+      <c r="AX79" t="s">
         <v>1054</v>
       </c>
-      <c r="AX79" t="s">
+      <c r="AY79" t="s">
         <v>1055</v>
-      </c>
-      <c r="AY79" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="80" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C80" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D80" t="s">
         <v>54</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F80" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -17775,16 +17769,16 @@
         <v>0.5</v>
       </c>
       <c r="AF80" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AG80" t="s">
         <v>1059</v>
-      </c>
-      <c r="AG80" t="s">
-        <v>1060</v>
       </c>
       <c r="AH80" s="3">
         <v>2</v>
       </c>
       <c r="AI80" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="AJ80">
         <v>4250.65625</v>
@@ -17796,63 +17790,63 @@
         <v>65</v>
       </c>
       <c r="AM80" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AN80" t="s">
         <v>1062</v>
       </c>
-      <c r="AN80" t="s">
+      <c r="AO80" t="s">
         <v>1063</v>
       </c>
-      <c r="AO80" t="s">
+      <c r="AP80" t="s">
         <v>1064</v>
       </c>
-      <c r="AP80" t="s">
+      <c r="AQ80" t="s">
         <v>1065</v>
       </c>
-      <c r="AQ80" t="s">
+      <c r="AR80" t="s">
         <v>1066</v>
       </c>
-      <c r="AR80" t="s">
+      <c r="AS80" t="s">
         <v>1067</v>
       </c>
-      <c r="AS80" t="s">
+      <c r="AT80" t="s">
         <v>1068</v>
-      </c>
-      <c r="AT80" t="s">
-        <v>1069</v>
       </c>
       <c r="AU80" t="s">
         <v>166</v>
       </c>
       <c r="AV80" s="8" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AW80" t="s">
         <v>1070</v>
       </c>
-      <c r="AW80" t="s">
+      <c r="AX80" t="s">
         <v>1071</v>
       </c>
-      <c r="AX80" t="s">
+      <c r="AY80" t="s">
         <v>1072</v>
-      </c>
-      <c r="AY80" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="81" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D81" t="s">
         <v>54</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F81" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -17930,16 +17924,16 @@
         <v>1.8600780960000001</v>
       </c>
       <c r="AF81" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AG81" t="s">
         <v>1076</v>
-      </c>
-      <c r="AG81" t="s">
-        <v>1077</v>
       </c>
       <c r="AH81" s="3">
         <v>2</v>
       </c>
       <c r="AI81" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="AJ81">
         <v>5022.3095703130002</v>
@@ -17984,27 +17978,27 @@
         <v>1513.9999550780001</v>
       </c>
       <c r="AY81" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="82" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C82" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D82" t="s">
         <v>54</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F82" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -18082,16 +18076,16 @@
         <v>1.8600780960000001</v>
       </c>
       <c r="AF82" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AG82" t="s">
         <v>1076</v>
-      </c>
-      <c r="AG82" t="s">
-        <v>1077</v>
       </c>
       <c r="AH82" s="3">
         <v>2</v>
       </c>
       <c r="AI82" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="AJ82">
         <v>5022.3095703130002</v>
@@ -18136,27 +18130,27 @@
         <v>1513.9999550780001</v>
       </c>
       <c r="AY82" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="83" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C83" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D83" t="s">
         <v>54</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F83" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -18234,16 +18228,16 @@
         <v>1.3999999759999999</v>
       </c>
       <c r="AF83" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AG83" t="s">
         <v>1083</v>
-      </c>
-      <c r="AG83" t="s">
-        <v>1084</v>
       </c>
       <c r="AH83" s="3">
         <v>2</v>
       </c>
       <c r="AI83" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AJ83">
         <v>4284.7797851559999</v>
@@ -18291,27 +18285,27 @@
         <v>1695.6959999999999</v>
       </c>
       <c r="AY83" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="84" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C84" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D84" t="s">
         <v>54</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F84" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -18389,16 +18383,16 @@
         <v>0.69999998799999996</v>
       </c>
       <c r="AF84" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AG84" t="s">
         <v>1089</v>
       </c>
-      <c r="AG84" t="s">
+      <c r="AH84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI84" t="s">
         <v>1090</v>
-      </c>
-      <c r="AH84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI84" t="s">
-        <v>1091</v>
       </c>
       <c r="AJ84">
         <v>4199.4799804690001</v>
@@ -18410,63 +18404,63 @@
         <v>65</v>
       </c>
       <c r="AM84" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AN84" t="s">
         <v>1092</v>
       </c>
-      <c r="AN84" t="s">
+      <c r="AO84" t="s">
         <v>1093</v>
       </c>
-      <c r="AO84" t="s">
+      <c r="AP84" t="s">
         <v>1094</v>
       </c>
-      <c r="AP84" t="s">
+      <c r="AQ84" t="s">
         <v>1095</v>
       </c>
-      <c r="AQ84" t="s">
+      <c r="AR84" t="s">
         <v>1096</v>
       </c>
-      <c r="AR84" t="s">
+      <c r="AS84" t="s">
         <v>1097</v>
       </c>
-      <c r="AS84" t="s">
+      <c r="AT84" t="s">
         <v>1098</v>
       </c>
-      <c r="AT84" t="s">
+      <c r="AU84" t="s">
+        <v>363</v>
+      </c>
+      <c r="AV84" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW84" t="s">
         <v>1099</v>
       </c>
-      <c r="AU84" t="s">
-        <v>364</v>
-      </c>
-      <c r="AV84" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="AW84" t="s">
+      <c r="AX84" t="s">
         <v>1100</v>
       </c>
-      <c r="AX84" t="s">
+      <c r="AY84" t="s">
         <v>1101</v>
-      </c>
-      <c r="AY84" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="85" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C85" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D85" t="s">
         <v>54</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F85" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -18544,16 +18538,16 @@
         <v>0.40000000600000002</v>
       </c>
       <c r="AF85" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AG85" t="s">
         <v>1106</v>
-      </c>
-      <c r="AG85" t="s">
-        <v>1107</v>
       </c>
       <c r="AH85" s="3">
         <v>2</v>
       </c>
       <c r="AI85" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AJ85">
         <v>1286.099975586</v>
@@ -18565,63 +18559,63 @@
         <v>65</v>
       </c>
       <c r="AM85" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AN85" t="s">
         <v>1109</v>
       </c>
-      <c r="AN85" t="s">
+      <c r="AO85" t="s">
         <v>1110</v>
       </c>
-      <c r="AO85" t="s">
+      <c r="AP85" t="s">
         <v>1111</v>
       </c>
-      <c r="AP85" t="s">
+      <c r="AQ85" t="s">
         <v>1112</v>
       </c>
-      <c r="AQ85" t="s">
+      <c r="AR85" t="s">
         <v>1113</v>
       </c>
-      <c r="AR85" t="s">
+      <c r="AS85" t="s">
         <v>1114</v>
       </c>
-      <c r="AS85" t="s">
+      <c r="AT85" t="s">
         <v>1115</v>
-      </c>
-      <c r="AT85" t="s">
-        <v>1116</v>
       </c>
       <c r="AU85" t="s">
         <v>166</v>
       </c>
       <c r="AV85" s="8" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AW85" t="s">
         <v>1117</v>
       </c>
-      <c r="AW85" t="s">
+      <c r="AX85" t="s">
         <v>1118</v>
       </c>
-      <c r="AX85" t="s">
+      <c r="AY85" t="s">
         <v>1119</v>
-      </c>
-      <c r="AY85" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="86" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C86" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D86" t="s">
         <v>54</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F86" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -18699,16 +18693,16 @@
         <v>1.2000000479999999</v>
       </c>
       <c r="AF86" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AG86" t="s">
         <v>1123</v>
-      </c>
-      <c r="AG86" t="s">
-        <v>1124</v>
       </c>
       <c r="AH86" s="3">
         <v>2</v>
       </c>
       <c r="AI86" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AJ86">
         <v>4885.169921875</v>
@@ -18720,63 +18714,63 @@
         <v>65</v>
       </c>
       <c r="AM86" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AN86" t="s">
         <v>1126</v>
       </c>
-      <c r="AN86" t="s">
+      <c r="AO86" t="s">
         <v>1127</v>
       </c>
-      <c r="AO86" t="s">
+      <c r="AP86" t="s">
         <v>1128</v>
       </c>
-      <c r="AP86" t="s">
+      <c r="AQ86" t="s">
         <v>1129</v>
       </c>
-      <c r="AQ86" t="s">
+      <c r="AR86" t="s">
         <v>1130</v>
       </c>
-      <c r="AR86" t="s">
+      <c r="AS86" t="s">
         <v>1131</v>
       </c>
-      <c r="AS86" t="s">
+      <c r="AT86" t="s">
         <v>1132</v>
       </c>
-      <c r="AT86" t="s">
+      <c r="AU86" t="s">
+        <v>807</v>
+      </c>
+      <c r="AV86" s="8" t="s">
         <v>1133</v>
       </c>
-      <c r="AU86" t="s">
-        <v>808</v>
-      </c>
-      <c r="AV86" s="8" t="s">
+      <c r="AW86" t="s">
         <v>1134</v>
       </c>
-      <c r="AW86" t="s">
+      <c r="AX86" t="s">
         <v>1135</v>
       </c>
-      <c r="AX86" t="s">
+      <c r="AY86" t="s">
         <v>1136</v>
-      </c>
-      <c r="AY86" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="87" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C87" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D87" t="s">
         <v>54</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F87" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -18854,16 +18848,16 @@
         <v>0.80000001200000004</v>
       </c>
       <c r="AF87" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AG87" t="s">
         <v>1140</v>
-      </c>
-      <c r="AG87" t="s">
-        <v>1141</v>
       </c>
       <c r="AH87" s="3">
         <v>2</v>
       </c>
       <c r="AI87" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="AJ87">
         <v>7542.6508789059999</v>
@@ -18875,63 +18869,63 @@
         <v>65</v>
       </c>
       <c r="AM87" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AN87" t="s">
         <v>1143</v>
       </c>
-      <c r="AN87" t="s">
+      <c r="AO87" t="s">
         <v>1144</v>
       </c>
-      <c r="AO87" t="s">
+      <c r="AP87" t="s">
         <v>1145</v>
       </c>
-      <c r="AP87" t="s">
+      <c r="AQ87" t="s">
         <v>1146</v>
       </c>
-      <c r="AQ87" t="s">
+      <c r="AR87" t="s">
         <v>1147</v>
       </c>
-      <c r="AR87" t="s">
+      <c r="AS87" t="s">
         <v>1148</v>
       </c>
-      <c r="AS87" t="s">
+      <c r="AT87" t="s">
         <v>1149</v>
       </c>
-      <c r="AT87" t="s">
+      <c r="AU87" t="s">
+        <v>363</v>
+      </c>
+      <c r="AV87" s="8" t="s">
         <v>1150</v>
       </c>
-      <c r="AU87" t="s">
-        <v>364</v>
-      </c>
-      <c r="AV87" s="8" t="s">
+      <c r="AW87" t="s">
         <v>1151</v>
       </c>
-      <c r="AW87" t="s">
+      <c r="AX87" t="s">
         <v>1152</v>
       </c>
-      <c r="AX87" t="s">
+      <c r="AY87" t="s">
         <v>1153</v>
-      </c>
-      <c r="AY87" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="88" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C88" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D88" t="s">
         <v>54</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F88" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -19009,16 +19003,16 @@
         <v>2</v>
       </c>
       <c r="AF88" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AG88" t="s">
         <v>1157</v>
-      </c>
-      <c r="AG88" t="s">
-        <v>1158</v>
       </c>
       <c r="AH88" s="3">
         <v>2</v>
       </c>
       <c r="AI88" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AJ88">
         <v>4063.6499023440001</v>
@@ -19030,63 +19024,63 @@
         <v>65</v>
       </c>
       <c r="AM88" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AN88" t="s">
         <v>1160</v>
       </c>
-      <c r="AN88" t="s">
+      <c r="AO88" t="s">
         <v>1161</v>
       </c>
-      <c r="AO88" t="s">
+      <c r="AP88" t="s">
         <v>1162</v>
       </c>
-      <c r="AP88" t="s">
+      <c r="AQ88" t="s">
         <v>1163</v>
       </c>
-      <c r="AQ88" t="s">
+      <c r="AR88" t="s">
         <v>1164</v>
       </c>
-      <c r="AR88" t="s">
+      <c r="AS88" t="s">
         <v>1165</v>
       </c>
-      <c r="AS88" t="s">
+      <c r="AT88" t="s">
         <v>1166</v>
       </c>
-      <c r="AT88" t="s">
+      <c r="AU88" t="s">
+        <v>687</v>
+      </c>
+      <c r="AV88" s="8" t="s">
         <v>1167</v>
       </c>
-      <c r="AU88" t="s">
-        <v>688</v>
-      </c>
-      <c r="AV88" s="8" t="s">
+      <c r="AW88" t="s">
         <v>1168</v>
       </c>
-      <c r="AW88" t="s">
+      <c r="AX88" t="s">
         <v>1169</v>
       </c>
-      <c r="AX88" t="s">
+      <c r="AY88" t="s">
         <v>1170</v>
-      </c>
-      <c r="AY88" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="89" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C89" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D89" t="s">
         <v>54</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="F89" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -19164,16 +19158,16 @@
         <v>1.7824399470000001</v>
       </c>
       <c r="AF89" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AG89" t="s">
         <v>1174</v>
-      </c>
-      <c r="AG89" t="s">
-        <v>1175</v>
       </c>
       <c r="AH89" s="3">
         <v>2</v>
       </c>
       <c r="AI89" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="AJ89">
         <v>3523.6201171880002</v>
@@ -19185,63 +19179,63 @@
         <v>65</v>
       </c>
       <c r="AM89" t="s">
+        <v>1176</v>
+      </c>
+      <c r="AN89" t="s">
         <v>1177</v>
       </c>
-      <c r="AN89" t="s">
+      <c r="AO89" t="s">
         <v>1178</v>
       </c>
-      <c r="AO89" t="s">
+      <c r="AP89" t="s">
         <v>1179</v>
       </c>
-      <c r="AP89" t="s">
+      <c r="AQ89" t="s">
         <v>1180</v>
       </c>
-      <c r="AQ89" t="s">
+      <c r="AR89" t="s">
         <v>1181</v>
       </c>
-      <c r="AR89" t="s">
+      <c r="AS89" t="s">
         <v>1182</v>
       </c>
-      <c r="AS89" t="s">
+      <c r="AT89" t="s">
         <v>1183</v>
       </c>
-      <c r="AT89" t="s">
+      <c r="AU89" t="s">
+        <v>453</v>
+      </c>
+      <c r="AV89" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="AW89" t="s">
+        <v>1180</v>
+      </c>
+      <c r="AX89" t="s">
+        <v>863</v>
+      </c>
+      <c r="AY89" t="s">
         <v>1184</v>
-      </c>
-      <c r="AU89" t="s">
-        <v>454</v>
-      </c>
-      <c r="AV89" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="AW89" t="s">
-        <v>1181</v>
-      </c>
-      <c r="AX89" t="s">
-        <v>864</v>
-      </c>
-      <c r="AY89" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="90" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C90" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D90" t="s">
         <v>54</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F90" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -19319,16 +19313,16 @@
         <v>0.68000000699999996</v>
       </c>
       <c r="AF90" t="s">
+        <v>1187</v>
+      </c>
+      <c r="AG90" t="s">
         <v>1188</v>
-      </c>
-      <c r="AG90" t="s">
-        <v>1189</v>
       </c>
       <c r="AH90" s="3">
         <v>2</v>
       </c>
       <c r="AI90" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AJ90">
         <v>5774.2783203130002</v>
@@ -19340,63 +19334,63 @@
         <v>65</v>
       </c>
       <c r="AM90" t="s">
+        <v>1190</v>
+      </c>
+      <c r="AN90" t="s">
         <v>1191</v>
       </c>
-      <c r="AN90" t="s">
+      <c r="AO90" t="s">
         <v>1192</v>
       </c>
-      <c r="AO90" t="s">
+      <c r="AP90" t="s">
         <v>1193</v>
       </c>
-      <c r="AP90" t="s">
+      <c r="AQ90" t="s">
         <v>1194</v>
       </c>
-      <c r="AQ90" t="s">
+      <c r="AR90" t="s">
         <v>1195</v>
       </c>
-      <c r="AR90" t="s">
+      <c r="AS90" t="s">
         <v>1196</v>
       </c>
-      <c r="AS90" t="s">
+      <c r="AT90" t="s">
         <v>1197</v>
-      </c>
-      <c r="AT90" t="s">
-        <v>1198</v>
       </c>
       <c r="AU90" t="s">
         <v>166</v>
       </c>
       <c r="AV90" s="8" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AW90" t="s">
         <v>1199</v>
       </c>
-      <c r="AW90" t="s">
+      <c r="AX90" t="s">
         <v>1200</v>
       </c>
-      <c r="AX90" t="s">
+      <c r="AY90" t="s">
         <v>1201</v>
-      </c>
-      <c r="AY90" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="91" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C91" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D91" t="s">
         <v>54</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F91" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -19474,16 +19468,16 @@
         <v>0.5</v>
       </c>
       <c r="AF91" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AG91" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AH91" s="3">
         <v>2</v>
       </c>
       <c r="AI91" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="AJ91">
         <v>5167.3227539059999</v>
@@ -19495,63 +19489,63 @@
         <v>65</v>
       </c>
       <c r="AM91" t="s">
+        <v>1206</v>
+      </c>
+      <c r="AN91" t="s">
         <v>1207</v>
       </c>
-      <c r="AN91" t="s">
+      <c r="AO91" t="s">
         <v>1208</v>
       </c>
-      <c r="AO91" t="s">
+      <c r="AP91" t="s">
         <v>1209</v>
       </c>
-      <c r="AP91" t="s">
+      <c r="AQ91" t="s">
         <v>1210</v>
       </c>
-      <c r="AQ91" t="s">
+      <c r="AR91" t="s">
         <v>1211</v>
       </c>
-      <c r="AR91" t="s">
+      <c r="AS91" t="s">
         <v>1212</v>
       </c>
-      <c r="AS91" t="s">
+      <c r="AT91" t="s">
         <v>1213</v>
       </c>
-      <c r="AT91" t="s">
+      <c r="AU91" t="s">
+        <v>453</v>
+      </c>
+      <c r="AV91" s="8" t="s">
         <v>1214</v>
       </c>
-      <c r="AU91" t="s">
-        <v>454</v>
-      </c>
-      <c r="AV91" s="8" t="s">
+      <c r="AW91" t="s">
         <v>1215</v>
       </c>
-      <c r="AW91" t="s">
+      <c r="AX91" t="s">
         <v>1216</v>
       </c>
-      <c r="AX91" t="s">
+      <c r="AY91" t="s">
         <v>1217</v>
-      </c>
-      <c r="AY91" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="92" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C92" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D92" t="s">
         <v>54</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F92" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -19629,16 +19623,16 @@
         <v>0.80000001200000004</v>
       </c>
       <c r="AF92" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AG92" t="s">
         <v>1221</v>
-      </c>
-      <c r="AG92" t="s">
-        <v>1222</v>
       </c>
       <c r="AH92" s="3">
         <v>2</v>
       </c>
       <c r="AI92" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AJ92">
         <v>3415.3542480470001</v>
@@ -19650,63 +19644,63 @@
         <v>65</v>
       </c>
       <c r="AM92" t="s">
+        <v>1223</v>
+      </c>
+      <c r="AN92" t="s">
         <v>1224</v>
       </c>
-      <c r="AN92" t="s">
+      <c r="AO92" t="s">
         <v>1225</v>
       </c>
-      <c r="AO92" t="s">
+      <c r="AP92" t="s">
         <v>1226</v>
       </c>
-      <c r="AP92" t="s">
+      <c r="AQ92" t="s">
         <v>1227</v>
       </c>
-      <c r="AQ92" t="s">
+      <c r="AR92" t="s">
         <v>1228</v>
       </c>
-      <c r="AR92" t="s">
+      <c r="AS92" t="s">
         <v>1229</v>
       </c>
-      <c r="AS92" t="s">
+      <c r="AT92" t="s">
         <v>1230</v>
       </c>
-      <c r="AT92" t="s">
+      <c r="AU92" t="s">
+        <v>687</v>
+      </c>
+      <c r="AV92" s="8" t="s">
         <v>1231</v>
       </c>
-      <c r="AU92" t="s">
-        <v>688</v>
-      </c>
-      <c r="AV92" s="8" t="s">
+      <c r="AW92" t="s">
         <v>1232</v>
       </c>
-      <c r="AW92" t="s">
+      <c r="AX92" t="s">
         <v>1233</v>
       </c>
-      <c r="AX92" t="s">
+      <c r="AY92" t="s">
         <v>1234</v>
-      </c>
-      <c r="AY92" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="93" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C93" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D93" t="s">
         <v>54</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="F93" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -19784,16 +19778,16 @@
         <v>9</v>
       </c>
       <c r="AF93" t="s">
+        <v>1237</v>
+      </c>
+      <c r="AG93" t="s">
         <v>1238</v>
-      </c>
-      <c r="AG93" t="s">
-        <v>1239</v>
       </c>
       <c r="AH93" s="3">
         <v>2</v>
       </c>
       <c r="AI93" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AJ93">
         <v>4199.4750976559999</v>
@@ -19805,63 +19799,63 @@
         <v>65</v>
       </c>
       <c r="AM93" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AN93" t="s">
         <v>1241</v>
       </c>
-      <c r="AN93" t="s">
+      <c r="AO93" t="s">
         <v>1242</v>
       </c>
-      <c r="AO93" t="s">
+      <c r="AP93" t="s">
         <v>1243</v>
       </c>
-      <c r="AP93" t="s">
+      <c r="AQ93" t="s">
         <v>1244</v>
       </c>
-      <c r="AQ93" t="s">
+      <c r="AR93" t="s">
         <v>1245</v>
       </c>
-      <c r="AR93" t="s">
+      <c r="AS93" t="s">
         <v>1246</v>
       </c>
-      <c r="AS93" t="s">
+      <c r="AT93" t="s">
         <v>1247</v>
       </c>
-      <c r="AT93" t="s">
+      <c r="AU93" t="s">
         <v>1248</v>
       </c>
-      <c r="AU93" t="s">
+      <c r="AV93" s="8" t="s">
         <v>1249</v>
       </c>
-      <c r="AV93" s="8" t="s">
+      <c r="AW93" t="s">
         <v>1250</v>
       </c>
-      <c r="AW93" t="s">
+      <c r="AX93" t="s">
         <v>1251</v>
       </c>
-      <c r="AX93" t="s">
+      <c r="AY93" t="s">
         <v>1252</v>
-      </c>
-      <c r="AY93" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="94" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C94" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D94" t="s">
         <v>54</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F94" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -19939,16 +19933,16 @@
         <v>3.0499999519999998</v>
       </c>
       <c r="AF94" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AG94" t="s">
         <v>1256</v>
-      </c>
-      <c r="AG94" t="s">
-        <v>1257</v>
       </c>
       <c r="AH94" s="3">
         <v>2</v>
       </c>
       <c r="AI94" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="AJ94">
         <v>5019.6850585940001</v>
@@ -19960,63 +19954,63 @@
         <v>65</v>
       </c>
       <c r="AM94" t="s">
+        <v>1258</v>
+      </c>
+      <c r="AN94" t="s">
         <v>1259</v>
       </c>
-      <c r="AN94" t="s">
+      <c r="AO94" t="s">
         <v>1260</v>
       </c>
-      <c r="AO94" t="s">
+      <c r="AP94" t="s">
         <v>1261</v>
       </c>
-      <c r="AP94" t="s">
+      <c r="AQ94" t="s">
         <v>1262</v>
       </c>
-      <c r="AQ94" t="s">
+      <c r="AR94" t="s">
         <v>1263</v>
       </c>
-      <c r="AR94" t="s">
+      <c r="AS94" t="s">
         <v>1264</v>
       </c>
-      <c r="AS94" t="s">
+      <c r="AT94" t="s">
         <v>1265</v>
       </c>
-      <c r="AT94" t="s">
+      <c r="AU94" t="s">
+        <v>453</v>
+      </c>
+      <c r="AV94" s="8" t="s">
         <v>1266</v>
       </c>
-      <c r="AU94" t="s">
-        <v>454</v>
-      </c>
-      <c r="AV94" s="8" t="s">
+      <c r="AW94" t="s">
         <v>1267</v>
       </c>
-      <c r="AW94" t="s">
+      <c r="AX94" t="s">
         <v>1268</v>
       </c>
-      <c r="AX94" t="s">
+      <c r="AY94" t="s">
         <v>1269</v>
-      </c>
-      <c r="AY94" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="95" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C95" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D95" t="s">
         <v>54</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="F95" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -20094,16 +20088,16 @@
         <v>1.690000057</v>
       </c>
       <c r="AF95" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="AG95" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AH95" s="3">
         <v>2</v>
       </c>
       <c r="AI95" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="AJ95">
         <v>6826.771484375</v>
@@ -20115,63 +20109,63 @@
         <v>65</v>
       </c>
       <c r="AM95" t="s">
+        <v>1274</v>
+      </c>
+      <c r="AN95" t="s">
         <v>1275</v>
       </c>
-      <c r="AN95" t="s">
+      <c r="AO95" t="s">
         <v>1276</v>
       </c>
-      <c r="AO95" t="s">
+      <c r="AP95" t="s">
         <v>1277</v>
       </c>
-      <c r="AP95" t="s">
+      <c r="AQ95" t="s">
         <v>1278</v>
       </c>
-      <c r="AQ95" t="s">
+      <c r="AR95" t="s">
         <v>1279</v>
       </c>
-      <c r="AR95" t="s">
+      <c r="AS95" t="s">
         <v>1280</v>
       </c>
-      <c r="AS95" t="s">
+      <c r="AT95" t="s">
         <v>1281</v>
       </c>
-      <c r="AT95" t="s">
+      <c r="AU95" t="s">
+        <v>998</v>
+      </c>
+      <c r="AV95" s="8" t="s">
         <v>1282</v>
       </c>
-      <c r="AU95" t="s">
-        <v>999</v>
-      </c>
-      <c r="AV95" s="8" t="s">
+      <c r="AW95" t="s">
         <v>1283</v>
       </c>
-      <c r="AW95" t="s">
+      <c r="AX95" t="s">
         <v>1284</v>
       </c>
-      <c r="AX95" t="s">
+      <c r="AY95" t="s">
         <v>1285</v>
-      </c>
-      <c r="AY95" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="96" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C96" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D96" t="s">
         <v>54</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F96" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -20249,16 +20243,16 @@
         <v>2.2999999519999998</v>
       </c>
       <c r="AF96" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AG96" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AH96" s="3">
         <v>2</v>
       </c>
       <c r="AI96" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="AJ96">
         <v>7939.3046875</v>
@@ -20270,63 +20264,63 @@
         <v>65</v>
       </c>
       <c r="AM96" t="s">
+        <v>1290</v>
+      </c>
+      <c r="AN96" t="s">
         <v>1291</v>
       </c>
-      <c r="AN96" t="s">
+      <c r="AO96" t="s">
         <v>1292</v>
       </c>
-      <c r="AO96" t="s">
+      <c r="AP96" t="s">
         <v>1293</v>
       </c>
-      <c r="AP96" t="s">
+      <c r="AQ96" t="s">
         <v>1294</v>
       </c>
-      <c r="AQ96" t="s">
+      <c r="AR96" t="s">
         <v>1295</v>
       </c>
-      <c r="AR96" t="s">
+      <c r="AS96" t="s">
         <v>1296</v>
       </c>
-      <c r="AS96" t="s">
+      <c r="AT96" t="s">
         <v>1297</v>
       </c>
-      <c r="AT96" t="s">
+      <c r="AU96" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AV96" s="8" t="s">
         <v>1298</v>
       </c>
-      <c r="AU96" t="s">
-        <v>1052</v>
-      </c>
-      <c r="AV96" s="8" t="s">
+      <c r="AW96" t="s">
         <v>1299</v>
       </c>
-      <c r="AW96" t="s">
+      <c r="AX96" t="s">
         <v>1300</v>
       </c>
-      <c r="AX96" t="s">
+      <c r="AY96" t="s">
         <v>1301</v>
-      </c>
-      <c r="AY96" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="97" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C97" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D97" t="s">
         <v>54</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F97" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -20404,16 +20398,16 @@
         <v>1.6499999759999999</v>
       </c>
       <c r="AF97" t="s">
+        <v>1304</v>
+      </c>
+      <c r="AG97" t="s">
         <v>1305</v>
-      </c>
-      <c r="AG97" t="s">
-        <v>1306</v>
       </c>
       <c r="AH97" s="3">
         <v>2</v>
       </c>
       <c r="AI97" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="AJ97">
         <v>4530.83984375</v>
@@ -20425,63 +20419,63 @@
         <v>65</v>
       </c>
       <c r="AM97" t="s">
+        <v>1307</v>
+      </c>
+      <c r="AN97" t="s">
         <v>1308</v>
       </c>
-      <c r="AN97" t="s">
+      <c r="AO97" t="s">
         <v>1309</v>
       </c>
-      <c r="AO97" t="s">
+      <c r="AP97" t="s">
         <v>1310</v>
       </c>
-      <c r="AP97" t="s">
+      <c r="AQ97" t="s">
         <v>1311</v>
       </c>
-      <c r="AQ97" t="s">
+      <c r="AR97" t="s">
         <v>1312</v>
       </c>
-      <c r="AR97" t="s">
+      <c r="AS97" t="s">
         <v>1313</v>
       </c>
-      <c r="AS97" t="s">
+      <c r="AT97" t="s">
         <v>1314</v>
       </c>
-      <c r="AT97" t="s">
+      <c r="AU97" t="s">
+        <v>453</v>
+      </c>
+      <c r="AV97" s="8" t="s">
         <v>1315</v>
       </c>
-      <c r="AU97" t="s">
-        <v>454</v>
-      </c>
-      <c r="AV97" s="8" t="s">
+      <c r="AW97" t="s">
         <v>1316</v>
       </c>
-      <c r="AW97" t="s">
+      <c r="AX97" t="s">
         <v>1317</v>
       </c>
-      <c r="AX97" t="s">
+      <c r="AY97" t="s">
         <v>1318</v>
-      </c>
-      <c r="AY97" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="98" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C98" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D98" t="s">
         <v>54</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F98" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -20559,16 +20553,16 @@
         <v>2.5999999049999998</v>
       </c>
       <c r="AF98" t="s">
+        <v>1321</v>
+      </c>
+      <c r="AG98" t="s">
         <v>1322</v>
-      </c>
-      <c r="AG98" t="s">
-        <v>1323</v>
       </c>
       <c r="AH98" s="3">
         <v>2</v>
       </c>
       <c r="AI98" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="AJ98">
         <v>5774.2783203130002</v>
@@ -20580,48 +20574,48 @@
         <v>65</v>
       </c>
       <c r="AM98" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AN98" t="s">
         <v>1325</v>
       </c>
-      <c r="AN98" t="s">
+      <c r="AO98" t="s">
         <v>1326</v>
       </c>
-      <c r="AO98" t="s">
+      <c r="AP98" t="s">
         <v>1327</v>
       </c>
-      <c r="AP98" t="s">
+      <c r="AQ98" t="s">
         <v>1328</v>
       </c>
-      <c r="AQ98" t="s">
+      <c r="AR98" t="s">
         <v>1329</v>
       </c>
-      <c r="AR98" t="s">
+      <c r="AS98" t="s">
         <v>1330</v>
       </c>
-      <c r="AS98" t="s">
+      <c r="AT98" t="s">
         <v>1331</v>
-      </c>
-      <c r="AT98" t="s">
-        <v>1332</v>
       </c>
       <c r="AU98" t="s">
         <v>268</v>
       </c>
       <c r="AV98" s="8" t="s">
+        <v>1332</v>
+      </c>
+      <c r="AW98" t="s">
         <v>1333</v>
       </c>
-      <c r="AW98" t="s">
+      <c r="AX98" t="s">
         <v>1334</v>
       </c>
-      <c r="AX98" t="s">
+      <c r="AY98" t="s">
         <v>1335</v>
-      </c>
-      <c r="AY98" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="99" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>52</v>
@@ -20630,10 +20624,10 @@
         <v>54</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="F99" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -20705,16 +20699,16 @@
         <v>1</v>
       </c>
       <c r="AF99" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="AG99" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="AH99" s="3">
         <v>2</v>
       </c>
       <c r="AI99" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="AJ99" s="7">
         <v>0</v>
@@ -20726,48 +20720,48 @@
         <v>65</v>
       </c>
       <c r="AM99" t="s">
+        <v>1340</v>
+      </c>
+      <c r="AN99" t="s">
         <v>1341</v>
       </c>
-      <c r="AN99" t="s">
+      <c r="AO99" t="s">
         <v>1342</v>
-      </c>
-      <c r="AO99" t="s">
-        <v>1343</v>
       </c>
       <c r="AP99" t="s">
         <v>197</v>
       </c>
       <c r="AQ99" t="s">
+        <v>1343</v>
+      </c>
+      <c r="AR99" t="s">
         <v>1344</v>
       </c>
-      <c r="AR99" t="s">
+      <c r="AS99" t="s">
         <v>1345</v>
       </c>
-      <c r="AS99" t="s">
+      <c r="AT99" t="s">
         <v>1346</v>
-      </c>
-      <c r="AT99" t="s">
-        <v>1347</v>
       </c>
       <c r="AU99" t="s">
         <v>218</v>
       </c>
       <c r="AV99" s="8" t="s">
+        <v>1347</v>
+      </c>
+      <c r="AW99" t="s">
         <v>1348</v>
       </c>
-      <c r="AW99" t="s">
+      <c r="AX99" t="s">
         <v>1349</v>
       </c>
-      <c r="AX99" t="s">
+      <c r="AY99" t="s">
         <v>1350</v>
-      </c>
-      <c r="AY99" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="100" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>52</v>
@@ -20779,7 +20773,7 @@
         <v>54</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -20857,16 +20851,16 @@
         <v>1.480000019</v>
       </c>
       <c r="AF100" t="s">
+        <v>1353</v>
+      </c>
+      <c r="AG100" t="s">
+        <v>488</v>
+      </c>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100" t="s">
         <v>1354</v>
-      </c>
-      <c r="AG100" t="s">
-        <v>489</v>
-      </c>
-      <c r="AH100">
-        <v>0</v>
-      </c>
-      <c r="AI100" t="s">
-        <v>1355</v>
       </c>
       <c r="AJ100">
         <v>1378.399957031</v>
@@ -20878,48 +20872,48 @@
         <v>65</v>
       </c>
       <c r="AM100" t="s">
+        <v>1355</v>
+      </c>
+      <c r="AN100" t="s">
         <v>1356</v>
       </c>
-      <c r="AN100" t="s">
+      <c r="AO100" t="s">
         <v>1357</v>
       </c>
-      <c r="AO100" t="s">
+      <c r="AP100" t="s">
         <v>1358</v>
       </c>
-      <c r="AP100" t="s">
+      <c r="AQ100" t="s">
         <v>1359</v>
       </c>
-      <c r="AQ100" t="s">
+      <c r="AR100" t="s">
         <v>1360</v>
       </c>
-      <c r="AR100" t="s">
+      <c r="AS100" t="s">
         <v>1361</v>
       </c>
-      <c r="AS100" t="s">
+      <c r="AT100" t="s">
         <v>1362</v>
       </c>
-      <c r="AT100" t="s">
+      <c r="AU100" t="s">
         <v>1363</v>
       </c>
-      <c r="AU100" t="s">
+      <c r="AV100" t="s">
         <v>1364</v>
       </c>
-      <c r="AV100" t="s">
+      <c r="AW100" t="s">
+        <v>1359</v>
+      </c>
+      <c r="AX100" t="s">
         <v>1365</v>
       </c>
-      <c r="AW100" t="s">
-        <v>1360</v>
-      </c>
-      <c r="AX100" t="s">
+      <c r="AY100" t="s">
         <v>1366</v>
-      </c>
-      <c r="AY100" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="101" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>52</v>
@@ -20931,7 +20925,7 @@
         <v>54</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -21009,16 +21003,16 @@
         <v>1.470999956</v>
       </c>
       <c r="AF101" t="s">
+        <v>1369</v>
+      </c>
+      <c r="AG101" t="s">
         <v>1370</v>
       </c>
-      <c r="AG101" t="s">
+      <c r="AH101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI101" t="s">
         <v>1371</v>
-      </c>
-      <c r="AH101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI101" t="s">
-        <v>1372</v>
       </c>
       <c r="AJ101">
         <v>1404.0000316410001</v>
@@ -21030,28 +21024,28 @@
         <v>65</v>
       </c>
       <c r="AM101" t="s">
+        <v>1372</v>
+      </c>
+      <c r="AN101" t="s">
         <v>1373</v>
       </c>
-      <c r="AN101" t="s">
+      <c r="AO101" t="s">
         <v>1374</v>
       </c>
-      <c r="AO101" t="s">
+      <c r="AP101" t="s">
         <v>1375</v>
       </c>
-      <c r="AP101" t="s">
+      <c r="AQ101" t="s">
         <v>1376</v>
       </c>
-      <c r="AQ101" t="s">
+      <c r="AR101" t="s">
         <v>1377</v>
       </c>
-      <c r="AR101" t="s">
+      <c r="AS101" t="s">
         <v>1378</v>
       </c>
-      <c r="AS101" t="s">
+      <c r="AT101" t="s">
         <v>1379</v>
-      </c>
-      <c r="AT101" t="s">
-        <v>1380</v>
       </c>
       <c r="AU101" t="s">
         <v>183</v>
@@ -21060,13 +21054,13 @@
         <v>202</v>
       </c>
       <c r="AW101" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="AX101" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="AY101" s="11" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/oilfield_100w_raw_data.xlsx
+++ b/inst/extdata/oilfield_100w_raw_data.xlsx
@@ -2073,9 +2073,6 @@
     <t>\\network\piscis\well_models\PISC-Q019-LS.Out</t>
   </si>
   <si>
-    <t>DLNG-Q032-SS</t>
-  </si>
-  <si>
     <t>Rod</t>
   </si>
   <si>
@@ -4891,6 +4888,9 @@
   </si>
   <si>
     <t>\\network\piscis\well_models\PISC-M026S01-TS.Out</t>
+  </si>
+  <si>
+    <t>PSCO-Q032-SS</t>
   </si>
 </sst>
 </file>
@@ -5385,9 +5385,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F5E7DE-FFDA-440E-8FE6-8CF5EA77E166}">
   <dimension ref="A1:AY101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E20" sqref="E20"/>
+      <selection pane="topRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10236,19 +10236,19 @@
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>441</v>
+        <v>1380</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D32" t="s">
         <v>54</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F32" t="s">
         <v>319</v>
@@ -10329,7 +10329,7 @@
         <v>2</v>
       </c>
       <c r="AF32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AG32" t="s">
         <v>298</v>
@@ -10350,60 +10350,60 @@
         <v>65</v>
       </c>
       <c r="AM32" t="s">
+        <v>444</v>
+      </c>
+      <c r="AN32" t="s">
         <v>445</v>
       </c>
-      <c r="AN32" t="s">
+      <c r="AO32" t="s">
         <v>446</v>
       </c>
-      <c r="AO32" t="s">
+      <c r="AP32" t="s">
         <v>447</v>
       </c>
-      <c r="AP32" t="s">
+      <c r="AQ32" t="s">
         <v>448</v>
       </c>
-      <c r="AQ32" t="s">
+      <c r="AR32" t="s">
         <v>449</v>
       </c>
-      <c r="AR32" t="s">
+      <c r="AS32" t="s">
         <v>450</v>
       </c>
-      <c r="AS32" t="s">
+      <c r="AT32" t="s">
         <v>451</v>
       </c>
-      <c r="AT32" t="s">
+      <c r="AU32" t="s">
         <v>452</v>
       </c>
-      <c r="AU32" t="s">
+      <c r="AV32" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="AV32" s="8" t="s">
+      <c r="AW32" t="s">
+        <v>448</v>
+      </c>
+      <c r="AX32" t="s">
         <v>454</v>
       </c>
-      <c r="AW32" t="s">
-        <v>449</v>
-      </c>
-      <c r="AX32" t="s">
+      <c r="AY32" t="s">
         <v>455</v>
-      </c>
-      <c r="AY32" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D33" t="s">
         <v>54</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F33" t="s">
         <v>319</v>
@@ -10484,7 +10484,7 @@
         <v>0</v>
       </c>
       <c r="AF33" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG33" t="s">
         <v>418</v>
@@ -10541,24 +10541,24 @@
         <v>1560.7109375</v>
       </c>
       <c r="AY33" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D34" t="s">
         <v>54</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F34" t="s">
         <v>319</v>
@@ -10639,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="AF34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG34" t="s">
         <v>418</v>
@@ -10696,24 +10696,24 @@
         <v>1560.7109375</v>
       </c>
       <c r="AY34" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D35" t="s">
         <v>54</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F35" t="s">
         <v>319</v>
@@ -10794,10 +10794,10 @@
         <v>0</v>
       </c>
       <c r="AF35" t="s">
+        <v>466</v>
+      </c>
+      <c r="AG35" t="s">
         <v>467</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>468</v>
       </c>
       <c r="AH35" s="3">
         <v>0</v>
@@ -10815,28 +10815,28 @@
         <v>65</v>
       </c>
       <c r="AM35" t="s">
+        <v>468</v>
+      </c>
+      <c r="AN35" t="s">
         <v>469</v>
       </c>
-      <c r="AN35" t="s">
+      <c r="AO35" t="s">
         <v>470</v>
       </c>
-      <c r="AO35" t="s">
+      <c r="AP35" t="s">
         <v>471</v>
       </c>
-      <c r="AP35" t="s">
+      <c r="AQ35" t="s">
         <v>472</v>
       </c>
-      <c r="AQ35" t="s">
+      <c r="AR35" t="s">
         <v>473</v>
       </c>
-      <c r="AR35" t="s">
+      <c r="AS35" t="s">
         <v>474</v>
       </c>
-      <c r="AS35" t="s">
+      <c r="AT35" t="s">
         <v>475</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>476</v>
       </c>
       <c r="AU35" t="s">
         <v>218</v>
@@ -10845,30 +10845,30 @@
         <v>202</v>
       </c>
       <c r="AW35" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AX35" t="s">
+        <v>476</v>
+      </c>
+      <c r="AY35" t="s">
         <v>477</v>
-      </c>
-      <c r="AY35" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D36" t="s">
         <v>54</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F36" t="s">
         <v>319</v>
@@ -10949,10 +10949,10 @@
         <v>5.8612799640000004</v>
       </c>
       <c r="AF36" t="s">
+        <v>480</v>
+      </c>
+      <c r="AG36" t="s">
         <v>481</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>482</v>
       </c>
       <c r="AH36" s="3">
         <v>0</v>
@@ -11006,24 +11006,24 @@
         <v>1400</v>
       </c>
       <c r="AY36" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="37" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D37" t="s">
         <v>54</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F37" t="s">
         <v>319</v>
@@ -11104,16 +11104,16 @@
         <v>5.1217699049999998</v>
       </c>
       <c r="AF37" t="s">
+        <v>486</v>
+      </c>
+      <c r="AG37" t="s">
         <v>487</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>488</v>
       </c>
       <c r="AH37" s="3">
         <v>2</v>
       </c>
       <c r="AI37" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AJ37">
         <v>1258.220055469</v>
@@ -11125,60 +11125,60 @@
         <v>65</v>
       </c>
       <c r="AM37" t="s">
+        <v>489</v>
+      </c>
+      <c r="AN37" t="s">
         <v>490</v>
       </c>
-      <c r="AN37" t="s">
+      <c r="AO37" t="s">
         <v>491</v>
       </c>
-      <c r="AO37" t="s">
+      <c r="AP37" t="s">
         <v>492</v>
       </c>
-      <c r="AP37" t="s">
+      <c r="AQ37" t="s">
         <v>493</v>
       </c>
-      <c r="AQ37" t="s">
+      <c r="AR37" t="s">
         <v>494</v>
       </c>
-      <c r="AR37" t="s">
+      <c r="AS37" t="s">
         <v>495</v>
       </c>
-      <c r="AS37" t="s">
+      <c r="AT37" t="s">
         <v>496</v>
       </c>
-      <c r="AT37" t="s">
+      <c r="AU37" t="s">
         <v>497</v>
       </c>
-      <c r="AU37" t="s">
+      <c r="AV37" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="AV37" s="8" t="s">
+      <c r="AW37" t="s">
+        <v>493</v>
+      </c>
+      <c r="AX37" t="s">
         <v>499</v>
       </c>
-      <c r="AW37" t="s">
-        <v>494</v>
-      </c>
-      <c r="AX37" t="s">
+      <c r="AY37" t="s">
         <v>500</v>
-      </c>
-      <c r="AY37" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D38" t="s">
         <v>54</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F38" t="s">
         <v>319</v>
@@ -11259,16 +11259,16 @@
         <v>2.1609709260000001</v>
       </c>
       <c r="AF38" t="s">
+        <v>504</v>
+      </c>
+      <c r="AG38" t="s">
         <v>505</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>506</v>
       </c>
       <c r="AH38" s="3">
         <v>2</v>
       </c>
       <c r="AI38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AJ38">
         <v>1609.1999343750001</v>
@@ -11316,24 +11316,24 @@
         <v>1080</v>
       </c>
       <c r="AY38" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D39" t="s">
         <v>54</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F39" t="s">
         <v>319</v>
@@ -11414,7 +11414,7 @@
         <v>6.3000001909999996</v>
       </c>
       <c r="AF39" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AG39" t="s">
         <v>369</v>
@@ -11423,7 +11423,7 @@
         <v>2</v>
       </c>
       <c r="AI39" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AJ39">
         <v>1174.700018555</v>
@@ -11435,60 +11435,60 @@
         <v>65</v>
       </c>
       <c r="AM39" t="s">
+        <v>513</v>
+      </c>
+      <c r="AN39" t="s">
         <v>514</v>
       </c>
-      <c r="AN39" t="s">
+      <c r="AO39" t="s">
         <v>515</v>
       </c>
-      <c r="AO39" t="s">
+      <c r="AP39" t="s">
         <v>516</v>
       </c>
-      <c r="AP39" t="s">
+      <c r="AQ39" t="s">
         <v>517</v>
       </c>
-      <c r="AQ39" t="s">
+      <c r="AR39" t="s">
         <v>518</v>
       </c>
-      <c r="AR39" t="s">
+      <c r="AS39" t="s">
         <v>519</v>
       </c>
-      <c r="AS39" t="s">
+      <c r="AT39" t="s">
         <v>520</v>
-      </c>
-      <c r="AT39" t="s">
-        <v>521</v>
       </c>
       <c r="AU39" t="s">
         <v>252</v>
       </c>
       <c r="AV39" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="AW39" t="s">
         <v>522</v>
       </c>
-      <c r="AW39" t="s">
+      <c r="AX39" t="s">
         <v>523</v>
       </c>
-      <c r="AX39" t="s">
+      <c r="AY39" t="s">
         <v>524</v>
-      </c>
-      <c r="AY39" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D40" t="s">
         <v>54</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F40" t="s">
         <v>319</v>
@@ -11569,16 +11569,16 @@
         <v>6.9193749430000002</v>
       </c>
       <c r="AF40" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AG40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AH40" s="3">
         <v>2</v>
       </c>
       <c r="AI40" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AJ40">
         <v>1840.2999492189999</v>
@@ -11626,24 +11626,24 @@
         <v>2727</v>
       </c>
       <c r="AY40" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D41" t="s">
         <v>54</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F41" t="s">
         <v>319</v>
@@ -11724,16 +11724,16 @@
         <v>5.5</v>
       </c>
       <c r="AF41" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AG41" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AH41" s="3">
         <v>2</v>
       </c>
       <c r="AI41" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ41">
         <v>1840.2999492189999</v>
@@ -11745,7 +11745,7 @@
         <v>65</v>
       </c>
       <c r="AM41" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AN41">
         <v>155</v>
@@ -11781,24 +11781,24 @@
         <v>1225</v>
       </c>
       <c r="AY41" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D42" t="s">
         <v>54</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F42" t="s">
         <v>319</v>
@@ -11879,16 +11879,16 @@
         <v>5.0204701419999997</v>
       </c>
       <c r="AF42" t="s">
+        <v>538</v>
+      </c>
+      <c r="AG42" t="s">
         <v>539</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>540</v>
       </c>
       <c r="AH42" s="3">
         <v>2</v>
       </c>
       <c r="AI42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AJ42">
         <v>1174.700018555</v>
@@ -11936,24 +11936,24 @@
         <v>1250</v>
       </c>
       <c r="AY42" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D43" t="s">
         <v>54</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F43" t="s">
         <v>319</v>
@@ -12034,7 +12034,7 @@
         <v>3.3499999049999998</v>
       </c>
       <c r="AF43" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AG43" t="s">
         <v>92</v>
@@ -12043,7 +12043,7 @@
         <v>2</v>
       </c>
       <c r="AI43" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AJ43">
         <v>1840.2999492189999</v>
@@ -12091,24 +12091,24 @@
         <v>1161</v>
       </c>
       <c r="AY43" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D44" t="s">
         <v>54</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F44" t="s">
         <v>319</v>
@@ -12189,16 +12189,16 @@
         <v>1.4500000479999999</v>
       </c>
       <c r="AF44" t="s">
+        <v>549</v>
+      </c>
+      <c r="AG44" t="s">
         <v>550</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>551</v>
       </c>
       <c r="AH44" s="3">
         <v>2</v>
       </c>
       <c r="AI44" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AJ44">
         <v>1609.1999343750001</v>
@@ -12246,24 +12246,24 @@
         <v>1036</v>
       </c>
       <c r="AY44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D45" t="s">
         <v>54</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F45" t="s">
         <v>319</v>
@@ -12344,7 +12344,7 @@
         <v>0.37000000500000002</v>
       </c>
       <c r="AF45" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AG45" t="s">
         <v>92</v>
@@ -12353,7 +12353,7 @@
         <v>2</v>
       </c>
       <c r="AI45" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AJ45">
         <v>1840.2999492189999</v>
@@ -12365,7 +12365,7 @@
         <v>65</v>
       </c>
       <c r="AM45" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AN45">
         <v>103</v>
@@ -12401,12 +12401,12 @@
         <v>1611</v>
       </c>
       <c r="AY45" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>52</v>
@@ -12418,10 +12418,10 @@
         <v>54</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F46" t="s">
         <v>561</v>
-      </c>
-      <c r="F46" t="s">
-        <v>562</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -12499,7 +12499,7 @@
         <v>3</v>
       </c>
       <c r="AF46" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AG46" t="s">
         <v>58</v>
@@ -12508,7 +12508,7 @@
         <v>0</v>
       </c>
       <c r="AI46" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AJ46">
         <v>1241.0999841800001</v>
@@ -12520,48 +12520,48 @@
         <v>65</v>
       </c>
       <c r="AM46" t="s">
+        <v>564</v>
+      </c>
+      <c r="AN46" t="s">
         <v>565</v>
       </c>
-      <c r="AN46" t="s">
+      <c r="AO46" t="s">
         <v>566</v>
       </c>
-      <c r="AO46" t="s">
+      <c r="AP46" t="s">
         <v>567</v>
       </c>
-      <c r="AP46" t="s">
+      <c r="AQ46" t="s">
         <v>568</v>
       </c>
-      <c r="AQ46" t="s">
+      <c r="AR46" t="s">
         <v>569</v>
       </c>
-      <c r="AR46" t="s">
+      <c r="AS46" t="s">
         <v>570</v>
       </c>
-      <c r="AS46" t="s">
+      <c r="AT46" t="s">
         <v>571</v>
       </c>
-      <c r="AT46" t="s">
+      <c r="AU46" t="s">
         <v>572</v>
       </c>
-      <c r="AU46" t="s">
+      <c r="AV46" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="AV46" s="8" t="s">
+      <c r="AW46" t="s">
+        <v>568</v>
+      </c>
+      <c r="AX46" t="s">
         <v>574</v>
       </c>
-      <c r="AW46" t="s">
-        <v>569</v>
-      </c>
-      <c r="AX46" t="s">
+      <c r="AY46" t="s">
         <v>575</v>
-      </c>
-      <c r="AY46" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>52</v>
@@ -12573,10 +12573,10 @@
         <v>54</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F47" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -12654,16 +12654,16 @@
         <v>1.269999981</v>
       </c>
       <c r="AF47" t="s">
+        <v>578</v>
+      </c>
+      <c r="AG47" t="s">
         <v>579</v>
       </c>
-      <c r="AG47" t="s">
+      <c r="AH47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="s">
         <v>580</v>
-      </c>
-      <c r="AH47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI47" t="s">
-        <v>581</v>
       </c>
       <c r="AJ47">
         <v>2030.500060547</v>
@@ -12675,48 +12675,48 @@
         <v>65</v>
       </c>
       <c r="AM47" t="s">
+        <v>581</v>
+      </c>
+      <c r="AN47" t="s">
         <v>582</v>
       </c>
-      <c r="AN47" t="s">
+      <c r="AO47" t="s">
         <v>583</v>
       </c>
-      <c r="AO47" t="s">
+      <c r="AP47" t="s">
         <v>584</v>
       </c>
-      <c r="AP47" t="s">
+      <c r="AQ47" t="s">
         <v>585</v>
       </c>
-      <c r="AQ47" t="s">
+      <c r="AR47" t="s">
         <v>586</v>
       </c>
-      <c r="AR47" t="s">
+      <c r="AS47" t="s">
         <v>587</v>
       </c>
-      <c r="AS47" t="s">
+      <c r="AT47" t="s">
         <v>588</v>
-      </c>
-      <c r="AT47" t="s">
-        <v>589</v>
       </c>
       <c r="AU47" t="s">
         <v>218</v>
       </c>
       <c r="AV47" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="AW47" t="s">
         <v>590</v>
       </c>
-      <c r="AW47" t="s">
+      <c r="AX47" t="s">
         <v>591</v>
       </c>
-      <c r="AX47" t="s">
+      <c r="AY47" s="11" t="s">
         <v>592</v>
-      </c>
-      <c r="AY47" s="11" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>52</v>
@@ -12728,10 +12728,10 @@
         <v>54</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F48" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -12809,16 +12809,16 @@
         <v>1.25</v>
       </c>
       <c r="AF48" t="s">
+        <v>595</v>
+      </c>
+      <c r="AG48" t="s">
         <v>596</v>
       </c>
-      <c r="AG48" t="s">
+      <c r="AH48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="s">
         <v>597</v>
-      </c>
-      <c r="AH48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI48" t="s">
-        <v>598</v>
       </c>
       <c r="AJ48">
         <v>1772.5999699219999</v>
@@ -12830,28 +12830,28 @@
         <v>65</v>
       </c>
       <c r="AM48" t="s">
+        <v>598</v>
+      </c>
+      <c r="AN48" t="s">
         <v>599</v>
       </c>
-      <c r="AN48" t="s">
+      <c r="AO48" t="s">
         <v>600</v>
       </c>
-      <c r="AO48" t="s">
+      <c r="AP48" t="s">
         <v>601</v>
       </c>
-      <c r="AP48" t="s">
+      <c r="AQ48" t="s">
         <v>602</v>
       </c>
-      <c r="AQ48" t="s">
+      <c r="AR48" t="s">
         <v>603</v>
       </c>
-      <c r="AR48" t="s">
+      <c r="AS48" t="s">
         <v>604</v>
       </c>
-      <c r="AS48" t="s">
+      <c r="AT48" t="s">
         <v>605</v>
-      </c>
-      <c r="AT48" t="s">
-        <v>606</v>
       </c>
       <c r="AU48" t="s">
         <v>218</v>
@@ -12860,18 +12860,18 @@
         <v>202</v>
       </c>
       <c r="AW48" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AX48" t="s">
+        <v>606</v>
+      </c>
+      <c r="AY48" t="s">
         <v>607</v>
-      </c>
-      <c r="AY48" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="49" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>52</v>
@@ -12883,10 +12883,10 @@
         <v>54</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F49" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -12964,16 +12964,16 @@
         <v>1.5</v>
       </c>
       <c r="AF49" t="s">
+        <v>610</v>
+      </c>
+      <c r="AG49" t="s">
         <v>611</v>
       </c>
-      <c r="AG49" t="s">
+      <c r="AH49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI49" t="s">
         <v>612</v>
-      </c>
-      <c r="AH49" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI49" t="s">
-        <v>613</v>
       </c>
       <c r="AJ49">
         <v>1635.0000339840001</v>
@@ -12985,48 +12985,48 @@
         <v>65</v>
       </c>
       <c r="AM49" t="s">
+        <v>613</v>
+      </c>
+      <c r="AN49" t="s">
         <v>614</v>
       </c>
-      <c r="AN49" t="s">
+      <c r="AO49" t="s">
         <v>615</v>
       </c>
-      <c r="AO49" t="s">
+      <c r="AP49" t="s">
         <v>616</v>
       </c>
-      <c r="AP49" t="s">
+      <c r="AQ49" t="s">
         <v>617</v>
       </c>
-      <c r="AQ49" t="s">
+      <c r="AR49" t="s">
         <v>618</v>
       </c>
-      <c r="AR49" t="s">
+      <c r="AS49" t="s">
         <v>619</v>
       </c>
-      <c r="AS49" t="s">
+      <c r="AT49" t="s">
         <v>620</v>
       </c>
-      <c r="AT49" t="s">
+      <c r="AU49" t="s">
+        <v>452</v>
+      </c>
+      <c r="AV49" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="AW49" t="s">
+        <v>617</v>
+      </c>
+      <c r="AX49" t="s">
         <v>621</v>
       </c>
-      <c r="AU49" t="s">
-        <v>453</v>
-      </c>
-      <c r="AV49" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="AW49" t="s">
-        <v>618</v>
-      </c>
-      <c r="AX49" t="s">
+      <c r="AY49" t="s">
         <v>622</v>
-      </c>
-      <c r="AY49" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="50" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -13038,10 +13038,10 @@
         <v>54</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F50" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -13119,16 +13119,16 @@
         <v>8.8999996190000008</v>
       </c>
       <c r="AF50" t="s">
+        <v>625</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>596</v>
+      </c>
+      <c r="AH50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="s">
         <v>626</v>
-      </c>
-      <c r="AG50" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH50" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI50" t="s">
-        <v>627</v>
       </c>
       <c r="AJ50">
         <v>2406.1099523439998</v>
@@ -13140,48 +13140,48 @@
         <v>70</v>
       </c>
       <c r="AM50" t="s">
+        <v>627</v>
+      </c>
+      <c r="AN50" t="s">
         <v>628</v>
       </c>
-      <c r="AN50" t="s">
+      <c r="AO50" t="s">
         <v>629</v>
       </c>
-      <c r="AO50" t="s">
+      <c r="AP50" t="s">
         <v>630</v>
       </c>
-      <c r="AP50" t="s">
+      <c r="AQ50" t="s">
         <v>631</v>
       </c>
-      <c r="AQ50" t="s">
+      <c r="AR50" t="s">
         <v>632</v>
       </c>
-      <c r="AR50" t="s">
+      <c r="AS50" t="s">
         <v>633</v>
       </c>
-      <c r="AS50" t="s">
+      <c r="AT50" t="s">
         <v>634</v>
       </c>
-      <c r="AT50" t="s">
+      <c r="AU50" t="s">
         <v>635</v>
       </c>
-      <c r="AU50" t="s">
+      <c r="AV50" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="AV50" s="8" t="s">
+      <c r="AW50" t="s">
         <v>637</v>
       </c>
-      <c r="AW50" t="s">
+      <c r="AX50" t="s">
         <v>638</v>
       </c>
-      <c r="AX50" t="s">
+      <c r="AY50" t="s">
         <v>639</v>
-      </c>
-      <c r="AY50" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="51" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>52</v>
@@ -13193,10 +13193,10 @@
         <v>54</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F51" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -13274,16 +13274,16 @@
         <v>8</v>
       </c>
       <c r="AF51" t="s">
+        <v>642</v>
+      </c>
+      <c r="AG51" t="s">
         <v>643</v>
       </c>
-      <c r="AG51" t="s">
+      <c r="AH51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI51" t="s">
         <v>644</v>
-      </c>
-      <c r="AH51" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI51" t="s">
-        <v>645</v>
       </c>
       <c r="AJ51">
         <v>1605.6999433589999</v>
@@ -13295,48 +13295,48 @@
         <v>65</v>
       </c>
       <c r="AM51" t="s">
+        <v>645</v>
+      </c>
+      <c r="AN51" t="s">
         <v>646</v>
       </c>
-      <c r="AN51" t="s">
+      <c r="AO51" t="s">
         <v>647</v>
       </c>
-      <c r="AO51" t="s">
+      <c r="AP51" t="s">
         <v>648</v>
       </c>
-      <c r="AP51" t="s">
+      <c r="AQ51" t="s">
         <v>649</v>
       </c>
-      <c r="AQ51" t="s">
+      <c r="AR51" t="s">
         <v>650</v>
       </c>
-      <c r="AR51" t="s">
+      <c r="AS51" t="s">
         <v>651</v>
       </c>
-      <c r="AS51" t="s">
+      <c r="AT51" t="s">
         <v>652</v>
       </c>
-      <c r="AT51" t="s">
+      <c r="AU51" t="s">
+        <v>635</v>
+      </c>
+      <c r="AV51" s="8" t="s">
         <v>653</v>
       </c>
-      <c r="AU51" t="s">
-        <v>636</v>
-      </c>
-      <c r="AV51" s="8" t="s">
+      <c r="AW51" t="s">
         <v>654</v>
       </c>
-      <c r="AW51" t="s">
+      <c r="AX51" t="s">
         <v>655</v>
       </c>
-      <c r="AX51" t="s">
+      <c r="AY51" t="s">
         <v>656</v>
-      </c>
-      <c r="AY51" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="52" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>52</v>
@@ -13348,10 +13348,10 @@
         <v>54</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F52" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -13429,10 +13429,10 @@
         <v>1.8300000430000001</v>
       </c>
       <c r="AF52" t="s">
+        <v>659</v>
+      </c>
+      <c r="AG52" t="s">
         <v>660</v>
-      </c>
-      <c r="AG52" t="s">
-        <v>661</v>
       </c>
       <c r="AH52" s="3">
         <v>0</v>
@@ -13450,48 +13450,48 @@
         <v>65</v>
       </c>
       <c r="AM52" t="s">
+        <v>661</v>
+      </c>
+      <c r="AN52" t="s">
         <v>662</v>
       </c>
-      <c r="AN52" t="s">
+      <c r="AO52" t="s">
         <v>663</v>
       </c>
-      <c r="AO52" t="s">
+      <c r="AP52" t="s">
         <v>664</v>
       </c>
-      <c r="AP52" t="s">
+      <c r="AQ52" t="s">
         <v>665</v>
       </c>
-      <c r="AQ52" t="s">
+      <c r="AR52" t="s">
         <v>666</v>
       </c>
-      <c r="AR52" t="s">
+      <c r="AS52" t="s">
         <v>667</v>
       </c>
-      <c r="AS52" t="s">
+      <c r="AT52" t="s">
         <v>668</v>
-      </c>
-      <c r="AT52" t="s">
-        <v>669</v>
       </c>
       <c r="AU52" t="s">
         <v>347</v>
       </c>
       <c r="AV52" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="AW52" t="s">
         <v>670</v>
       </c>
-      <c r="AW52" t="s">
+      <c r="AX52" t="s">
         <v>671</v>
       </c>
-      <c r="AX52" t="s">
+      <c r="AY52" t="s">
         <v>672</v>
-      </c>
-      <c r="AY52" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="53" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>52</v>
@@ -13503,10 +13503,10 @@
         <v>54</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F53" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -13584,16 +13584,16 @@
         <v>10</v>
       </c>
       <c r="AF53" t="s">
+        <v>675</v>
+      </c>
+      <c r="AG53" t="s">
         <v>676</v>
       </c>
-      <c r="AG53" t="s">
+      <c r="AH53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI53" t="s">
         <v>677</v>
-      </c>
-      <c r="AH53" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI53" t="s">
-        <v>678</v>
       </c>
       <c r="AJ53">
         <v>1315.0999324219999</v>
@@ -13605,48 +13605,48 @@
         <v>65</v>
       </c>
       <c r="AM53" t="s">
+        <v>678</v>
+      </c>
+      <c r="AN53" t="s">
         <v>679</v>
       </c>
-      <c r="AN53" t="s">
+      <c r="AO53" t="s">
         <v>680</v>
       </c>
-      <c r="AO53" t="s">
+      <c r="AP53" t="s">
         <v>681</v>
       </c>
-      <c r="AP53" t="s">
+      <c r="AQ53" t="s">
         <v>682</v>
       </c>
-      <c r="AQ53" t="s">
+      <c r="AR53" t="s">
         <v>683</v>
       </c>
-      <c r="AR53" t="s">
+      <c r="AS53" t="s">
         <v>684</v>
       </c>
-      <c r="AS53" t="s">
+      <c r="AT53" t="s">
         <v>685</v>
       </c>
-      <c r="AT53" t="s">
+      <c r="AU53" t="s">
         <v>686</v>
       </c>
-      <c r="AU53" t="s">
+      <c r="AV53" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="AV53" s="8" t="s">
+      <c r="AW53" t="s">
         <v>688</v>
       </c>
-      <c r="AW53" t="s">
+      <c r="AX53" t="s">
         <v>689</v>
       </c>
-      <c r="AX53" t="s">
+      <c r="AY53" t="s">
         <v>690</v>
-      </c>
-      <c r="AY53" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="54" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>52</v>
@@ -13658,10 +13658,10 @@
         <v>54</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F54" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -13739,16 +13739,16 @@
         <v>2.4641399380000002</v>
       </c>
       <c r="AF54" t="s">
+        <v>693</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>596</v>
+      </c>
+      <c r="AH54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI54" t="s">
         <v>694</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI54" t="s">
-        <v>695</v>
       </c>
       <c r="AJ54">
         <v>1438.049971875</v>
@@ -13760,28 +13760,28 @@
         <v>65</v>
       </c>
       <c r="AM54" t="s">
+        <v>695</v>
+      </c>
+      <c r="AN54" t="s">
         <v>696</v>
       </c>
-      <c r="AN54" t="s">
+      <c r="AO54" t="s">
         <v>697</v>
       </c>
-      <c r="AO54" t="s">
+      <c r="AP54" t="s">
         <v>698</v>
       </c>
-      <c r="AP54" t="s">
+      <c r="AQ54" t="s">
         <v>699</v>
       </c>
-      <c r="AQ54" t="s">
+      <c r="AR54" t="s">
         <v>700</v>
       </c>
-      <c r="AR54" t="s">
+      <c r="AS54" t="s">
         <v>701</v>
       </c>
-      <c r="AS54" t="s">
+      <c r="AT54" t="s">
         <v>702</v>
-      </c>
-      <c r="AT54" t="s">
-        <v>703</v>
       </c>
       <c r="AU54" t="s">
         <v>166</v>
@@ -13790,18 +13790,18 @@
         <v>167</v>
       </c>
       <c r="AW54" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AX54" t="s">
+        <v>703</v>
+      </c>
+      <c r="AY54" t="s">
         <v>704</v>
-      </c>
-      <c r="AY54" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="55" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>52</v>
@@ -13813,10 +13813,10 @@
         <v>54</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F55" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -13894,16 +13894,16 @@
         <v>2.4641399380000002</v>
       </c>
       <c r="AF55" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AG55" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AH55" s="3">
         <v>0</v>
       </c>
       <c r="AI55" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AJ55">
         <v>1438.049971875</v>
@@ -13915,28 +13915,28 @@
         <v>65</v>
       </c>
       <c r="AM55" t="s">
+        <v>708</v>
+      </c>
+      <c r="AN55" t="s">
         <v>709</v>
       </c>
-      <c r="AN55" t="s">
+      <c r="AO55" t="s">
         <v>710</v>
       </c>
-      <c r="AO55" t="s">
+      <c r="AP55" t="s">
+        <v>698</v>
+      </c>
+      <c r="AQ55" t="s">
         <v>711</v>
       </c>
-      <c r="AP55" t="s">
-        <v>699</v>
-      </c>
-      <c r="AQ55" t="s">
+      <c r="AR55" t="s">
         <v>712</v>
       </c>
-      <c r="AR55" t="s">
+      <c r="AS55" t="s">
         <v>713</v>
       </c>
-      <c r="AS55" t="s">
+      <c r="AT55" t="s">
         <v>714</v>
-      </c>
-      <c r="AT55" t="s">
-        <v>715</v>
       </c>
       <c r="AU55" t="s">
         <v>166</v>
@@ -13945,18 +13945,18 @@
         <v>167</v>
       </c>
       <c r="AW55" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AX55" t="s">
+        <v>715</v>
+      </c>
+      <c r="AY55" t="s">
         <v>716</v>
-      </c>
-      <c r="AY55" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="56" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>52</v>
@@ -13968,10 +13968,10 @@
         <v>54</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F56" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -14049,16 +14049,16 @@
         <v>1.269999981</v>
       </c>
       <c r="AF56" t="s">
+        <v>578</v>
+      </c>
+      <c r="AG56" t="s">
         <v>579</v>
       </c>
-      <c r="AG56" t="s">
-        <v>580</v>
-      </c>
       <c r="AH56" s="3">
         <v>0</v>
       </c>
       <c r="AI56" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AJ56">
         <v>2020.9000511720001</v>
@@ -14106,12 +14106,12 @@
         <v>1247</v>
       </c>
       <c r="AY56" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="57" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>52</v>
@@ -14123,10 +14123,10 @@
         <v>54</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F57" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -14204,16 +14204,16 @@
         <v>0</v>
       </c>
       <c r="AF57" t="s">
+        <v>721</v>
+      </c>
+      <c r="AG57" t="s">
         <v>722</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>723</v>
       </c>
       <c r="AH57" s="3">
         <v>2</v>
       </c>
       <c r="AI57" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AJ57" s="7">
         <v>0</v>
@@ -14261,27 +14261,27 @@
         <v>1058.259964844</v>
       </c>
       <c r="AY57" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="58" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D58" t="s">
         <v>54</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F58" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -14359,7 +14359,7 @@
         <v>1.4099999670000001</v>
       </c>
       <c r="AF58" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AG58" t="s">
         <v>369</v>
@@ -14368,7 +14368,7 @@
         <v>2</v>
       </c>
       <c r="AI58" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AJ58">
         <v>1863.999935156</v>
@@ -14380,63 +14380,63 @@
         <v>65</v>
       </c>
       <c r="AM58" t="s">
+        <v>729</v>
+      </c>
+      <c r="AN58" t="s">
         <v>730</v>
       </c>
-      <c r="AN58" t="s">
+      <c r="AO58" t="s">
         <v>731</v>
       </c>
-      <c r="AO58" t="s">
+      <c r="AP58" t="s">
         <v>732</v>
       </c>
-      <c r="AP58" t="s">
+      <c r="AQ58" t="s">
         <v>733</v>
       </c>
-      <c r="AQ58" t="s">
+      <c r="AR58" t="s">
         <v>734</v>
       </c>
-      <c r="AR58" t="s">
+      <c r="AS58" t="s">
         <v>735</v>
       </c>
-      <c r="AS58" t="s">
+      <c r="AT58" t="s">
         <v>736</v>
       </c>
-      <c r="AT58" t="s">
+      <c r="AU58" t="s">
         <v>737</v>
       </c>
-      <c r="AU58" t="s">
+      <c r="AV58" s="8" t="s">
         <v>738</v>
       </c>
-      <c r="AV58" s="8" t="s">
+      <c r="AW58" t="s">
         <v>739</v>
       </c>
-      <c r="AW58" t="s">
+      <c r="AX58" t="s">
         <v>740</v>
       </c>
-      <c r="AX58" t="s">
+      <c r="AY58" t="s">
         <v>741</v>
-      </c>
-      <c r="AY58" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="59" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D59" t="s">
         <v>54</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F59" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -14514,16 +14514,16 @@
         <v>5</v>
       </c>
       <c r="AF59" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG59" t="s">
         <v>745</v>
       </c>
-      <c r="AG59" t="s">
+      <c r="AH59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI59" t="s">
         <v>746</v>
-      </c>
-      <c r="AH59" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI59" t="s">
-        <v>747</v>
       </c>
       <c r="AJ59">
         <v>1197.800003906</v>
@@ -14535,63 +14535,63 @@
         <v>65</v>
       </c>
       <c r="AM59" t="s">
+        <v>747</v>
+      </c>
+      <c r="AN59" t="s">
         <v>748</v>
       </c>
-      <c r="AN59" t="s">
+      <c r="AO59" t="s">
         <v>749</v>
       </c>
-      <c r="AO59" t="s">
+      <c r="AP59" t="s">
         <v>750</v>
       </c>
-      <c r="AP59" t="s">
+      <c r="AQ59" t="s">
         <v>751</v>
       </c>
-      <c r="AQ59" t="s">
+      <c r="AR59" t="s">
         <v>752</v>
       </c>
-      <c r="AR59" t="s">
+      <c r="AS59" t="s">
         <v>753</v>
       </c>
-      <c r="AS59" t="s">
+      <c r="AT59" t="s">
         <v>754</v>
-      </c>
-      <c r="AT59" t="s">
-        <v>755</v>
       </c>
       <c r="AU59" t="s">
         <v>218</v>
       </c>
       <c r="AV59" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="AW59" t="s">
         <v>756</v>
       </c>
-      <c r="AW59" t="s">
+      <c r="AX59" t="s">
         <v>757</v>
       </c>
-      <c r="AX59" t="s">
+      <c r="AY59" t="s">
         <v>758</v>
-      </c>
-      <c r="AY59" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="60" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C60" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D60" t="s">
         <v>54</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F60" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -14669,16 +14669,16 @@
         <v>7.4000000950000002</v>
       </c>
       <c r="AF60" t="s">
+        <v>761</v>
+      </c>
+      <c r="AG60" t="s">
         <v>762</v>
-      </c>
-      <c r="AG60" t="s">
-        <v>763</v>
       </c>
       <c r="AH60" s="3">
         <v>2</v>
       </c>
       <c r="AI60" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AJ60">
         <v>418.00001132800003</v>
@@ -14690,63 +14690,63 @@
         <v>65</v>
       </c>
       <c r="AM60" t="s">
+        <v>764</v>
+      </c>
+      <c r="AN60" t="s">
         <v>765</v>
       </c>
-      <c r="AN60" t="s">
+      <c r="AO60" t="s">
         <v>766</v>
       </c>
-      <c r="AO60" t="s">
+      <c r="AP60" t="s">
         <v>767</v>
       </c>
-      <c r="AP60" t="s">
+      <c r="AQ60" t="s">
         <v>768</v>
       </c>
-      <c r="AQ60" t="s">
+      <c r="AR60" t="s">
         <v>769</v>
       </c>
-      <c r="AR60" t="s">
+      <c r="AS60" t="s">
         <v>770</v>
       </c>
-      <c r="AS60" t="s">
+      <c r="AT60" t="s">
         <v>771</v>
-      </c>
-      <c r="AT60" t="s">
-        <v>772</v>
       </c>
       <c r="AU60" t="s">
         <v>218</v>
       </c>
       <c r="AV60" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="AW60" t="s">
         <v>773</v>
       </c>
-      <c r="AW60" t="s">
+      <c r="AX60" t="s">
         <v>774</v>
       </c>
-      <c r="AX60" t="s">
+      <c r="AY60" t="s">
         <v>775</v>
-      </c>
-      <c r="AY60" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="61" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D61" t="s">
         <v>54</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F61" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -14824,16 +14824,16 @@
         <v>0.81437999000000005</v>
       </c>
       <c r="AF61" t="s">
+        <v>778</v>
+      </c>
+      <c r="AG61" t="s">
         <v>779</v>
       </c>
-      <c r="AG61" t="s">
+      <c r="AH61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI61" t="s">
         <v>780</v>
-      </c>
-      <c r="AH61" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI61" t="s">
-        <v>781</v>
       </c>
       <c r="AJ61">
         <v>840.99997793</v>
@@ -14845,63 +14845,63 @@
         <v>65</v>
       </c>
       <c r="AM61" t="s">
+        <v>781</v>
+      </c>
+      <c r="AN61" t="s">
         <v>782</v>
       </c>
-      <c r="AN61" t="s">
+      <c r="AO61" t="s">
         <v>783</v>
       </c>
-      <c r="AO61" t="s">
+      <c r="AP61" t="s">
         <v>784</v>
       </c>
-      <c r="AP61" t="s">
+      <c r="AQ61" t="s">
         <v>785</v>
       </c>
-      <c r="AQ61" t="s">
+      <c r="AR61" t="s">
         <v>786</v>
       </c>
-      <c r="AR61" t="s">
+      <c r="AS61" t="s">
         <v>787</v>
       </c>
-      <c r="AS61" t="s">
+      <c r="AT61" t="s">
         <v>788</v>
-      </c>
-      <c r="AT61" t="s">
-        <v>789</v>
       </c>
       <c r="AU61" t="s">
         <v>218</v>
       </c>
       <c r="AV61" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="AW61" t="s">
         <v>790</v>
       </c>
-      <c r="AW61" t="s">
+      <c r="AX61" t="s">
         <v>791</v>
       </c>
-      <c r="AX61" t="s">
+      <c r="AY61" t="s">
         <v>792</v>
-      </c>
-      <c r="AY61" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="62" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D62" t="s">
         <v>54</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F62" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -14979,16 +14979,16 @@
         <v>1.5800000430000001</v>
       </c>
       <c r="AF62" t="s">
+        <v>795</v>
+      </c>
+      <c r="AG62" t="s">
         <v>796</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>797</v>
       </c>
       <c r="AH62" s="3">
         <v>2</v>
       </c>
       <c r="AI62" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AJ62">
         <v>1183.99999043</v>
@@ -15000,63 +15000,63 @@
         <v>65</v>
       </c>
       <c r="AM62" t="s">
+        <v>798</v>
+      </c>
+      <c r="AN62" t="s">
         <v>799</v>
       </c>
-      <c r="AN62" t="s">
+      <c r="AO62" t="s">
         <v>800</v>
       </c>
-      <c r="AO62" t="s">
+      <c r="AP62" t="s">
         <v>801</v>
       </c>
-      <c r="AP62" t="s">
+      <c r="AQ62" t="s">
         <v>802</v>
       </c>
-      <c r="AQ62" t="s">
+      <c r="AR62" t="s">
         <v>803</v>
       </c>
-      <c r="AR62" t="s">
+      <c r="AS62" t="s">
         <v>804</v>
       </c>
-      <c r="AS62" t="s">
+      <c r="AT62" t="s">
         <v>805</v>
       </c>
-      <c r="AT62" t="s">
+      <c r="AU62" t="s">
         <v>806</v>
       </c>
-      <c r="AU62" t="s">
+      <c r="AV62" s="8" t="s">
         <v>807</v>
       </c>
-      <c r="AV62" s="8" t="s">
+      <c r="AW62" t="s">
         <v>808</v>
       </c>
-      <c r="AW62" t="s">
+      <c r="AX62" t="s">
         <v>809</v>
       </c>
-      <c r="AX62" t="s">
+      <c r="AY62" t="s">
         <v>810</v>
-      </c>
-      <c r="AY62" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="63" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C63" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D63" t="s">
         <v>54</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F63" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -15134,16 +15134,16 @@
         <v>4.7865200039999998</v>
       </c>
       <c r="AF63" t="s">
+        <v>813</v>
+      </c>
+      <c r="AG63" t="s">
         <v>814</v>
-      </c>
-      <c r="AG63" t="s">
-        <v>815</v>
       </c>
       <c r="AH63" s="3">
         <v>2</v>
       </c>
       <c r="AI63" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AJ63">
         <v>1366.000044141</v>
@@ -15155,63 +15155,63 @@
         <v>65</v>
       </c>
       <c r="AM63" t="s">
+        <v>816</v>
+      </c>
+      <c r="AN63" t="s">
         <v>817</v>
       </c>
-      <c r="AN63" t="s">
+      <c r="AO63" t="s">
         <v>818</v>
       </c>
-      <c r="AO63" t="s">
+      <c r="AP63" t="s">
         <v>819</v>
       </c>
-      <c r="AP63" t="s">
+      <c r="AQ63" t="s">
         <v>820</v>
       </c>
-      <c r="AQ63" t="s">
+      <c r="AR63" t="s">
         <v>821</v>
       </c>
-      <c r="AR63" t="s">
+      <c r="AS63" t="s">
         <v>822</v>
       </c>
-      <c r="AS63" t="s">
+      <c r="AT63" t="s">
         <v>823</v>
       </c>
-      <c r="AT63" t="s">
+      <c r="AU63" t="s">
+        <v>737</v>
+      </c>
+      <c r="AV63" s="8" t="s">
         <v>824</v>
       </c>
-      <c r="AU63" t="s">
-        <v>738</v>
-      </c>
-      <c r="AV63" s="8" t="s">
+      <c r="AW63" t="s">
+        <v>820</v>
+      </c>
+      <c r="AX63" t="s">
         <v>825</v>
       </c>
-      <c r="AW63" t="s">
-        <v>821</v>
-      </c>
-      <c r="AX63" t="s">
+      <c r="AY63" t="s">
         <v>826</v>
-      </c>
-      <c r="AY63" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="64" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C64" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D64" t="s">
         <v>54</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F64" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -15289,16 +15289,16 @@
         <v>1.8337299819999999</v>
       </c>
       <c r="AF64" t="s">
+        <v>829</v>
+      </c>
+      <c r="AG64" t="s">
         <v>830</v>
-      </c>
-      <c r="AG64" t="s">
-        <v>831</v>
       </c>
       <c r="AH64" s="3">
         <v>2</v>
       </c>
       <c r="AI64" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AJ64">
         <v>1126.4000085939999</v>
@@ -15310,63 +15310,63 @@
         <v>65</v>
       </c>
       <c r="AM64" t="s">
+        <v>832</v>
+      </c>
+      <c r="AN64" t="s">
         <v>833</v>
       </c>
-      <c r="AN64" t="s">
+      <c r="AO64" t="s">
         <v>834</v>
       </c>
-      <c r="AO64" t="s">
+      <c r="AP64" t="s">
         <v>835</v>
       </c>
-      <c r="AP64" t="s">
+      <c r="AQ64" t="s">
         <v>836</v>
       </c>
-      <c r="AQ64" t="s">
+      <c r="AR64" t="s">
         <v>837</v>
       </c>
-      <c r="AR64" t="s">
+      <c r="AS64" t="s">
         <v>838</v>
       </c>
-      <c r="AS64" t="s">
+      <c r="AT64" t="s">
         <v>839</v>
-      </c>
-      <c r="AT64" t="s">
-        <v>840</v>
       </c>
       <c r="AU64" t="s">
         <v>166</v>
       </c>
       <c r="AV64" s="8" t="s">
+        <v>840</v>
+      </c>
+      <c r="AW64" t="s">
         <v>841</v>
       </c>
-      <c r="AW64" t="s">
+      <c r="AX64" t="s">
         <v>842</v>
       </c>
-      <c r="AX64" t="s">
+      <c r="AY64" t="s">
         <v>843</v>
-      </c>
-      <c r="AY64" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="65" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C65" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D65" t="s">
         <v>54</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F65" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -15444,10 +15444,10 @@
         <v>1.480000019</v>
       </c>
       <c r="AF65" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="AG65" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AH65" s="3">
         <v>0</v>
@@ -15465,7 +15465,7 @@
         <v>65</v>
       </c>
       <c r="AM65" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AN65">
         <v>149</v>
@@ -15501,12 +15501,12 @@
         <v>930.31433105500003</v>
       </c>
       <c r="AY65" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="66" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>52</v>
@@ -15518,10 +15518,10 @@
         <v>54</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F66" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -15599,16 +15599,16 @@
         <v>12</v>
       </c>
       <c r="AF66" t="s">
+        <v>851</v>
+      </c>
+      <c r="AG66" t="s">
         <v>852</v>
-      </c>
-      <c r="AG66" t="s">
-        <v>853</v>
       </c>
       <c r="AH66" s="3">
         <v>2</v>
       </c>
       <c r="AI66" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AJ66" s="7">
         <v>0</v>
@@ -15620,48 +15620,48 @@
         <v>65</v>
       </c>
       <c r="AM66" t="s">
+        <v>854</v>
+      </c>
+      <c r="AN66" t="s">
         <v>855</v>
       </c>
-      <c r="AN66" t="s">
+      <c r="AO66" t="s">
         <v>856</v>
       </c>
-      <c r="AO66" t="s">
+      <c r="AP66" t="s">
         <v>857</v>
       </c>
-      <c r="AP66" t="s">
+      <c r="AQ66" t="s">
         <v>858</v>
       </c>
-      <c r="AQ66" t="s">
+      <c r="AR66" t="s">
         <v>859</v>
       </c>
-      <c r="AR66" t="s">
+      <c r="AS66" t="s">
         <v>860</v>
       </c>
-      <c r="AS66" t="s">
+      <c r="AT66" t="s">
         <v>861</v>
       </c>
-      <c r="AT66" t="s">
+      <c r="AU66" t="s">
+        <v>452</v>
+      </c>
+      <c r="AV66" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="AW66" t="s">
+        <v>858</v>
+      </c>
+      <c r="AX66" t="s">
         <v>862</v>
       </c>
-      <c r="AU66" t="s">
-        <v>453</v>
-      </c>
-      <c r="AV66" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="AW66" t="s">
-        <v>859</v>
-      </c>
-      <c r="AX66" t="s">
+      <c r="AY66" t="s">
         <v>863</v>
-      </c>
-      <c r="AY66" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="67" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>52</v>
@@ -15673,10 +15673,10 @@
         <v>54</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F67" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -15754,16 +15754,16 @@
         <v>4.4000000950000002</v>
       </c>
       <c r="AF67" t="s">
+        <v>866</v>
+      </c>
+      <c r="AG67" t="s">
         <v>867</v>
-      </c>
-      <c r="AG67" t="s">
-        <v>868</v>
       </c>
       <c r="AH67" s="3">
         <v>2</v>
       </c>
       <c r="AI67" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AJ67" s="7">
         <v>0</v>
@@ -15775,48 +15775,48 @@
         <v>65</v>
       </c>
       <c r="AM67" t="s">
+        <v>869</v>
+      </c>
+      <c r="AN67" t="s">
         <v>870</v>
       </c>
-      <c r="AN67" t="s">
+      <c r="AO67" t="s">
         <v>871</v>
       </c>
-      <c r="AO67" t="s">
+      <c r="AP67" t="s">
         <v>872</v>
       </c>
-      <c r="AP67" t="s">
+      <c r="AQ67" t="s">
         <v>873</v>
       </c>
-      <c r="AQ67" t="s">
+      <c r="AR67" t="s">
         <v>874</v>
       </c>
-      <c r="AR67" t="s">
+      <c r="AS67" t="s">
         <v>875</v>
       </c>
-      <c r="AS67" t="s">
+      <c r="AT67" t="s">
         <v>876</v>
-      </c>
-      <c r="AT67" t="s">
-        <v>877</v>
       </c>
       <c r="AU67" t="s">
         <v>218</v>
       </c>
       <c r="AV67" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="AW67" t="s">
         <v>878</v>
       </c>
-      <c r="AW67" t="s">
+      <c r="AX67" t="s">
         <v>879</v>
       </c>
-      <c r="AX67" t="s">
+      <c r="AY67" t="s">
         <v>880</v>
-      </c>
-      <c r="AY67" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="68" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>52</v>
@@ -15828,10 +15828,10 @@
         <v>54</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F68" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -15909,16 +15909,16 @@
         <v>0</v>
       </c>
       <c r="AF68" t="s">
+        <v>883</v>
+      </c>
+      <c r="AG68" t="s">
         <v>884</v>
-      </c>
-      <c r="AG68" t="s">
-        <v>885</v>
       </c>
       <c r="AH68" s="3">
         <v>2</v>
       </c>
       <c r="AI68" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AJ68" s="7">
         <v>0</v>
@@ -15930,48 +15930,48 @@
         <v>65</v>
       </c>
       <c r="AM68" t="s">
+        <v>886</v>
+      </c>
+      <c r="AN68" t="s">
         <v>887</v>
       </c>
-      <c r="AN68" t="s">
+      <c r="AO68" t="s">
         <v>888</v>
       </c>
-      <c r="AO68" t="s">
+      <c r="AP68" t="s">
         <v>889</v>
       </c>
-      <c r="AP68" t="s">
+      <c r="AQ68" t="s">
         <v>890</v>
       </c>
-      <c r="AQ68" t="s">
+      <c r="AR68" t="s">
         <v>891</v>
       </c>
-      <c r="AR68" t="s">
+      <c r="AS68" t="s">
         <v>892</v>
       </c>
-      <c r="AS68" t="s">
+      <c r="AT68" t="s">
         <v>893</v>
       </c>
-      <c r="AT68" t="s">
+      <c r="AU68" t="s">
+        <v>452</v>
+      </c>
+      <c r="AV68" s="8" t="s">
         <v>894</v>
       </c>
-      <c r="AU68" t="s">
-        <v>453</v>
-      </c>
-      <c r="AV68" s="8" t="s">
+      <c r="AW68" t="s">
         <v>895</v>
       </c>
-      <c r="AW68" t="s">
+      <c r="AX68" t="s">
         <v>896</v>
       </c>
-      <c r="AX68" t="s">
+      <c r="AY68" t="s">
         <v>897</v>
-      </c>
-      <c r="AY68" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="69" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>52</v>
@@ -15983,10 +15983,10 @@
         <v>54</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F69" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -16064,16 +16064,16 @@
         <v>1.3079999689999999</v>
       </c>
       <c r="AF69" t="s">
+        <v>900</v>
+      </c>
+      <c r="AG69" t="s">
         <v>901</v>
-      </c>
-      <c r="AG69" t="s">
-        <v>902</v>
       </c>
       <c r="AH69" s="3">
         <v>2</v>
       </c>
       <c r="AI69" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AJ69">
         <v>1346.7000128909999</v>
@@ -16085,48 +16085,48 @@
         <v>65</v>
       </c>
       <c r="AM69" t="s">
+        <v>903</v>
+      </c>
+      <c r="AN69" t="s">
         <v>904</v>
       </c>
-      <c r="AN69" t="s">
+      <c r="AO69" t="s">
         <v>905</v>
       </c>
-      <c r="AO69" t="s">
+      <c r="AP69" t="s">
         <v>906</v>
       </c>
-      <c r="AP69" t="s">
+      <c r="AQ69" t="s">
         <v>907</v>
       </c>
-      <c r="AQ69" t="s">
+      <c r="AR69" t="s">
         <v>908</v>
       </c>
-      <c r="AR69" t="s">
+      <c r="AS69" t="s">
         <v>909</v>
       </c>
-      <c r="AS69" t="s">
+      <c r="AT69" t="s">
         <v>910</v>
-      </c>
-      <c r="AT69" t="s">
-        <v>911</v>
       </c>
       <c r="AU69" t="s">
         <v>166</v>
       </c>
       <c r="AV69" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="AW69" t="s">
         <v>912</v>
       </c>
-      <c r="AW69" t="s">
+      <c r="AX69" t="s">
         <v>913</v>
       </c>
-      <c r="AX69" t="s">
+      <c r="AY69" t="s">
         <v>914</v>
-      </c>
-      <c r="AY69" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="70" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>52</v>
@@ -16138,10 +16138,10 @@
         <v>54</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F70" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -16219,16 +16219,16 @@
         <v>2.5899999139999998</v>
       </c>
       <c r="AF70" t="s">
+        <v>917</v>
+      </c>
+      <c r="AG70" t="s">
         <v>918</v>
-      </c>
-      <c r="AG70" t="s">
-        <v>919</v>
       </c>
       <c r="AH70" s="3">
         <v>2</v>
       </c>
       <c r="AI70" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AJ70">
         <v>284.00000449200002</v>
@@ -16240,28 +16240,28 @@
         <v>65</v>
       </c>
       <c r="AM70" t="s">
+        <v>920</v>
+      </c>
+      <c r="AN70" t="s">
         <v>921</v>
       </c>
-      <c r="AN70" t="s">
+      <c r="AO70" t="s">
         <v>922</v>
       </c>
-      <c r="AO70" t="s">
+      <c r="AP70" t="s">
         <v>923</v>
       </c>
-      <c r="AP70" t="s">
+      <c r="AQ70" t="s">
         <v>924</v>
       </c>
-      <c r="AQ70" t="s">
+      <c r="AR70" t="s">
         <v>925</v>
       </c>
-      <c r="AR70" t="s">
+      <c r="AS70" t="s">
         <v>926</v>
       </c>
-      <c r="AS70" t="s">
+      <c r="AT70" t="s">
         <v>927</v>
-      </c>
-      <c r="AT70" t="s">
-        <v>928</v>
       </c>
       <c r="AU70" t="s">
         <v>166</v>
@@ -16270,18 +16270,18 @@
         <v>167</v>
       </c>
       <c r="AW70" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AX70" t="s">
+        <v>928</v>
+      </c>
+      <c r="AY70" t="s">
         <v>929</v>
-      </c>
-      <c r="AY70" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="71" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>52</v>
@@ -16293,10 +16293,10 @@
         <v>54</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F71" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -16374,16 +16374,16 @@
         <v>2.2400000100000002</v>
       </c>
       <c r="AF71" t="s">
+        <v>932</v>
+      </c>
+      <c r="AG71" t="s">
         <v>933</v>
-      </c>
-      <c r="AG71" t="s">
-        <v>934</v>
       </c>
       <c r="AH71" s="3">
         <v>2</v>
       </c>
       <c r="AI71" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AJ71" s="7">
         <v>0</v>
@@ -16431,12 +16431,12 @@
         <v>1338.9999550780001</v>
       </c>
       <c r="AY71" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="72" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>52</v>
@@ -16448,10 +16448,10 @@
         <v>54</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F72" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -16529,16 +16529,16 @@
         <v>7</v>
       </c>
       <c r="AF72" t="s">
+        <v>938</v>
+      </c>
+      <c r="AG72" t="s">
         <v>939</v>
-      </c>
-      <c r="AG72" t="s">
-        <v>940</v>
       </c>
       <c r="AH72" s="3">
         <v>2</v>
       </c>
       <c r="AI72" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AJ72" s="7">
         <v>0</v>
@@ -16550,7 +16550,7 @@
         <v>65</v>
       </c>
       <c r="AM72" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AN72">
         <v>155</v>
@@ -16586,12 +16586,12 @@
         <v>1535.9999550780001</v>
       </c>
       <c r="AY72" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="73" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>52</v>
@@ -16603,10 +16603,10 @@
         <v>54</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F73" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -16684,16 +16684,16 @@
         <v>0.676999986</v>
       </c>
       <c r="AF73" t="s">
+        <v>945</v>
+      </c>
+      <c r="AG73" t="s">
         <v>946</v>
       </c>
-      <c r="AG73" t="s">
+      <c r="AH73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI73" t="s">
         <v>947</v>
-      </c>
-      <c r="AH73" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI73" t="s">
-        <v>948</v>
       </c>
       <c r="AJ73">
         <v>1748.4999339840001</v>
@@ -16741,27 +16741,27 @@
         <v>1363.790039063</v>
       </c>
       <c r="AY73" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="74" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C74" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D74" t="s">
         <v>54</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F74" t="s">
         <v>952</v>
-      </c>
-      <c r="F74" t="s">
-        <v>953</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -16839,16 +16839,16 @@
         <v>0.80000001200000004</v>
       </c>
       <c r="AF74" t="s">
+        <v>953</v>
+      </c>
+      <c r="AG74" t="s">
         <v>954</v>
-      </c>
-      <c r="AG74" t="s">
-        <v>955</v>
       </c>
       <c r="AH74" s="3">
         <v>2</v>
       </c>
       <c r="AI74" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AJ74" s="7">
         <v>0</v>
@@ -16860,63 +16860,63 @@
         <v>65</v>
       </c>
       <c r="AM74" t="s">
+        <v>956</v>
+      </c>
+      <c r="AN74" t="s">
         <v>957</v>
       </c>
-      <c r="AN74" t="s">
+      <c r="AO74" t="s">
         <v>958</v>
       </c>
-      <c r="AO74" t="s">
+      <c r="AP74" t="s">
         <v>959</v>
       </c>
-      <c r="AP74" t="s">
+      <c r="AQ74" t="s">
         <v>960</v>
       </c>
-      <c r="AQ74" t="s">
+      <c r="AR74" t="s">
         <v>961</v>
       </c>
-      <c r="AR74" t="s">
+      <c r="AS74" t="s">
         <v>962</v>
       </c>
-      <c r="AS74" t="s">
+      <c r="AT74" t="s">
         <v>963</v>
-      </c>
-      <c r="AT74" t="s">
-        <v>964</v>
       </c>
       <c r="AU74" t="s">
         <v>166</v>
       </c>
       <c r="AV74" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="AW74" t="s">
         <v>965</v>
       </c>
-      <c r="AW74" t="s">
+      <c r="AX74" t="s">
         <v>966</v>
       </c>
-      <c r="AX74" t="s">
+      <c r="AY74" t="s">
         <v>967</v>
-      </c>
-      <c r="AY74" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="75" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C75" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D75" t="s">
         <v>54</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F75" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -16994,16 +16994,16 @@
         <v>0.579999983</v>
       </c>
       <c r="AF75" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="AG75" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AH75" s="3">
         <v>2</v>
       </c>
       <c r="AI75" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AJ75">
         <v>2207.0209960940001</v>
@@ -17015,63 +17015,63 @@
         <v>65</v>
       </c>
       <c r="AM75" t="s">
+        <v>972</v>
+      </c>
+      <c r="AN75" t="s">
         <v>973</v>
       </c>
-      <c r="AN75" t="s">
+      <c r="AO75" t="s">
         <v>974</v>
       </c>
-      <c r="AO75" t="s">
+      <c r="AP75" t="s">
         <v>975</v>
       </c>
-      <c r="AP75" t="s">
+      <c r="AQ75" t="s">
         <v>976</v>
       </c>
-      <c r="AQ75" t="s">
+      <c r="AR75" t="s">
         <v>977</v>
       </c>
-      <c r="AR75" t="s">
+      <c r="AS75" t="s">
         <v>978</v>
       </c>
-      <c r="AS75" t="s">
+      <c r="AT75" t="s">
         <v>979</v>
-      </c>
-      <c r="AT75" t="s">
-        <v>980</v>
       </c>
       <c r="AU75" t="s">
         <v>218</v>
       </c>
       <c r="AV75" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="AW75" t="s">
         <v>981</v>
       </c>
-      <c r="AW75" t="s">
+      <c r="AX75" t="s">
         <v>982</v>
       </c>
-      <c r="AX75" t="s">
+      <c r="AY75" t="s">
         <v>983</v>
-      </c>
-      <c r="AY75" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="76" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C76" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D76" t="s">
         <v>54</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F76" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -17149,16 +17149,16 @@
         <v>1.5499999520000001</v>
       </c>
       <c r="AF76" t="s">
+        <v>986</v>
+      </c>
+      <c r="AG76" t="s">
         <v>987</v>
-      </c>
-      <c r="AG76" t="s">
-        <v>988</v>
       </c>
       <c r="AH76" s="3">
         <v>2</v>
       </c>
       <c r="AI76" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AJ76">
         <v>4501.3100585940001</v>
@@ -17170,63 +17170,63 @@
         <v>65</v>
       </c>
       <c r="AM76" t="s">
+        <v>989</v>
+      </c>
+      <c r="AN76" t="s">
         <v>990</v>
       </c>
-      <c r="AN76" t="s">
+      <c r="AO76" t="s">
         <v>991</v>
       </c>
-      <c r="AO76" t="s">
+      <c r="AP76" t="s">
         <v>992</v>
       </c>
-      <c r="AP76" t="s">
+      <c r="AQ76" t="s">
         <v>993</v>
       </c>
-      <c r="AQ76" t="s">
+      <c r="AR76" t="s">
         <v>994</v>
       </c>
-      <c r="AR76" t="s">
+      <c r="AS76" t="s">
         <v>995</v>
       </c>
-      <c r="AS76" t="s">
+      <c r="AT76" t="s">
         <v>996</v>
       </c>
-      <c r="AT76" t="s">
+      <c r="AU76" t="s">
         <v>997</v>
       </c>
-      <c r="AU76" t="s">
+      <c r="AV76" s="8" t="s">
         <v>998</v>
       </c>
-      <c r="AV76" s="8" t="s">
+      <c r="AW76" t="s">
         <v>999</v>
       </c>
-      <c r="AW76" t="s">
+      <c r="AX76" t="s">
         <v>1000</v>
       </c>
-      <c r="AX76" t="s">
+      <c r="AY76" t="s">
         <v>1001</v>
-      </c>
-      <c r="AY76" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="77" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C77" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D77" t="s">
         <v>54</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F77" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -17304,16 +17304,16 @@
         <v>0.75499999500000003</v>
       </c>
       <c r="AF77" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AG77" t="s">
         <v>1005</v>
-      </c>
-      <c r="AG77" t="s">
-        <v>1006</v>
       </c>
       <c r="AH77" s="3">
         <v>2</v>
       </c>
       <c r="AI77" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AJ77">
         <v>4206.6928710940001</v>
@@ -17325,63 +17325,63 @@
         <v>65</v>
       </c>
       <c r="AM77" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AN77" t="s">
         <v>1008</v>
       </c>
-      <c r="AN77" t="s">
+      <c r="AO77" t="s">
         <v>1009</v>
       </c>
-      <c r="AO77" t="s">
+      <c r="AP77" t="s">
         <v>1010</v>
       </c>
-      <c r="AP77" t="s">
+      <c r="AQ77" t="s">
         <v>1011</v>
       </c>
-      <c r="AQ77" t="s">
+      <c r="AR77" t="s">
         <v>1012</v>
       </c>
-      <c r="AR77" t="s">
+      <c r="AS77" t="s">
         <v>1013</v>
       </c>
-      <c r="AS77" t="s">
+      <c r="AT77" t="s">
         <v>1014</v>
-      </c>
-      <c r="AT77" t="s">
-        <v>1015</v>
       </c>
       <c r="AU77" t="s">
         <v>166</v>
       </c>
       <c r="AV77" s="8" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AW77" t="s">
         <v>1016</v>
       </c>
-      <c r="AW77" t="s">
+      <c r="AX77" t="s">
         <v>1017</v>
       </c>
-      <c r="AX77" t="s">
+      <c r="AY77" t="s">
         <v>1018</v>
-      </c>
-      <c r="AY77" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="78" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C78" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D78" t="s">
         <v>54</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F78" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -17459,16 +17459,16 @@
         <v>2.2000000480000002</v>
       </c>
       <c r="AF78" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AG78" t="s">
         <v>1022</v>
-      </c>
-      <c r="AG78" t="s">
-        <v>1023</v>
       </c>
       <c r="AH78" s="3">
         <v>2</v>
       </c>
       <c r="AI78" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AJ78">
         <v>5114.8295898440001</v>
@@ -17480,63 +17480,63 @@
         <v>65</v>
       </c>
       <c r="AM78" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AN78" t="s">
         <v>1025</v>
       </c>
-      <c r="AN78" t="s">
+      <c r="AO78" t="s">
         <v>1026</v>
       </c>
-      <c r="AO78" t="s">
+      <c r="AP78" t="s">
         <v>1027</v>
       </c>
-      <c r="AP78" t="s">
+      <c r="AQ78" t="s">
         <v>1028</v>
       </c>
-      <c r="AQ78" t="s">
+      <c r="AR78" t="s">
         <v>1029</v>
       </c>
-      <c r="AR78" t="s">
+      <c r="AS78" t="s">
         <v>1030</v>
       </c>
-      <c r="AS78" t="s">
+      <c r="AT78" t="s">
         <v>1031</v>
       </c>
-      <c r="AT78" t="s">
+      <c r="AU78" t="s">
+        <v>806</v>
+      </c>
+      <c r="AV78" s="8" t="s">
         <v>1032</v>
       </c>
-      <c r="AU78" t="s">
-        <v>807</v>
-      </c>
-      <c r="AV78" s="8" t="s">
+      <c r="AW78" t="s">
         <v>1033</v>
       </c>
-      <c r="AW78" t="s">
+      <c r="AX78" t="s">
         <v>1034</v>
       </c>
-      <c r="AX78" t="s">
+      <c r="AY78" t="s">
         <v>1035</v>
-      </c>
-      <c r="AY78" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="79" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C79" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D79" t="s">
         <v>54</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F79" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -17614,16 +17614,16 @@
         <v>0.62875002599999996</v>
       </c>
       <c r="AF79" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AG79" t="s">
         <v>1040</v>
-      </c>
-      <c r="AG79" t="s">
-        <v>1041</v>
       </c>
       <c r="AH79" s="3">
         <v>2</v>
       </c>
       <c r="AI79" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AJ79">
         <v>8852.0341796880002</v>
@@ -17635,63 +17635,63 @@
         <v>65</v>
       </c>
       <c r="AM79" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AN79" t="s">
         <v>1043</v>
       </c>
-      <c r="AN79" t="s">
+      <c r="AO79" t="s">
         <v>1044</v>
       </c>
-      <c r="AO79" t="s">
+      <c r="AP79" t="s">
         <v>1045</v>
       </c>
-      <c r="AP79" t="s">
+      <c r="AQ79" t="s">
         <v>1046</v>
       </c>
-      <c r="AQ79" t="s">
+      <c r="AR79" t="s">
         <v>1047</v>
       </c>
-      <c r="AR79" t="s">
+      <c r="AS79" t="s">
         <v>1048</v>
       </c>
-      <c r="AS79" t="s">
+      <c r="AT79" t="s">
         <v>1049</v>
       </c>
-      <c r="AT79" t="s">
+      <c r="AU79" t="s">
         <v>1050</v>
       </c>
-      <c r="AU79" t="s">
+      <c r="AV79" s="8" t="s">
         <v>1051</v>
       </c>
-      <c r="AV79" s="8" t="s">
+      <c r="AW79" t="s">
         <v>1052</v>
       </c>
-      <c r="AW79" t="s">
+      <c r="AX79" t="s">
         <v>1053</v>
       </c>
-      <c r="AX79" t="s">
+      <c r="AY79" t="s">
         <v>1054</v>
-      </c>
-      <c r="AY79" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="80" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C80" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D80" t="s">
         <v>54</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F80" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -17769,16 +17769,16 @@
         <v>0.5</v>
       </c>
       <c r="AF80" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AG80" t="s">
         <v>1058</v>
-      </c>
-      <c r="AG80" t="s">
-        <v>1059</v>
       </c>
       <c r="AH80" s="3">
         <v>2</v>
       </c>
       <c r="AI80" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="AJ80">
         <v>4250.65625</v>
@@ -17790,63 +17790,63 @@
         <v>65</v>
       </c>
       <c r="AM80" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AN80" t="s">
         <v>1061</v>
       </c>
-      <c r="AN80" t="s">
+      <c r="AO80" t="s">
         <v>1062</v>
       </c>
-      <c r="AO80" t="s">
+      <c r="AP80" t="s">
         <v>1063</v>
       </c>
-      <c r="AP80" t="s">
+      <c r="AQ80" t="s">
         <v>1064</v>
       </c>
-      <c r="AQ80" t="s">
+      <c r="AR80" t="s">
         <v>1065</v>
       </c>
-      <c r="AR80" t="s">
+      <c r="AS80" t="s">
         <v>1066</v>
       </c>
-      <c r="AS80" t="s">
+      <c r="AT80" t="s">
         <v>1067</v>
-      </c>
-      <c r="AT80" t="s">
-        <v>1068</v>
       </c>
       <c r="AU80" t="s">
         <v>166</v>
       </c>
       <c r="AV80" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AW80" t="s">
         <v>1069</v>
       </c>
-      <c r="AW80" t="s">
+      <c r="AX80" t="s">
         <v>1070</v>
       </c>
-      <c r="AX80" t="s">
+      <c r="AY80" t="s">
         <v>1071</v>
-      </c>
-      <c r="AY80" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="81" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D81" t="s">
         <v>54</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F81" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -17924,16 +17924,16 @@
         <v>1.8600780960000001</v>
       </c>
       <c r="AF81" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AG81" t="s">
         <v>1075</v>
-      </c>
-      <c r="AG81" t="s">
-        <v>1076</v>
       </c>
       <c r="AH81" s="3">
         <v>2</v>
       </c>
       <c r="AI81" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AJ81">
         <v>5022.3095703130002</v>
@@ -17978,27 +17978,27 @@
         <v>1513.9999550780001</v>
       </c>
       <c r="AY81" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="82" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C82" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D82" t="s">
         <v>54</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F82" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -18076,16 +18076,16 @@
         <v>1.8600780960000001</v>
       </c>
       <c r="AF82" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AG82" t="s">
         <v>1075</v>
-      </c>
-      <c r="AG82" t="s">
-        <v>1076</v>
       </c>
       <c r="AH82" s="3">
         <v>2</v>
       </c>
       <c r="AI82" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AJ82">
         <v>5022.3095703130002</v>
@@ -18130,27 +18130,27 @@
         <v>1513.9999550780001</v>
       </c>
       <c r="AY82" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="83" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C83" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D83" t="s">
         <v>54</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F83" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -18228,16 +18228,16 @@
         <v>1.3999999759999999</v>
       </c>
       <c r="AF83" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AG83" t="s">
         <v>1082</v>
-      </c>
-      <c r="AG83" t="s">
-        <v>1083</v>
       </c>
       <c r="AH83" s="3">
         <v>2</v>
       </c>
       <c r="AI83" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="AJ83">
         <v>4284.7797851559999</v>
@@ -18285,27 +18285,27 @@
         <v>1695.6959999999999</v>
       </c>
       <c r="AY83" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="84" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C84" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D84" t="s">
         <v>54</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F84" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -18383,16 +18383,16 @@
         <v>0.69999998799999996</v>
       </c>
       <c r="AF84" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AG84" t="s">
         <v>1088</v>
       </c>
-      <c r="AG84" t="s">
+      <c r="AH84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI84" t="s">
         <v>1089</v>
-      </c>
-      <c r="AH84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI84" t="s">
-        <v>1090</v>
       </c>
       <c r="AJ84">
         <v>4199.4799804690001</v>
@@ -18404,28 +18404,28 @@
         <v>65</v>
       </c>
       <c r="AM84" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AN84" t="s">
         <v>1091</v>
       </c>
-      <c r="AN84" t="s">
+      <c r="AO84" t="s">
         <v>1092</v>
       </c>
-      <c r="AO84" t="s">
+      <c r="AP84" t="s">
         <v>1093</v>
       </c>
-      <c r="AP84" t="s">
+      <c r="AQ84" t="s">
         <v>1094</v>
       </c>
-      <c r="AQ84" t="s">
+      <c r="AR84" t="s">
         <v>1095</v>
       </c>
-      <c r="AR84" t="s">
+      <c r="AS84" t="s">
         <v>1096</v>
       </c>
-      <c r="AS84" t="s">
+      <c r="AT84" t="s">
         <v>1097</v>
-      </c>
-      <c r="AT84" t="s">
-        <v>1098</v>
       </c>
       <c r="AU84" t="s">
         <v>363</v>
@@ -18434,33 +18434,33 @@
         <v>364</v>
       </c>
       <c r="AW84" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AX84" t="s">
         <v>1099</v>
       </c>
-      <c r="AX84" t="s">
+      <c r="AY84" t="s">
         <v>1100</v>
-      </c>
-      <c r="AY84" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="85" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C85" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D85" t="s">
         <v>54</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F85" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -18538,16 +18538,16 @@
         <v>0.40000000600000002</v>
       </c>
       <c r="AF85" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AG85" t="s">
         <v>1105</v>
-      </c>
-      <c r="AG85" t="s">
-        <v>1106</v>
       </c>
       <c r="AH85" s="3">
         <v>2</v>
       </c>
       <c r="AI85" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="AJ85">
         <v>1286.099975586</v>
@@ -18559,63 +18559,63 @@
         <v>65</v>
       </c>
       <c r="AM85" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AN85" t="s">
         <v>1108</v>
       </c>
-      <c r="AN85" t="s">
+      <c r="AO85" t="s">
         <v>1109</v>
       </c>
-      <c r="AO85" t="s">
+      <c r="AP85" t="s">
         <v>1110</v>
       </c>
-      <c r="AP85" t="s">
+      <c r="AQ85" t="s">
         <v>1111</v>
       </c>
-      <c r="AQ85" t="s">
+      <c r="AR85" t="s">
         <v>1112</v>
       </c>
-      <c r="AR85" t="s">
+      <c r="AS85" t="s">
         <v>1113</v>
       </c>
-      <c r="AS85" t="s">
+      <c r="AT85" t="s">
         <v>1114</v>
-      </c>
-      <c r="AT85" t="s">
-        <v>1115</v>
       </c>
       <c r="AU85" t="s">
         <v>166</v>
       </c>
       <c r="AV85" s="8" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AW85" t="s">
         <v>1116</v>
       </c>
-      <c r="AW85" t="s">
+      <c r="AX85" t="s">
         <v>1117</v>
       </c>
-      <c r="AX85" t="s">
+      <c r="AY85" t="s">
         <v>1118</v>
-      </c>
-      <c r="AY85" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="86" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C86" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D86" t="s">
         <v>54</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F86" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -18693,16 +18693,16 @@
         <v>1.2000000479999999</v>
       </c>
       <c r="AF86" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AG86" t="s">
         <v>1122</v>
-      </c>
-      <c r="AG86" t="s">
-        <v>1123</v>
       </c>
       <c r="AH86" s="3">
         <v>2</v>
       </c>
       <c r="AI86" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="AJ86">
         <v>4885.169921875</v>
@@ -18714,63 +18714,63 @@
         <v>65</v>
       </c>
       <c r="AM86" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AN86" t="s">
         <v>1125</v>
       </c>
-      <c r="AN86" t="s">
+      <c r="AO86" t="s">
         <v>1126</v>
       </c>
-      <c r="AO86" t="s">
+      <c r="AP86" t="s">
         <v>1127</v>
       </c>
-      <c r="AP86" t="s">
+      <c r="AQ86" t="s">
         <v>1128</v>
       </c>
-      <c r="AQ86" t="s">
+      <c r="AR86" t="s">
         <v>1129</v>
       </c>
-      <c r="AR86" t="s">
+      <c r="AS86" t="s">
         <v>1130</v>
       </c>
-      <c r="AS86" t="s">
+      <c r="AT86" t="s">
         <v>1131</v>
       </c>
-      <c r="AT86" t="s">
+      <c r="AU86" t="s">
+        <v>806</v>
+      </c>
+      <c r="AV86" s="8" t="s">
         <v>1132</v>
       </c>
-      <c r="AU86" t="s">
-        <v>807</v>
-      </c>
-      <c r="AV86" s="8" t="s">
+      <c r="AW86" t="s">
         <v>1133</v>
       </c>
-      <c r="AW86" t="s">
+      <c r="AX86" t="s">
         <v>1134</v>
       </c>
-      <c r="AX86" t="s">
+      <c r="AY86" t="s">
         <v>1135</v>
-      </c>
-      <c r="AY86" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="87" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C87" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D87" t="s">
         <v>54</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F87" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -18848,16 +18848,16 @@
         <v>0.80000001200000004</v>
       </c>
       <c r="AF87" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AG87" t="s">
         <v>1139</v>
-      </c>
-      <c r="AG87" t="s">
-        <v>1140</v>
       </c>
       <c r="AH87" s="3">
         <v>2</v>
       </c>
       <c r="AI87" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="AJ87">
         <v>7542.6508789059999</v>
@@ -18869,63 +18869,63 @@
         <v>65</v>
       </c>
       <c r="AM87" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AN87" t="s">
         <v>1142</v>
       </c>
-      <c r="AN87" t="s">
+      <c r="AO87" t="s">
         <v>1143</v>
       </c>
-      <c r="AO87" t="s">
+      <c r="AP87" t="s">
         <v>1144</v>
       </c>
-      <c r="AP87" t="s">
+      <c r="AQ87" t="s">
         <v>1145</v>
       </c>
-      <c r="AQ87" t="s">
+      <c r="AR87" t="s">
         <v>1146</v>
       </c>
-      <c r="AR87" t="s">
+      <c r="AS87" t="s">
         <v>1147</v>
       </c>
-      <c r="AS87" t="s">
+      <c r="AT87" t="s">
         <v>1148</v>
-      </c>
-      <c r="AT87" t="s">
-        <v>1149</v>
       </c>
       <c r="AU87" t="s">
         <v>363</v>
       </c>
       <c r="AV87" s="8" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AW87" t="s">
         <v>1150</v>
       </c>
-      <c r="AW87" t="s">
+      <c r="AX87" t="s">
         <v>1151</v>
       </c>
-      <c r="AX87" t="s">
+      <c r="AY87" t="s">
         <v>1152</v>
-      </c>
-      <c r="AY87" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="88" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C88" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D88" t="s">
         <v>54</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F88" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -19003,16 +19003,16 @@
         <v>2</v>
       </c>
       <c r="AF88" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AG88" t="s">
         <v>1156</v>
-      </c>
-      <c r="AG88" t="s">
-        <v>1157</v>
       </c>
       <c r="AH88" s="3">
         <v>2</v>
       </c>
       <c r="AI88" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="AJ88">
         <v>4063.6499023440001</v>
@@ -19024,63 +19024,63 @@
         <v>65</v>
       </c>
       <c r="AM88" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AN88" t="s">
         <v>1159</v>
       </c>
-      <c r="AN88" t="s">
+      <c r="AO88" t="s">
         <v>1160</v>
       </c>
-      <c r="AO88" t="s">
+      <c r="AP88" t="s">
         <v>1161</v>
       </c>
-      <c r="AP88" t="s">
+      <c r="AQ88" t="s">
         <v>1162</v>
       </c>
-      <c r="AQ88" t="s">
+      <c r="AR88" t="s">
         <v>1163</v>
       </c>
-      <c r="AR88" t="s">
+      <c r="AS88" t="s">
         <v>1164</v>
       </c>
-      <c r="AS88" t="s">
+      <c r="AT88" t="s">
         <v>1165</v>
       </c>
-      <c r="AT88" t="s">
+      <c r="AU88" t="s">
+        <v>686</v>
+      </c>
+      <c r="AV88" s="8" t="s">
         <v>1166</v>
       </c>
-      <c r="AU88" t="s">
-        <v>687</v>
-      </c>
-      <c r="AV88" s="8" t="s">
+      <c r="AW88" t="s">
         <v>1167</v>
       </c>
-      <c r="AW88" t="s">
+      <c r="AX88" t="s">
         <v>1168</v>
       </c>
-      <c r="AX88" t="s">
+      <c r="AY88" t="s">
         <v>1169</v>
-      </c>
-      <c r="AY88" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="89" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C89" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D89" t="s">
         <v>54</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="F89" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -19158,16 +19158,16 @@
         <v>1.7824399470000001</v>
       </c>
       <c r="AF89" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AG89" t="s">
         <v>1173</v>
-      </c>
-      <c r="AG89" t="s">
-        <v>1174</v>
       </c>
       <c r="AH89" s="3">
         <v>2</v>
       </c>
       <c r="AI89" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="AJ89">
         <v>3523.6201171880002</v>
@@ -19179,63 +19179,63 @@
         <v>65</v>
       </c>
       <c r="AM89" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AN89" t="s">
         <v>1176</v>
       </c>
-      <c r="AN89" t="s">
+      <c r="AO89" t="s">
         <v>1177</v>
       </c>
-      <c r="AO89" t="s">
+      <c r="AP89" t="s">
         <v>1178</v>
       </c>
-      <c r="AP89" t="s">
+      <c r="AQ89" t="s">
         <v>1179</v>
       </c>
-      <c r="AQ89" t="s">
+      <c r="AR89" t="s">
         <v>1180</v>
       </c>
-      <c r="AR89" t="s">
+      <c r="AS89" t="s">
         <v>1181</v>
       </c>
-      <c r="AS89" t="s">
+      <c r="AT89" t="s">
         <v>1182</v>
       </c>
-      <c r="AT89" t="s">
+      <c r="AU89" t="s">
+        <v>452</v>
+      </c>
+      <c r="AV89" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="AW89" t="s">
+        <v>1179</v>
+      </c>
+      <c r="AX89" t="s">
+        <v>862</v>
+      </c>
+      <c r="AY89" t="s">
         <v>1183</v>
-      </c>
-      <c r="AU89" t="s">
-        <v>453</v>
-      </c>
-      <c r="AV89" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="AW89" t="s">
-        <v>1180</v>
-      </c>
-      <c r="AX89" t="s">
-        <v>863</v>
-      </c>
-      <c r="AY89" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="90" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C90" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D90" t="s">
         <v>54</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F90" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -19313,16 +19313,16 @@
         <v>0.68000000699999996</v>
       </c>
       <c r="AF90" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AG90" t="s">
         <v>1187</v>
-      </c>
-      <c r="AG90" t="s">
-        <v>1188</v>
       </c>
       <c r="AH90" s="3">
         <v>2</v>
       </c>
       <c r="AI90" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="AJ90">
         <v>5774.2783203130002</v>
@@ -19334,63 +19334,63 @@
         <v>65</v>
       </c>
       <c r="AM90" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AN90" t="s">
         <v>1190</v>
       </c>
-      <c r="AN90" t="s">
+      <c r="AO90" t="s">
         <v>1191</v>
       </c>
-      <c r="AO90" t="s">
+      <c r="AP90" t="s">
         <v>1192</v>
       </c>
-      <c r="AP90" t="s">
+      <c r="AQ90" t="s">
         <v>1193</v>
       </c>
-      <c r="AQ90" t="s">
+      <c r="AR90" t="s">
         <v>1194</v>
       </c>
-      <c r="AR90" t="s">
+      <c r="AS90" t="s">
         <v>1195</v>
       </c>
-      <c r="AS90" t="s">
+      <c r="AT90" t="s">
         <v>1196</v>
-      </c>
-      <c r="AT90" t="s">
-        <v>1197</v>
       </c>
       <c r="AU90" t="s">
         <v>166</v>
       </c>
       <c r="AV90" s="8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AW90" t="s">
         <v>1198</v>
       </c>
-      <c r="AW90" t="s">
+      <c r="AX90" t="s">
         <v>1199</v>
       </c>
-      <c r="AX90" t="s">
+      <c r="AY90" t="s">
         <v>1200</v>
-      </c>
-      <c r="AY90" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="91" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C91" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D91" t="s">
         <v>54</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F91" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -19468,16 +19468,16 @@
         <v>0.5</v>
       </c>
       <c r="AF91" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="AG91" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AH91" s="3">
         <v>2</v>
       </c>
       <c r="AI91" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AJ91">
         <v>5167.3227539059999</v>
@@ -19489,63 +19489,63 @@
         <v>65</v>
       </c>
       <c r="AM91" t="s">
+        <v>1205</v>
+      </c>
+      <c r="AN91" t="s">
         <v>1206</v>
       </c>
-      <c r="AN91" t="s">
+      <c r="AO91" t="s">
         <v>1207</v>
       </c>
-      <c r="AO91" t="s">
+      <c r="AP91" t="s">
         <v>1208</v>
       </c>
-      <c r="AP91" t="s">
+      <c r="AQ91" t="s">
         <v>1209</v>
       </c>
-      <c r="AQ91" t="s">
+      <c r="AR91" t="s">
         <v>1210</v>
       </c>
-      <c r="AR91" t="s">
+      <c r="AS91" t="s">
         <v>1211</v>
       </c>
-      <c r="AS91" t="s">
+      <c r="AT91" t="s">
         <v>1212</v>
       </c>
-      <c r="AT91" t="s">
+      <c r="AU91" t="s">
+        <v>452</v>
+      </c>
+      <c r="AV91" s="8" t="s">
         <v>1213</v>
       </c>
-      <c r="AU91" t="s">
-        <v>453</v>
-      </c>
-      <c r="AV91" s="8" t="s">
+      <c r="AW91" t="s">
         <v>1214</v>
       </c>
-      <c r="AW91" t="s">
+      <c r="AX91" t="s">
         <v>1215</v>
       </c>
-      <c r="AX91" t="s">
+      <c r="AY91" t="s">
         <v>1216</v>
-      </c>
-      <c r="AY91" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="92" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C92" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D92" t="s">
         <v>54</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F92" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -19623,16 +19623,16 @@
         <v>0.80000001200000004</v>
       </c>
       <c r="AF92" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AG92" t="s">
         <v>1220</v>
-      </c>
-      <c r="AG92" t="s">
-        <v>1221</v>
       </c>
       <c r="AH92" s="3">
         <v>2</v>
       </c>
       <c r="AI92" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="AJ92">
         <v>3415.3542480470001</v>
@@ -19644,63 +19644,63 @@
         <v>65</v>
       </c>
       <c r="AM92" t="s">
+        <v>1222</v>
+      </c>
+      <c r="AN92" t="s">
         <v>1223</v>
       </c>
-      <c r="AN92" t="s">
+      <c r="AO92" t="s">
         <v>1224</v>
       </c>
-      <c r="AO92" t="s">
+      <c r="AP92" t="s">
         <v>1225</v>
       </c>
-      <c r="AP92" t="s">
+      <c r="AQ92" t="s">
         <v>1226</v>
       </c>
-      <c r="AQ92" t="s">
+      <c r="AR92" t="s">
         <v>1227</v>
       </c>
-      <c r="AR92" t="s">
+      <c r="AS92" t="s">
         <v>1228</v>
       </c>
-      <c r="AS92" t="s">
+      <c r="AT92" t="s">
         <v>1229</v>
       </c>
-      <c r="AT92" t="s">
+      <c r="AU92" t="s">
+        <v>686</v>
+      </c>
+      <c r="AV92" s="8" t="s">
         <v>1230</v>
       </c>
-      <c r="AU92" t="s">
-        <v>687</v>
-      </c>
-      <c r="AV92" s="8" t="s">
+      <c r="AW92" t="s">
         <v>1231</v>
       </c>
-      <c r="AW92" t="s">
+      <c r="AX92" t="s">
         <v>1232</v>
       </c>
-      <c r="AX92" t="s">
+      <c r="AY92" t="s">
         <v>1233</v>
-      </c>
-      <c r="AY92" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="93" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C93" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D93" t="s">
         <v>54</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F93" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -19778,16 +19778,16 @@
         <v>9</v>
       </c>
       <c r="AF93" t="s">
+        <v>1236</v>
+      </c>
+      <c r="AG93" t="s">
         <v>1237</v>
-      </c>
-      <c r="AG93" t="s">
-        <v>1238</v>
       </c>
       <c r="AH93" s="3">
         <v>2</v>
       </c>
       <c r="AI93" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="AJ93">
         <v>4199.4750976559999</v>
@@ -19799,63 +19799,63 @@
         <v>65</v>
       </c>
       <c r="AM93" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AN93" t="s">
         <v>1240</v>
       </c>
-      <c r="AN93" t="s">
+      <c r="AO93" t="s">
         <v>1241</v>
       </c>
-      <c r="AO93" t="s">
+      <c r="AP93" t="s">
         <v>1242</v>
       </c>
-      <c r="AP93" t="s">
+      <c r="AQ93" t="s">
         <v>1243</v>
       </c>
-      <c r="AQ93" t="s">
+      <c r="AR93" t="s">
         <v>1244</v>
       </c>
-      <c r="AR93" t="s">
+      <c r="AS93" t="s">
         <v>1245</v>
       </c>
-      <c r="AS93" t="s">
+      <c r="AT93" t="s">
         <v>1246</v>
       </c>
-      <c r="AT93" t="s">
+      <c r="AU93" t="s">
         <v>1247</v>
       </c>
-      <c r="AU93" t="s">
+      <c r="AV93" s="8" t="s">
         <v>1248</v>
       </c>
-      <c r="AV93" s="8" t="s">
+      <c r="AW93" t="s">
         <v>1249</v>
       </c>
-      <c r="AW93" t="s">
+      <c r="AX93" t="s">
         <v>1250</v>
       </c>
-      <c r="AX93" t="s">
+      <c r="AY93" t="s">
         <v>1251</v>
-      </c>
-      <c r="AY93" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="94" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C94" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D94" t="s">
         <v>54</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F94" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -19933,16 +19933,16 @@
         <v>3.0499999519999998</v>
       </c>
       <c r="AF94" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AG94" t="s">
         <v>1255</v>
-      </c>
-      <c r="AG94" t="s">
-        <v>1256</v>
       </c>
       <c r="AH94" s="3">
         <v>2</v>
       </c>
       <c r="AI94" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="AJ94">
         <v>5019.6850585940001</v>
@@ -19954,63 +19954,63 @@
         <v>65</v>
       </c>
       <c r="AM94" t="s">
+        <v>1257</v>
+      </c>
+      <c r="AN94" t="s">
         <v>1258</v>
       </c>
-      <c r="AN94" t="s">
+      <c r="AO94" t="s">
         <v>1259</v>
       </c>
-      <c r="AO94" t="s">
+      <c r="AP94" t="s">
         <v>1260</v>
       </c>
-      <c r="AP94" t="s">
+      <c r="AQ94" t="s">
         <v>1261</v>
       </c>
-      <c r="AQ94" t="s">
+      <c r="AR94" t="s">
         <v>1262</v>
       </c>
-      <c r="AR94" t="s">
+      <c r="AS94" t="s">
         <v>1263</v>
       </c>
-      <c r="AS94" t="s">
+      <c r="AT94" t="s">
         <v>1264</v>
       </c>
-      <c r="AT94" t="s">
+      <c r="AU94" t="s">
+        <v>452</v>
+      </c>
+      <c r="AV94" s="8" t="s">
         <v>1265</v>
       </c>
-      <c r="AU94" t="s">
-        <v>453</v>
-      </c>
-      <c r="AV94" s="8" t="s">
+      <c r="AW94" t="s">
         <v>1266</v>
       </c>
-      <c r="AW94" t="s">
+      <c r="AX94" t="s">
         <v>1267</v>
       </c>
-      <c r="AX94" t="s">
+      <c r="AY94" t="s">
         <v>1268</v>
-      </c>
-      <c r="AY94" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="95" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C95" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D95" t="s">
         <v>54</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="F95" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -20088,16 +20088,16 @@
         <v>1.690000057</v>
       </c>
       <c r="AF95" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="AG95" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AH95" s="3">
         <v>2</v>
       </c>
       <c r="AI95" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="AJ95">
         <v>6826.771484375</v>
@@ -20109,63 +20109,63 @@
         <v>65</v>
       </c>
       <c r="AM95" t="s">
+        <v>1273</v>
+      </c>
+      <c r="AN95" t="s">
         <v>1274</v>
       </c>
-      <c r="AN95" t="s">
+      <c r="AO95" t="s">
         <v>1275</v>
       </c>
-      <c r="AO95" t="s">
+      <c r="AP95" t="s">
         <v>1276</v>
       </c>
-      <c r="AP95" t="s">
+      <c r="AQ95" t="s">
         <v>1277</v>
       </c>
-      <c r="AQ95" t="s">
+      <c r="AR95" t="s">
         <v>1278</v>
       </c>
-      <c r="AR95" t="s">
+      <c r="AS95" t="s">
         <v>1279</v>
       </c>
-      <c r="AS95" t="s">
+      <c r="AT95" t="s">
         <v>1280</v>
       </c>
-      <c r="AT95" t="s">
+      <c r="AU95" t="s">
+        <v>997</v>
+      </c>
+      <c r="AV95" s="8" t="s">
         <v>1281</v>
       </c>
-      <c r="AU95" t="s">
-        <v>998</v>
-      </c>
-      <c r="AV95" s="8" t="s">
+      <c r="AW95" t="s">
         <v>1282</v>
       </c>
-      <c r="AW95" t="s">
+      <c r="AX95" t="s">
         <v>1283</v>
       </c>
-      <c r="AX95" t="s">
+      <c r="AY95" t="s">
         <v>1284</v>
-      </c>
-      <c r="AY95" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="96" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C96" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D96" t="s">
         <v>54</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F96" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -20243,16 +20243,16 @@
         <v>2.2999999519999998</v>
       </c>
       <c r="AF96" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="AG96" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AH96" s="3">
         <v>2</v>
       </c>
       <c r="AI96" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AJ96">
         <v>7939.3046875</v>
@@ -20264,63 +20264,63 @@
         <v>65</v>
       </c>
       <c r="AM96" t="s">
+        <v>1289</v>
+      </c>
+      <c r="AN96" t="s">
         <v>1290</v>
       </c>
-      <c r="AN96" t="s">
+      <c r="AO96" t="s">
         <v>1291</v>
       </c>
-      <c r="AO96" t="s">
+      <c r="AP96" t="s">
         <v>1292</v>
       </c>
-      <c r="AP96" t="s">
+      <c r="AQ96" t="s">
         <v>1293</v>
       </c>
-      <c r="AQ96" t="s">
+      <c r="AR96" t="s">
         <v>1294</v>
       </c>
-      <c r="AR96" t="s">
+      <c r="AS96" t="s">
         <v>1295</v>
       </c>
-      <c r="AS96" t="s">
+      <c r="AT96" t="s">
         <v>1296</v>
       </c>
-      <c r="AT96" t="s">
+      <c r="AU96" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AV96" s="8" t="s">
         <v>1297</v>
       </c>
-      <c r="AU96" t="s">
-        <v>1051</v>
-      </c>
-      <c r="AV96" s="8" t="s">
+      <c r="AW96" t="s">
         <v>1298</v>
       </c>
-      <c r="AW96" t="s">
+      <c r="AX96" t="s">
         <v>1299</v>
       </c>
-      <c r="AX96" t="s">
+      <c r="AY96" t="s">
         <v>1300</v>
-      </c>
-      <c r="AY96" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="97" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C97" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D97" t="s">
         <v>54</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F97" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -20398,16 +20398,16 @@
         <v>1.6499999759999999</v>
       </c>
       <c r="AF97" t="s">
+        <v>1303</v>
+      </c>
+      <c r="AG97" t="s">
         <v>1304</v>
-      </c>
-      <c r="AG97" t="s">
-        <v>1305</v>
       </c>
       <c r="AH97" s="3">
         <v>2</v>
       </c>
       <c r="AI97" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="AJ97">
         <v>4530.83984375</v>
@@ -20419,63 +20419,63 @@
         <v>65</v>
       </c>
       <c r="AM97" t="s">
+        <v>1306</v>
+      </c>
+      <c r="AN97" t="s">
         <v>1307</v>
       </c>
-      <c r="AN97" t="s">
+      <c r="AO97" t="s">
         <v>1308</v>
       </c>
-      <c r="AO97" t="s">
+      <c r="AP97" t="s">
         <v>1309</v>
       </c>
-      <c r="AP97" t="s">
+      <c r="AQ97" t="s">
         <v>1310</v>
       </c>
-      <c r="AQ97" t="s">
+      <c r="AR97" t="s">
         <v>1311</v>
       </c>
-      <c r="AR97" t="s">
+      <c r="AS97" t="s">
         <v>1312</v>
       </c>
-      <c r="AS97" t="s">
+      <c r="AT97" t="s">
         <v>1313</v>
       </c>
-      <c r="AT97" t="s">
+      <c r="AU97" t="s">
+        <v>452</v>
+      </c>
+      <c r="AV97" s="8" t="s">
         <v>1314</v>
       </c>
-      <c r="AU97" t="s">
-        <v>453</v>
-      </c>
-      <c r="AV97" s="8" t="s">
+      <c r="AW97" t="s">
         <v>1315</v>
       </c>
-      <c r="AW97" t="s">
+      <c r="AX97" t="s">
         <v>1316</v>
       </c>
-      <c r="AX97" t="s">
+      <c r="AY97" t="s">
         <v>1317</v>
-      </c>
-      <c r="AY97" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="98" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C98" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D98" t="s">
         <v>54</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F98" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -20553,16 +20553,16 @@
         <v>2.5999999049999998</v>
       </c>
       <c r="AF98" t="s">
+        <v>1320</v>
+      </c>
+      <c r="AG98" t="s">
         <v>1321</v>
-      </c>
-      <c r="AG98" t="s">
-        <v>1322</v>
       </c>
       <c r="AH98" s="3">
         <v>2</v>
       </c>
       <c r="AI98" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="AJ98">
         <v>5774.2783203130002</v>
@@ -20574,48 +20574,48 @@
         <v>65</v>
       </c>
       <c r="AM98" t="s">
+        <v>1323</v>
+      </c>
+      <c r="AN98" t="s">
         <v>1324</v>
       </c>
-      <c r="AN98" t="s">
+      <c r="AO98" t="s">
         <v>1325</v>
       </c>
-      <c r="AO98" t="s">
+      <c r="AP98" t="s">
         <v>1326</v>
       </c>
-      <c r="AP98" t="s">
+      <c r="AQ98" t="s">
         <v>1327</v>
       </c>
-      <c r="AQ98" t="s">
+      <c r="AR98" t="s">
         <v>1328</v>
       </c>
-      <c r="AR98" t="s">
+      <c r="AS98" t="s">
         <v>1329</v>
       </c>
-      <c r="AS98" t="s">
+      <c r="AT98" t="s">
         <v>1330</v>
-      </c>
-      <c r="AT98" t="s">
-        <v>1331</v>
       </c>
       <c r="AU98" t="s">
         <v>268</v>
       </c>
       <c r="AV98" s="8" t="s">
+        <v>1331</v>
+      </c>
+      <c r="AW98" t="s">
         <v>1332</v>
       </c>
-      <c r="AW98" t="s">
+      <c r="AX98" t="s">
         <v>1333</v>
       </c>
-      <c r="AX98" t="s">
+      <c r="AY98" t="s">
         <v>1334</v>
-      </c>
-      <c r="AY98" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="99" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>52</v>
@@ -20624,10 +20624,10 @@
         <v>54</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="F99" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -20699,16 +20699,16 @@
         <v>1</v>
       </c>
       <c r="AF99" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="AG99" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AH99" s="3">
         <v>2</v>
       </c>
       <c r="AI99" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="AJ99" s="7">
         <v>0</v>
@@ -20720,48 +20720,48 @@
         <v>65</v>
       </c>
       <c r="AM99" t="s">
+        <v>1339</v>
+      </c>
+      <c r="AN99" t="s">
         <v>1340</v>
       </c>
-      <c r="AN99" t="s">
+      <c r="AO99" t="s">
         <v>1341</v>
-      </c>
-      <c r="AO99" t="s">
-        <v>1342</v>
       </c>
       <c r="AP99" t="s">
         <v>197</v>
       </c>
       <c r="AQ99" t="s">
+        <v>1342</v>
+      </c>
+      <c r="AR99" t="s">
         <v>1343</v>
       </c>
-      <c r="AR99" t="s">
+      <c r="AS99" t="s">
         <v>1344</v>
       </c>
-      <c r="AS99" t="s">
+      <c r="AT99" t="s">
         <v>1345</v>
-      </c>
-      <c r="AT99" t="s">
-        <v>1346</v>
       </c>
       <c r="AU99" t="s">
         <v>218</v>
       </c>
       <c r="AV99" s="8" t="s">
+        <v>1346</v>
+      </c>
+      <c r="AW99" t="s">
         <v>1347</v>
       </c>
-      <c r="AW99" t="s">
+      <c r="AX99" t="s">
         <v>1348</v>
       </c>
-      <c r="AX99" t="s">
+      <c r="AY99" t="s">
         <v>1349</v>
-      </c>
-      <c r="AY99" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="100" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>52</v>
@@ -20773,7 +20773,7 @@
         <v>54</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -20851,16 +20851,16 @@
         <v>1.480000019</v>
       </c>
       <c r="AF100" t="s">
+        <v>1352</v>
+      </c>
+      <c r="AG100" t="s">
+        <v>487</v>
+      </c>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100" t="s">
         <v>1353</v>
-      </c>
-      <c r="AG100" t="s">
-        <v>488</v>
-      </c>
-      <c r="AH100">
-        <v>0</v>
-      </c>
-      <c r="AI100" t="s">
-        <v>1354</v>
       </c>
       <c r="AJ100">
         <v>1378.399957031</v>
@@ -20872,48 +20872,48 @@
         <v>65</v>
       </c>
       <c r="AM100" t="s">
+        <v>1354</v>
+      </c>
+      <c r="AN100" t="s">
         <v>1355</v>
       </c>
-      <c r="AN100" t="s">
+      <c r="AO100" t="s">
         <v>1356</v>
       </c>
-      <c r="AO100" t="s">
+      <c r="AP100" t="s">
         <v>1357</v>
       </c>
-      <c r="AP100" t="s">
+      <c r="AQ100" t="s">
         <v>1358</v>
       </c>
-      <c r="AQ100" t="s">
+      <c r="AR100" t="s">
         <v>1359</v>
       </c>
-      <c r="AR100" t="s">
+      <c r="AS100" t="s">
         <v>1360</v>
       </c>
-      <c r="AS100" t="s">
+      <c r="AT100" t="s">
         <v>1361</v>
       </c>
-      <c r="AT100" t="s">
+      <c r="AU100" t="s">
         <v>1362</v>
       </c>
-      <c r="AU100" t="s">
+      <c r="AV100" t="s">
         <v>1363</v>
       </c>
-      <c r="AV100" t="s">
+      <c r="AW100" t="s">
+        <v>1358</v>
+      </c>
+      <c r="AX100" t="s">
         <v>1364</v>
       </c>
-      <c r="AW100" t="s">
-        <v>1359</v>
-      </c>
-      <c r="AX100" t="s">
+      <c r="AY100" t="s">
         <v>1365</v>
-      </c>
-      <c r="AY100" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="101" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>52</v>
@@ -20925,7 +20925,7 @@
         <v>54</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -21003,16 +21003,16 @@
         <v>1.470999956</v>
       </c>
       <c r="AF101" t="s">
+        <v>1368</v>
+      </c>
+      <c r="AG101" t="s">
         <v>1369</v>
       </c>
-      <c r="AG101" t="s">
+      <c r="AH101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI101" t="s">
         <v>1370</v>
-      </c>
-      <c r="AH101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI101" t="s">
-        <v>1371</v>
       </c>
       <c r="AJ101">
         <v>1404.0000316410001</v>
@@ -21024,28 +21024,28 @@
         <v>65</v>
       </c>
       <c r="AM101" t="s">
+        <v>1371</v>
+      </c>
+      <c r="AN101" t="s">
         <v>1372</v>
       </c>
-      <c r="AN101" t="s">
+      <c r="AO101" t="s">
         <v>1373</v>
       </c>
-      <c r="AO101" t="s">
+      <c r="AP101" t="s">
         <v>1374</v>
       </c>
-      <c r="AP101" t="s">
+      <c r="AQ101" t="s">
         <v>1375</v>
       </c>
-      <c r="AQ101" t="s">
+      <c r="AR101" t="s">
         <v>1376</v>
       </c>
-      <c r="AR101" t="s">
+      <c r="AS101" t="s">
         <v>1377</v>
       </c>
-      <c r="AS101" t="s">
+      <c r="AT101" t="s">
         <v>1378</v>
-      </c>
-      <c r="AT101" t="s">
-        <v>1379</v>
       </c>
       <c r="AU101" t="s">
         <v>183</v>
@@ -21054,13 +21054,13 @@
         <v>202</v>
       </c>
       <c r="AW101" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="AX101" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AY101" s="11" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/oilfield_100w_raw_data.xlsx
+++ b/inst/extdata/oilfield_100w_raw_data.xlsx
@@ -5026,6 +5026,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0749E9E8-E96D-4C27-93E7-495AC34869B0}" name="tblProsper" displayName="tblProsper" ref="A1:AY101" totalsRowShown="0">
+  <autoFilter ref="A1:AY101" xr:uid="{F4BF5C14-9634-481A-B4E9-683A37230558}"/>
   <sortState ref="A2:AY101">
     <sortCondition ref="F1:F101"/>
   </sortState>
@@ -5385,9 +5386,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F5E7DE-FFDA-440E-8FE6-8CF5EA77E166}">
   <dimension ref="A1:AY101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A32" sqref="A32"/>
+      <selection pane="topRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
